--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,10 +1750,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>19</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="753"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="753" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="421">
   <si>
     <t>32256</t>
   </si>
@@ -1302,6 +1302,18 @@
   </si>
   <si>
     <t>executableClass.Weekly_Ad</t>
+  </si>
+  <si>
+    <t>5035019925</t>
+  </si>
+  <si>
+    <t>segauto1@gmail.com</t>
+  </si>
+  <si>
+    <t>Text_Me_Offers(Y/N)</t>
+  </si>
+  <si>
+    <t>5015036601</t>
   </si>
 </sst>
 </file>
@@ -1700,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,10 +1762,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>19</v>
@@ -3305,7 +3317,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,8 +3350,8 @@
       <c r="A2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>143</v>
+      <c r="B2" s="6">
+        <v>4049092155</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4688,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,14 +4719,16 @@
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -4767,31 +4781,34 @@
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
@@ -4843,28 +4860,31 @@
       <c r="Q2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>21</v>
+      <c r="U2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>124</v>
       </c>
@@ -4915,10 +4935,10 @@
         <v>54</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>85</v>
@@ -4932,10 +4952,13 @@
       <c r="W3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -4988,7 +5011,7 @@
         <v>86</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>86</v>
@@ -5005,10 +5028,13 @@
       <c r="W4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>125</v>
       </c>
@@ -5061,29 +5087,32 @@
         <v>117</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="S2" r:id="rId1" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5092,10 +5121,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,12 +5138,12 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -5164,61 +5193,103 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>127</v>
       </c>
@@ -5239,16 +5310,21 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -5293,26 +5369,31 @@
       <c r="P4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>21</v>
+      <c r="T4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>128</v>
       </c>
@@ -5333,20 +5414,26 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R4" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R2" r:id="rId2" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="753" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="399">
   <si>
     <t>32256</t>
   </si>
@@ -326,39 +326,6 @@
     <t>N/A217</t>
   </si>
   <si>
-    <t>N/A218</t>
-  </si>
-  <si>
-    <t>N/A219</t>
-  </si>
-  <si>
-    <t>N/A220</t>
-  </si>
-  <si>
-    <t>N/A221</t>
-  </si>
-  <si>
-    <t>N/A222</t>
-  </si>
-  <si>
-    <t>N/A223</t>
-  </si>
-  <si>
-    <t>N/A224</t>
-  </si>
-  <si>
-    <t>N/A225</t>
-  </si>
-  <si>
-    <t>N/A226</t>
-  </si>
-  <si>
-    <t>N/A227</t>
-  </si>
-  <si>
-    <t>N/A228</t>
-  </si>
-  <si>
     <t>N/A1111</t>
   </si>
   <si>
@@ -557,45 +524,6 @@
     <t>N/A117</t>
   </si>
   <si>
-    <t>N/A118</t>
-  </si>
-  <si>
-    <t>N/A119</t>
-  </si>
-  <si>
-    <t>N/A120</t>
-  </si>
-  <si>
-    <t>N/A121</t>
-  </si>
-  <si>
-    <t>N/A122</t>
-  </si>
-  <si>
-    <t>N/A123</t>
-  </si>
-  <si>
-    <t>N/A124</t>
-  </si>
-  <si>
-    <t>N/A125</t>
-  </si>
-  <si>
-    <t>N/A126</t>
-  </si>
-  <si>
-    <t>N/A127</t>
-  </si>
-  <si>
-    <t>N/A128</t>
-  </si>
-  <si>
-    <t>N/A129</t>
-  </si>
-  <si>
-    <t>N/A130</t>
-  </si>
-  <si>
     <t>N/A131</t>
   </si>
   <si>
@@ -638,12 +566,6 @@
     <t>N/A144</t>
   </si>
   <si>
-    <t>N/A229</t>
-  </si>
-  <si>
-    <t>N/A230</t>
-  </si>
-  <si>
     <t>N/A231</t>
   </si>
   <si>
@@ -851,21 +773,6 @@
     <t>TC_04_Store_Locator_City_And_State</t>
   </si>
   <si>
-    <t>TC001_Static_barlinks_hard_log_in</t>
-  </si>
-  <si>
-    <t>TC002_Static_bar_Hard_log_in_links_navigation_Home_page</t>
-  </si>
-  <si>
-    <t>TC003_Static_bar_Hard_log_in_links_navigation_Account_setting_page</t>
-  </si>
-  <si>
-    <t>TC004_Static_bar_links_soft_log_in</t>
-  </si>
-  <si>
-    <t>TC005_Static_bar_soft_log_in_links_navigation_Home_page</t>
-  </si>
-  <si>
     <t>TC001_Select_PII_Verification_method_to_verify_customer_identity_using_Plenti_Card_number</t>
   </si>
   <si>
@@ -1314,6 +1221,33 @@
   </si>
   <si>
     <t>5015036601</t>
+  </si>
+  <si>
+    <t>TC002_Staticbar_Hardlogin_links_navigation_Homepage</t>
+  </si>
+  <si>
+    <t>TC003_Staticbar_Hard_login_links_navigation_Account_setting_page</t>
+  </si>
+  <si>
+    <t>Change_Zipcode</t>
+  </si>
+  <si>
+    <t>Hardlogin_Email_Address</t>
+  </si>
+  <si>
+    <t>Hardlogin_Password</t>
+  </si>
+  <si>
+    <t>alexis1@gmail.com</t>
+  </si>
+  <si>
+    <t>TC001_Staticbar_links_Hardlogin</t>
+  </si>
+  <si>
+    <t>TC004_Staticbar_links_Softlogin</t>
+  </si>
+  <si>
+    <t>TC005_Staticbar_Softlogin_links_navigation_Homepage</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1371,6 +1305,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,7 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1428,6 +1374,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1712,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,10 +1705,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -1773,10 +1728,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>29</v>
@@ -1796,10 +1751,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>29</v>
@@ -1819,10 +1774,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>29</v>
@@ -1842,10 +1797,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>29</v>
@@ -1865,10 +1820,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>29</v>
@@ -1888,10 +1843,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>29</v>
@@ -1911,10 +1866,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>29</v>
@@ -1934,10 +1889,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>29</v>
@@ -1957,10 +1912,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>29</v>
@@ -1968,10 +1923,10 @@
       <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -1980,10 +1935,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>29</v>
@@ -2003,10 +1958,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>29</v>
@@ -2026,10 +1981,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>29</v>
@@ -2049,10 +2004,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>29</v>
@@ -2072,10 +2027,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>29</v>
@@ -2095,10 +2050,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>29</v>
@@ -2118,10 +2073,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>29</v>
@@ -2144,7 +2099,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>29</v>
@@ -2164,10 +2119,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>29</v>
@@ -2187,10 +2142,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>29</v>
@@ -2210,10 +2165,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>29</v>
@@ -2233,10 +2188,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>29</v>
@@ -2256,10 +2211,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>29</v>
@@ -2279,10 +2234,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>29</v>
@@ -2302,10 +2257,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>29</v>
@@ -2325,10 +2280,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>29</v>
@@ -2351,7 +2306,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>29</v>
@@ -2371,10 +2326,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>29</v>
@@ -2394,10 +2349,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>29</v>
@@ -2417,10 +2372,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>29</v>
@@ -2440,10 +2395,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>29</v>
@@ -2466,7 +2421,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>29</v>
@@ -2513,49 +2468,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -2567,58 +2522,133 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4049092155</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4049092155</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>398</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4049092155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2627,7 +2657,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,115 +2675,115 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="B20" s="4"/>
     </row>
@@ -2786,7 +2816,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -2819,73 +2849,73 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="B13" s="4"/>
     </row>
@@ -2918,139 +2948,139 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -3083,55 +3113,55 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -3164,13 +3194,13 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3203,13 +3233,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3242,67 +3272,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3317,7 +3347,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3378,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6">
         <v>4049092155</v>
@@ -3361,10 +3391,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -3374,7 +3404,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>85</v>
@@ -3414,67 +3444,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3507,19 +3537,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -3552,13 +3582,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3591,13 +3621,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3630,25 +3660,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -3681,25 +3711,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -3732,7 +3762,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3765,25 +3795,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -3816,7 +3846,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3849,7 +3879,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3895,10 +3925,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -3935,7 +3965,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3968,19 +3998,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4013,55 +4043,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4095,37 +4125,37 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -4171,10 +4201,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>87</v>
@@ -4184,10 +4214,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>88</v>
@@ -4197,10 +4227,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>89</v>
@@ -4210,10 +4240,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>90</v>
@@ -4232,7 +4262,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,11 +4278,11 @@
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>63</v>
+      <c r="B1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>72</v>
@@ -4263,176 +4293,180 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>91</v>
+        <v>128</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>92</v>
+        <v>129</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>130</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>131</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>142</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>143</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>144</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>145</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>101</v>
+        <v>122</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>195</v>
+        <v>123</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>196</v>
+        <v>124</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B14" r:id="rId2" display="alexis1@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4472,117 +4506,117 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -4629,65 +4663,65 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -4781,7 +4815,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -4886,7 +4920,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -5036,76 +5070,76 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="2"/>
@@ -5123,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,7 +5227,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -5222,13 +5256,13 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -5249,7 +5283,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>28</v>
@@ -5269,7 +5303,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -5291,7 +5325,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>81</v>
@@ -5395,7 +5429,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>14</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="420">
   <si>
     <t>32256</t>
   </si>
@@ -134,9 +134,6 @@
     <t>qat</t>
   </si>
   <si>
-    <t>5015039923</t>
-  </si>
-  <si>
     <t>asdfq12</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Functionality</t>
   </si>
   <si>
-    <t>3104172547570866</t>
-  </si>
-  <si>
     <t>TC009_EnrollinNewProgram_PlentiCardNumber_VerifybyPII</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>tonm@plentiqa.com</t>
   </si>
   <si>
-    <t>scqsq11a@plentiqa.com</t>
-  </si>
-  <si>
     <t>Account_Lookup</t>
   </si>
   <si>
@@ -1013,9 +1004,6 @@
     <t>TC001_Soft_login_fully_enrolled_user</t>
   </si>
   <si>
-    <t>TC002_Soft_login_Pre-enrolled_user</t>
-  </si>
-  <si>
     <t>TC001_Log_inSign_up_Global_nav</t>
   </si>
   <si>
@@ -1214,15 +1202,9 @@
     <t>5035019925</t>
   </si>
   <si>
-    <t>segauto1@gmail.com</t>
-  </si>
-  <si>
     <t>Text_Me_Offers(Y/N)</t>
   </si>
   <si>
-    <t>5015036601</t>
-  </si>
-  <si>
     <t>TC002_Staticbar_Hardlogin_links_navigation_Homepage</t>
   </si>
   <si>
@@ -1248,6 +1230,87 @@
   </si>
   <si>
     <t>TC005_Staticbar_Softlogin_links_navigation_Homepage</t>
+  </si>
+  <si>
+    <t>N/A9</t>
+  </si>
+  <si>
+    <t>N/A10</t>
+  </si>
+  <si>
+    <t>N/A11</t>
+  </si>
+  <si>
+    <t>N/A12</t>
+  </si>
+  <si>
+    <t>N/A13</t>
+  </si>
+  <si>
+    <t>N/A14</t>
+  </si>
+  <si>
+    <t>N/A15</t>
+  </si>
+  <si>
+    <t>N/A16</t>
+  </si>
+  <si>
+    <t>N/A17</t>
+  </si>
+  <si>
+    <t>N/A18</t>
+  </si>
+  <si>
+    <t>N/A19</t>
+  </si>
+  <si>
+    <t>N/A20</t>
+  </si>
+  <si>
+    <t>N/A21</t>
+  </si>
+  <si>
+    <t>N/A22</t>
+  </si>
+  <si>
+    <t>N/A23</t>
+  </si>
+  <si>
+    <t>N/A24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8848850882</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>TC002_Soft_login_Pre_enrolled_user</t>
+  </si>
+  <si>
+    <t>2099527440</t>
+  </si>
+  <si>
+    <t>80129</t>
+  </si>
+  <si>
+    <t>5015036602</t>
+  </si>
+  <si>
+    <t>segauto2@gmail.com</t>
+  </si>
+  <si>
+    <t>3104170655231579</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1384,6 +1447,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1667,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,42 +1746,42 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>19</v>
@@ -1728,19 +1792,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>19</v>
@@ -1751,19 +1815,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>19</v>
@@ -1774,19 +1838,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>19</v>
@@ -1797,19 +1861,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>19</v>
@@ -1820,19 +1884,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>19</v>
@@ -1843,19 +1907,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>19</v>
@@ -1866,19 +1930,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>19</v>
@@ -1889,19 +1953,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>19</v>
@@ -1912,19 +1976,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>19</v>
@@ -1935,19 +1999,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>19</v>
@@ -1958,19 +2022,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>19</v>
@@ -1981,19 +2045,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>19</v>
@@ -2004,19 +2068,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>19</v>
@@ -2027,19 +2091,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>19</v>
@@ -2050,19 +2114,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
@@ -2073,19 +2137,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>19</v>
@@ -2096,19 +2160,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>19</v>
@@ -2119,19 +2183,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>19</v>
@@ -2142,19 +2206,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>19</v>
@@ -2165,19 +2229,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>19</v>
@@ -2188,19 +2252,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>19</v>
@@ -2211,19 +2275,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>19</v>
@@ -2234,19 +2298,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>19</v>
@@ -2257,19 +2321,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>19</v>
@@ -2280,19 +2344,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>19</v>
@@ -2303,19 +2367,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>19</v>
@@ -2326,19 +2390,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>19</v>
@@ -2349,19 +2413,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>19</v>
@@ -2372,19 +2436,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>19</v>
@@ -2395,19 +2459,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>19</v>
@@ -2418,19 +2482,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>19</v>
@@ -2460,57 +2524,57 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -2541,35 +2605,35 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -2579,12 +2643,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -2594,7 +2658,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -2603,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -2613,7 +2677,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -2628,7 +2692,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -2654,138 +2718,447 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="95" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B5" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B6" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B9" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B10" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B11" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="B12" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B14" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B15" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B16" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B17" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B18" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2808,15 +3181,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -2841,81 +3214,81 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B13" s="4"/>
     </row>
@@ -2940,147 +3313,147 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -3105,63 +3478,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -3186,21 +3559,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3225,21 +3598,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3264,75 +3637,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3347,7 +3720,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,27 +3734,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4049092155</v>
+        <v>182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -3391,10 +3764,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -3404,13 +3777,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>130</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -3436,75 +3809,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3529,27 +3902,27 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -3564,7 +3937,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,21 +3947,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3600,36 +3973,56 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>414</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3652,33 +4045,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -3703,33 +4096,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -3754,15 +4147,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3787,33 +4180,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -3838,15 +4231,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3871,15 +4264,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3908,27 +4301,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -3957,15 +4350,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3990,27 +4383,27 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4035,63 +4428,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4117,45 +4510,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -4184,69 +4577,69 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -4276,27 +4669,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>13</v>
@@ -4306,10 +4699,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>13</v>
@@ -4319,10 +4712,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>13</v>
@@ -4332,10 +4725,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>13</v>
@@ -4345,10 +4738,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>13</v>
@@ -4358,10 +4751,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
@@ -4371,10 +4764,10 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>13</v>
@@ -4384,10 +4777,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
@@ -4397,10 +4790,10 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
@@ -4410,10 +4803,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>13</v>
@@ -4423,10 +4816,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
@@ -4436,10 +4829,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>13</v>
@@ -4449,10 +4842,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>13</v>
@@ -4489,134 +4882,134 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -4646,82 +5039,82 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -4736,8 +5129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,16 +5157,16 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -4794,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -4809,13 +5202,13 @@
         <v>10</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -4824,72 +5217,72 @@
         <v>22</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>0</v>
@@ -4898,7 +5291,7 @@
         <v>19</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>13</v>
@@ -4913,32 +5306,32 @@
         <v>21</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -4947,199 +5340,199 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="2"/>
@@ -5157,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,13 +5572,13 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -5206,7 +5599,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -5221,13 +5614,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -5236,33 +5629,33 @@
         <v>22</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -5283,10 +5676,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
@@ -5303,7 +5696,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -5325,10 +5718,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
@@ -5360,13 +5753,13 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -5387,10 +5780,10 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
@@ -5407,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
@@ -5429,7 +5822,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>14</v>
@@ -5464,8 +5857,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R2" r:id="rId2" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="434">
   <si>
     <t>32256</t>
   </si>
@@ -152,36 +152,9 @@
     <t>PII</t>
   </si>
   <si>
-    <t>3104172595515012</t>
-  </si>
-  <si>
     <t>Mrs</t>
   </si>
   <si>
-    <t>TONM</t>
-  </si>
-  <si>
-    <t>CHIEDLON</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>GreenValley</t>
-  </si>
-  <si>
-    <t>123StreetView</t>
-  </si>
-  <si>
-    <t>501-503-9925</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -275,9 +248,6 @@
     <t>State_code</t>
   </si>
   <si>
-    <t>tonm@plentiqa.com</t>
-  </si>
-  <si>
     <t>Account_Lookup</t>
   </si>
   <si>
@@ -1310,7 +1280,79 @@
     <t>segauto2@gmail.com</t>
   </si>
   <si>
-    <t>3104170655231579</t>
+    <t>3104170655195584</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Dixon</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>6027925895</t>
+  </si>
+  <si>
+    <t>john.imbu@gmail.com</t>
+  </si>
+  <si>
+    <t>4011 Crowfield Road</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>85012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZ    </t>
+  </si>
+  <si>
+    <t>Invalid_Email</t>
+  </si>
+  <si>
+    <t>Email_NotExist</t>
+  </si>
+  <si>
+    <t>Incorrect_Password</t>
+  </si>
+  <si>
+    <t>Invalid_Password</t>
+  </si>
+  <si>
+    <t>NicholasMLibby@gmail.com</t>
+  </si>
+  <si>
+    <t>Hellogmailcom</t>
+  </si>
+  <si>
+    <t>preethybe89@gmail.com</t>
+  </si>
+  <si>
+    <t>Passworfjhkg98</t>
+  </si>
+  <si>
+    <t>passw1</t>
+  </si>
+  <si>
+    <t>3104172455105789</t>
+  </si>
+  <si>
+    <t>5015036604</t>
+  </si>
+  <si>
+    <t>3104170655230472</t>
+  </si>
+  <si>
+    <t>5015036606</t>
+  </si>
+  <si>
+    <t>segauto3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1448,6 +1490,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1731,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,30 +1800,30 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -1792,10 +1843,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -1815,10 +1866,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -1838,10 +1889,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -1861,10 +1912,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -1884,10 +1935,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -1907,10 +1958,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -1930,10 +1981,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -1953,10 +2004,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -1976,16 +2027,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>28</v>
@@ -1999,10 +2050,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2022,10 +2073,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2045,10 +2096,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2068,10 +2119,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2091,10 +2142,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2114,10 +2165,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2137,10 +2188,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2160,10 +2211,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2183,10 +2234,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2206,10 +2257,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2229,10 +2280,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2252,10 +2303,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2275,10 +2326,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2298,10 +2349,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2321,10 +2372,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2344,10 +2395,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2367,10 +2418,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2390,10 +2441,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2413,10 +2464,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2436,10 +2487,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2459,10 +2510,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2482,10 +2533,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2524,57 +2575,57 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -2605,35 +2656,35 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -2643,12 +2694,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -2658,7 +2709,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -2667,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -2677,7 +2728,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -2692,7 +2743,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -2721,7 +2772,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,16 +2785,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -2761,67 +2812,67 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -2830,54 +2881,54 @@
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2892,10 +2943,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2910,10 +2961,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2928,10 +2979,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2946,10 +2997,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2964,10 +3015,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2982,10 +3033,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3000,10 +3051,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3018,10 +3069,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3036,10 +3087,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3054,10 +3105,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3072,10 +3123,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3090,10 +3141,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3108,10 +3159,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3126,10 +3177,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3144,10 +3195,10 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3181,15 +3232,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3214,81 +3265,81 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B13" s="4"/>
     </row>
@@ -3313,147 +3364,147 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -3478,63 +3529,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -3559,21 +3610,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3598,21 +3649,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3637,75 +3688,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3734,27 +3785,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -3764,10 +3815,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -3777,13 +3828,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -3809,75 +3860,75 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3902,27 +3953,27 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -3947,21 +3998,21 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3988,24 +4039,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4014,13 +4065,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -4045,33 +4096,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4096,33 +4147,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4147,15 +4198,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4180,33 +4231,33 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4231,15 +4282,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4264,15 +4315,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4301,27 +4352,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4350,15 +4401,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4383,27 +4434,27 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4428,63 +4479,63 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4510,45 +4561,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -4577,69 +4628,69 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -4652,10 +4703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,199 +4715,256 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D11" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B14" r:id="rId2" display="alexis1@gmail.com"/>
+    <hyperlink ref="D11" r:id="rId1" display="Hello@gmailcom"/>
+    <hyperlink ref="E11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4882,134 +4990,134 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -5039,82 +5147,82 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -5129,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,7 +5251,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -5157,16 +5265,16 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -5187,7 +5295,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -5202,13 +5310,13 @@
         <v>10</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>12</v>
@@ -5217,81 +5325,81 @@
         <v>22</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>409</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>410</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>37</v>
+        <v>399</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>413</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>414</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>39</v>
+        <v>419</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>13</v>
@@ -5306,32 +5414,32 @@
         <v>21</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>17</v>
@@ -5340,47 +5448,47 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="2"/>
@@ -5390,149 +5498,149 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="2"/>
@@ -5550,8 +5658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,13 +5680,13 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -5599,7 +5707,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -5614,13 +5722,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -5629,33 +5737,33 @@
         <v>22</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -5676,7 +5784,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>27</v>
@@ -5696,7 +5804,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -5718,10 +5826,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
@@ -5759,7 +5867,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -5780,7 +5888,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>27</v>
@@ -5800,7 +5908,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
@@ -5822,33 +5930,67 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Q5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="R5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="W5" s="3" t="s">
         <v>19</v>
       </c>
@@ -5859,8 +6001,9 @@
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
     <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="449">
   <si>
     <t>32256</t>
   </si>
@@ -287,72 +287,6 @@
     <t>N/A217</t>
   </si>
   <si>
-    <t>N/A1111</t>
-  </si>
-  <si>
-    <t>N/A1112</t>
-  </si>
-  <si>
-    <t>N/A1113</t>
-  </si>
-  <si>
-    <t>N/A1114</t>
-  </si>
-  <si>
-    <t>N/A1115</t>
-  </si>
-  <si>
-    <t>N/A1116</t>
-  </si>
-  <si>
-    <t>N/A1117</t>
-  </si>
-  <si>
-    <t>N/A1118</t>
-  </si>
-  <si>
-    <t>N/A1119</t>
-  </si>
-  <si>
-    <t>N/A1120</t>
-  </si>
-  <si>
-    <t>N/A1121</t>
-  </si>
-  <si>
-    <t>N/A1122</t>
-  </si>
-  <si>
-    <t>N/A1123</t>
-  </si>
-  <si>
-    <t>N/A1124</t>
-  </si>
-  <si>
-    <t>N/A1125</t>
-  </si>
-  <si>
-    <t>N/A1126</t>
-  </si>
-  <si>
-    <t>N/A1127</t>
-  </si>
-  <si>
-    <t>N/A1128</t>
-  </si>
-  <si>
-    <t>N/A1129</t>
-  </si>
-  <si>
-    <t>N/A1130</t>
-  </si>
-  <si>
-    <t>N/A1131</t>
-  </si>
-  <si>
-    <t>N/A1132</t>
-  </si>
-  <si>
     <t>TC006_EnrollinNewProgram_old_SEG_CRC_number_VerifybyPII</t>
   </si>
   <si>
@@ -1295,9 +1229,6 @@
     <t>1994</t>
   </si>
   <si>
-    <t>6027925895</t>
-  </si>
-  <si>
     <t>john.imbu@gmail.com</t>
   </si>
   <si>
@@ -1353,6 +1284,120 @@
   </si>
   <si>
     <t>segauto3@gmail.com</t>
+  </si>
+  <si>
+    <t>3104172455101168</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>passpin</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>8646766077</t>
+  </si>
+  <si>
+    <t>Touchton</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>32277</t>
+  </si>
+  <si>
+    <t>stephen.henderson@segrocers.com</t>
+  </si>
+  <si>
+    <t>3104172455102091</t>
+  </si>
+  <si>
+    <t>fully</t>
+  </si>
+  <si>
+    <t>enrl</t>
+  </si>
+  <si>
+    <t>5035011326</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>blvd</t>
+  </si>
+  <si>
+    <t>segau.to1@gmail.com</t>
+  </si>
+  <si>
+    <t>3104172455108080</t>
+  </si>
+  <si>
+    <t>testw</t>
+  </si>
+  <si>
+    <t>preq</t>
+  </si>
+  <si>
+    <t>5035011327</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>segaut.o1@gmail.com</t>
+  </si>
+  <si>
+    <t>Change_Phone_Number</t>
+  </si>
+  <si>
+    <t>Change_EmailAddress</t>
+  </si>
+  <si>
+    <t>5035016608</t>
+  </si>
+  <si>
+    <t>3104172545001741</t>
+  </si>
+  <si>
+    <t>sjdaf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>adfger</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>32254</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>zxc@mailinator.com</t>
+  </si>
+  <si>
+    <t>zxc@gmail.com</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>602-792-5895</t>
+  </si>
+  <si>
+    <t>546-548-4644</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1499,6 +1544,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1820,10 +1886,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -1843,10 +1909,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -1866,10 +1932,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -1889,10 +1955,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -1912,10 +1978,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -1935,10 +2001,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -1958,10 +2024,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -1981,10 +2047,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2004,10 +2070,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2027,10 +2093,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2050,10 +2116,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2073,10 +2139,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2096,10 +2162,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2119,10 +2185,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2142,10 +2208,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2165,10 +2231,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2188,10 +2254,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2214,7 +2280,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2234,10 +2300,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2257,10 +2323,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2280,10 +2346,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2303,10 +2369,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2326,10 +2392,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2349,10 +2415,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2372,10 +2438,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2395,10 +2461,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2421,7 +2487,7 @@
         <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2441,10 +2507,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2464,10 +2530,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2487,10 +2553,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2510,10 +2576,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2536,7 +2602,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2583,49 +2649,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -2665,13 +2731,13 @@
         <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>61</v>
@@ -2679,12 +2745,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -2694,12 +2760,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -2709,7 +2775,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -2718,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -2728,7 +2794,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -2743,7 +2809,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -2772,7 +2838,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,41 +2889,41 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -2891,7 +2957,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>73</v>
@@ -2925,10 +2991,10 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2943,10 +3009,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2961,10 +3027,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2979,10 +3045,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2997,10 +3063,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3015,10 +3081,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3033,10 +3099,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3051,10 +3117,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3069,10 +3135,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3087,10 +3153,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3105,10 +3171,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3123,10 +3189,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3141,10 +3207,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3159,10 +3225,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3177,10 +3243,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3195,10 +3261,10 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3240,7 +3306,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3252,100 +3318,621 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="73" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="Z1" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+    </row>
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="L13" s="35">
+        <v>8433</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="W13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3372,139 +3959,139 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -3537,55 +4124,55 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -3618,13 +4205,13 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3657,13 +4244,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -3696,67 +4283,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3802,10 +4389,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -3815,10 +4402,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -3828,7 +4415,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>72</v>
@@ -3868,67 +4455,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -3961,19 +4548,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4006,13 +4593,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4053,10 +4640,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4065,13 +4652,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -4104,25 +4691,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4155,25 +4742,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4206,7 +4793,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4239,25 +4826,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4290,7 +4877,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4323,7 +4910,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4369,10 +4956,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4409,7 +4996,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4442,19 +5029,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4487,55 +5074,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4569,37 +5156,37 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -4645,10 +5232,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>74</v>
@@ -4658,10 +5245,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>75</v>
@@ -4671,10 +5258,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>76</v>
@@ -4684,10 +5271,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>77</v>
@@ -4724,22 +5311,22 @@
         <v>46</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>62</v>
@@ -4747,10 +5334,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>13</v>
@@ -4763,10 +5350,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>13</v>
@@ -4779,10 +5366,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>13</v>
@@ -4795,10 +5382,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>13</v>
@@ -4811,10 +5398,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>13</v>
@@ -4827,10 +5414,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4843,10 +5430,10 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>13</v>
@@ -4859,10 +5446,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>13</v>
@@ -4875,10 +5462,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>13</v>
@@ -4891,34 +5478,34 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>13</v>
@@ -4931,10 +5518,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>13</v>
@@ -4947,10 +5534,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>13</v>
@@ -5007,117 +5594,117 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -5164,65 +5751,65 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -5235,419 +5822,437 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26.85546875" style="24" customWidth="1"/>
+    <col min="22" max="23" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="T1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="V1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="F2" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="Q2" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="U2" s="30"/>
+      <c r="V2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="25"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="Z4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="2"/>
+      <c r="B5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="T2" r:id="rId1" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5658,7 +6263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -5728,7 +6333,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -5757,13 +6362,13 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -5784,7 +6389,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>27</v>
@@ -5804,7 +6409,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -5826,7 +6431,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>68</v>
@@ -5867,7 +6472,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -5888,7 +6493,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>27</v>
@@ -5908,7 +6513,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
@@ -5930,13 +6535,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>15</v>
@@ -5957,7 +6562,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>27</v>
@@ -5977,7 +6582,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="S5" s="21" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="6315" tabRatio="753" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="473">
   <si>
     <t>32256</t>
   </si>
@@ -1256,9 +1256,6 @@
     <t>Invalid_Password</t>
   </si>
   <si>
-    <t>NicholasMLibby@gmail.com</t>
-  </si>
-  <si>
     <t>Hellogmailcom</t>
   </si>
   <si>
@@ -1361,9 +1358,6 @@
     <t>Change_EmailAddress</t>
   </si>
   <si>
-    <t>5035016608</t>
-  </si>
-  <si>
     <t>3104172545001741</t>
   </si>
   <si>
@@ -1398,6 +1392,84 @@
   </si>
   <si>
     <t>546-548-4644</t>
+  </si>
+  <si>
+    <t>503-501-6610</t>
+  </si>
+  <si>
+    <t>taxexempt@segrocers.com</t>
+  </si>
+  <si>
+    <t>testmyacct06@gmail.com</t>
+  </si>
+  <si>
+    <t>2564577442</t>
+  </si>
+  <si>
+    <t>TONM</t>
+  </si>
+  <si>
+    <t>CHIEDLON</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>256-457-7443</t>
+  </si>
+  <si>
+    <t>123StreetView</t>
+  </si>
+  <si>
+    <t>GreenValley</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>testmyacct07@gmail.com</t>
+  </si>
+  <si>
+    <t>3104170845003292</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>503-501-6612</t>
+  </si>
+  <si>
+    <t>albertadthompson@einrot.com</t>
+  </si>
+  <si>
+    <t>albertadthompson@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>896-525-8961</t>
+  </si>
+  <si>
+    <t>avc123</t>
+  </si>
+  <si>
+    <t>arertfw</t>
+  </si>
+  <si>
+    <t>adcf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID    </t>
+  </si>
+  <si>
+    <t>56984</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1470,6 +1542,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1499,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1535,15 +1613,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1554,7 +1624,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1565,6 +1634,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1849,7 +1933,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,7 +3404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3330,602 +3414,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="G2" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="F12" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="K12" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="J13" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="L13" s="30">
+        <v>8433</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="T2" s="29" t="s">
+      <c r="P13" s="25"/>
+      <c r="Q13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="T13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-    </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-    </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="L13" s="35">
-        <v>8433</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
+      <c r="X13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5290,10 +5374,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,255 +5390,634 @@
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="J1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="38">
+        <v>35204</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="V3" s="41">
+        <v>35204</v>
+      </c>
+      <c r="W3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="41">
+        <v>7898</v>
+      </c>
+      <c r="AB3" s="41">
+        <v>7898</v>
+      </c>
+      <c r="AC3" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+    </row>
+    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+    </row>
+    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+    </row>
+    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="G11" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>402</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="Hello@gmailcom"/>
-    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5563,7 +6026,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,8 +6287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5838,14 +6301,14 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="20" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="26.85546875" style="24" customWidth="1"/>
+    <col min="21" max="21" width="26.85546875" style="20" customWidth="1"/>
     <col min="22" max="23" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="13.7109375" customWidth="1" collapsed="1"/>
@@ -5853,409 +6316,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="M1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="29" t="s">
+      <c r="K2" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="S2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="30" t="s">
+      <c r="S2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="29" t="s">
+      <c r="U2" s="32"/>
+      <c r="V2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="25"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="21"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="29" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="26" t="s">
+      <c r="S3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="26" t="s">
+      <c r="X3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="25"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="25"/>
+      <c r="C4" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="21"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="H5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="N5" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="O5" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="M5" s="26" t="s">
+      <c r="P5" s="25"/>
+      <c r="Q5" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="R5" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="N5" s="26" t="s">
-        <v>446</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="26" t="s">
+      <c r="S5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="U5" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="26" t="s">
+      <c r="X5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="Y5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="26" t="s">
+      <c r="Z5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="25"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="T2" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="U4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6472,7 +6938,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -6493,7 +6959,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>27</v>
@@ -6541,12 +7007,12 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -6562,19 +7028,19 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K5" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="3" t="s">
         <v>0</v>
       </c>
@@ -6582,12 +7048,12 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="S5" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="3" t="s">

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="6315" tabRatio="753" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="6315" tabRatio="753" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="491">
   <si>
     <t>32256</t>
   </si>
@@ -392,9 +392,6 @@
     <t>TC002_Reset_PIN_Account_settings_page_cancel</t>
   </si>
   <si>
-    <t>TC003_Error_message_validation__unmatched_PIN</t>
-  </si>
-  <si>
     <t>TC004_Error_message_validation_repeating_digit_PIN_number</t>
   </si>
   <si>
@@ -419,15 +416,6 @@
     <t>N/A117</t>
   </si>
   <si>
-    <t>N/A131</t>
-  </si>
-  <si>
-    <t>N/A132</t>
-  </si>
-  <si>
-    <t>N/A133</t>
-  </si>
-  <si>
     <t>N/A134</t>
   </si>
   <si>
@@ -461,15 +449,6 @@
     <t>N/A144</t>
   </si>
   <si>
-    <t>N/A231</t>
-  </si>
-  <si>
-    <t>N/A232</t>
-  </si>
-  <si>
-    <t>N/A233</t>
-  </si>
-  <si>
     <t>N/A234</t>
   </si>
   <si>
@@ -947,9 +926,6 @@
     <t>TC004_check_navigation_for_Fully_Enrolled_but_not_linked</t>
   </si>
   <si>
-    <t>TC001_Contact_us</t>
-  </si>
-  <si>
     <t>TC001_Rewards_link_in_Global_nav</t>
   </si>
   <si>
@@ -1470,6 +1446,84 @@
   </si>
   <si>
     <t>56984</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SEGNumber</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>TC001_ContactUs</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>testaccount@gmail.com</t>
+  </si>
+  <si>
+    <t>7221180000091860</t>
+  </si>
+  <si>
+    <t>Test test</t>
+  </si>
+  <si>
+    <t>PIN_Repeat</t>
+  </si>
+  <si>
+    <t>PIN_CRC_WD</t>
+  </si>
+  <si>
+    <t>PIN_CRC_HY</t>
+  </si>
+  <si>
+    <t>PIN_Phone</t>
+  </si>
+  <si>
+    <t>PIN_EasilyGuessable</t>
+  </si>
+  <si>
+    <t>PIN_House</t>
+  </si>
+  <si>
+    <t>7734122379</t>
+  </si>
+  <si>
+    <t>60004</t>
+  </si>
+  <si>
+    <t>jones11@plentiqa.com</t>
+  </si>
+  <si>
+    <t>TC003_Reset_PIN_Error_Message_Validation</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>6324</t>
+  </si>
+  <si>
+    <t>2771</t>
+  </si>
+  <si>
+    <t>2379</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t>7899</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1649,6 +1703,32 @@
     <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1970,10 +2050,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -1993,10 +2073,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2016,10 +2096,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2039,10 +2119,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2062,10 +2142,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2085,10 +2165,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2108,10 +2188,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2131,10 +2211,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2154,10 +2234,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2177,10 +2257,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2200,10 +2280,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2223,10 +2303,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2246,10 +2326,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2269,10 +2349,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2292,10 +2372,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2315,10 +2395,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2338,10 +2418,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2364,7 +2444,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2384,10 +2464,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2407,10 +2487,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2430,10 +2510,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2453,10 +2533,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2476,10 +2556,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2499,10 +2579,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2522,10 +2602,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2545,10 +2625,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2571,7 +2651,7 @@
         <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2591,10 +2671,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2614,10 +2694,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2637,10 +2717,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2660,10 +2740,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2686,7 +2766,7 @@
         <v>55</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2733,49 +2813,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -2815,13 +2895,13 @@
         <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>61</v>
@@ -2829,12 +2909,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -2844,12 +2924,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -2859,7 +2939,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -2868,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -2878,7 +2958,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -2893,7 +2973,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -2973,41 +3053,41 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3041,7 +3121,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>73</v>
@@ -3075,10 +3155,10 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3093,10 +3173,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3111,10 +3191,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3129,10 +3209,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3147,10 +3227,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3165,10 +3245,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3183,10 +3263,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3201,10 +3281,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3219,10 +3299,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3237,10 +3317,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3255,10 +3335,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3273,10 +3353,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3291,10 +3371,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3309,10 +3389,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3327,10 +3407,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3345,10 +3425,10 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3390,7 +3470,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3466,7 +3546,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="S1" s="21" t="s">
         <v>12</v>
@@ -3495,13 +3575,13 @@
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>32</v>
@@ -3510,10 +3590,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>16</v>
@@ -3522,32 +3602,32 @@
         <v>17</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="22" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="T2" s="25" t="s">
         <v>13</v>
@@ -3569,7 +3649,7 @@
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="25"/>
@@ -3599,7 +3679,7 @@
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="25"/>
@@ -3629,7 +3709,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="25"/>
@@ -3659,7 +3739,7 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
@@ -3689,7 +3769,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="25"/>
@@ -3719,7 +3799,7 @@
     </row>
     <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="25"/>
@@ -3749,7 +3829,7 @@
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="25"/>
@@ -3779,7 +3859,7 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="25"/>
@@ -3809,7 +3889,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="25"/>
@@ -3839,13 +3919,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>32</v>
@@ -3854,10 +3934,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>16</v>
@@ -3866,22 +3946,22 @@
         <v>17</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="N12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P12" s="25"/>
       <c r="Q12" s="22" t="s">
@@ -3891,7 +3971,7 @@
         <v>19</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>13</v>
@@ -3913,23 +3993,23 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>16</v>
@@ -3938,22 +4018,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L13" s="30">
         <v>8433</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="N13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P13" s="25"/>
       <c r="Q13" s="22" t="s">
@@ -3963,7 +4043,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="T13" s="25" t="s">
         <v>13</v>
@@ -4043,139 +4123,139 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -4208,55 +4288,55 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4289,13 +4369,13 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4328,13 +4408,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4367,67 +4447,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -4473,7 +4553,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>97</v>
@@ -4539,67 +4619,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -4632,19 +4712,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4677,13 +4757,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4724,7 +4804,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>97</v>
@@ -4736,13 +4816,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -4775,25 +4855,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4826,25 +4906,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4877,7 +4957,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4910,25 +4990,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -4940,10 +5020,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,23 +5031,56 @@
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="45"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4994,7 +5107,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5080,7 +5193,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5113,19 +5226,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5158,55 +5271,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -5240,37 +5353,37 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -5319,7 +5432,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>74</v>
@@ -5332,7 +5445,7 @@
         <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>75</v>
@@ -5345,7 +5458,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>76</v>
@@ -5358,7 +5471,7 @@
         <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>77</v>
@@ -5395,10 +5508,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D1" s="35" t="s">
         <v>54</v>
@@ -5407,16 +5520,16 @@
         <v>52</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>1</v>
@@ -5458,7 +5571,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="34" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="X1" s="34" t="s">
         <v>12</v>
@@ -5476,7 +5589,7 @@
         <v>51</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -5484,7 +5597,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>13</v>
@@ -5521,13 +5634,13 @@
         <v>94</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E3" s="38">
         <v>35204</v>
@@ -5540,35 +5653,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="N3" s="41" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="R3" s="41"/>
       <c r="S3" s="38" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="T3" s="41" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="U3" s="41" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V3" s="41">
         <v>35204</v>
@@ -5577,7 +5690,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y3" s="38" t="s">
         <v>13</v>
@@ -5600,7 +5713,7 @@
         <v>95</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>13</v>
@@ -5637,7 +5750,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>13</v>
@@ -5674,7 +5787,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>13</v>
@@ -5711,7 +5824,7 @@
         <v>107</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>13</v>
@@ -5748,7 +5861,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>13</v>
@@ -5785,7 +5898,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>13</v>
@@ -5822,7 +5935,7 @@
         <v>110</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>13</v>
@@ -5859,7 +5972,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>13</v>
@@ -5867,16 +5980,16 @@
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="37" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -5904,7 +6017,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>13</v>
@@ -5941,7 +6054,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>13</v>
@@ -5978,7 +6091,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>13</v>
@@ -6023,10 +6136,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,146 +6148,295 @@
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C6" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6217,10 +6479,10 @@
         <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
@@ -6230,10 +6492,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
@@ -6243,10 +6505,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -6256,10 +6518,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -6269,10 +6531,10 @@
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -6287,8 +6549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6350,7 +6612,7 @@
         <v>49</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>7</v>
@@ -6371,13 +6633,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="T1" s="21" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="V1" s="21" t="s">
         <v>22</v>
@@ -6409,7 +6671,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>32</v>
@@ -6418,47 +6680,47 @@
         <v>15</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="25" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>72</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>72</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="U2" s="32"/>
       <c r="V2" s="25" t="s">
@@ -6563,7 +6825,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>32</v>
@@ -6572,50 +6834,50 @@
         <v>15</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I4" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="M4" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="N4" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="L4" s="32" t="s">
+      <c r="O4" s="22" t="s">
         <v>462</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>470</v>
       </c>
       <c r="P4" s="33"/>
       <c r="Q4" s="22" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="S4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="V4" s="33" t="s">
         <v>13</v>
@@ -6643,7 +6905,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>32</v>
@@ -6652,10 +6914,10 @@
         <v>33</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>17</v>
@@ -6667,35 +6929,35 @@
         <v>39</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="22" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="V5" s="25" t="s">
         <v>13</v>
@@ -6799,7 +7061,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -6834,7 +7096,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -6855,7 +7117,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>27</v>
@@ -6875,7 +7137,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -6938,7 +7200,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -6959,7 +7221,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>27</v>
@@ -6979,7 +7241,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
@@ -7007,7 +7269,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>15</v>
@@ -7028,7 +7290,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>27</v>
@@ -7048,7 +7310,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="6315" tabRatio="753" firstSheet="27" activeTab="27"/>
+    <workbookView activeTab="7" firstSheet="2" tabRatio="753" windowHeight="5445" windowWidth="16380" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" sheetId="4" r:id="rId1"/>
-    <sheet name="SoftLogin" sheetId="6" r:id="rId2"/>
-    <sheet name="Logout" sheetId="13" r:id="rId3"/>
-    <sheet name="Forgot_Password_Page" sheetId="14" r:id="rId4"/>
-    <sheet name="HardLogin_Loggedin_Account" sheetId="15" r:id="rId5"/>
-    <sheet name="Reset_PIN" sheetId="16" r:id="rId6"/>
-    <sheet name="Reset_Password" sheetId="12" r:id="rId7"/>
-    <sheet name="Fully_Enrolled_Customers_Flow" sheetId="5" r:id="rId8"/>
-    <sheet name="Pre_Enrolled_Customers_Flow" sheetId="3" r:id="rId9"/>
-    <sheet name="Store_Locator" sheetId="17" r:id="rId10"/>
-    <sheet name="Static_Infobar_loggedin_Users" sheetId="18" r:id="rId11"/>
-    <sheet name="PII_Validation" sheetId="19" r:id="rId12"/>
-    <sheet name="Enrollment_Step_Counter" sheetId="20" r:id="rId13"/>
-    <sheet name="Set_Pin_PW_in_Security_Info" sheetId="21" r:id="rId14"/>
-    <sheet name="Account_Setup_page" sheetId="22" r:id="rId15"/>
-    <sheet name="Email_Verification" sheetId="25" r:id="rId16"/>
-    <sheet name="Persist_Data_During_Enrollment" sheetId="26" r:id="rId17"/>
-    <sheet name="Fuelperks_Locator_Page" sheetId="27" r:id="rId18"/>
-    <sheet name="Account_Lookup" sheetId="28" r:id="rId19"/>
-    <sheet name="LoggedIn_for_Rewards_Section" sheetId="29" r:id="rId20"/>
-    <sheet name="Updated_HomePage" sheetId="30" r:id="rId21"/>
-    <sheet name="Never_Miss_A_Deal" sheetId="24" r:id="rId22"/>
-    <sheet name="User_Status_After_SoftLogin" sheetId="31" r:id="rId23"/>
-    <sheet name="Login_Or_Signup_Global_Nav" sheetId="32" r:id="rId24"/>
-    <sheet name="Loggedout_Rewards_Page" sheetId="33" r:id="rId25"/>
-    <sheet name="Enrollment_LandingPage" sheetId="34" r:id="rId26"/>
-    <sheet name="Enrollment_Status_Directions" sheetId="35" r:id="rId27"/>
-    <sheet name="Contact_Us" sheetId="36" r:id="rId28"/>
-    <sheet name="Global_Nav_Update" sheetId="37" r:id="rId29"/>
-    <sheet name="Update_Footer" sheetId="38" r:id="rId30"/>
-    <sheet name="Digital_Coupons" sheetId="39" r:id="rId31"/>
-    <sheet name="Shopping_List" sheetId="40" r:id="rId32"/>
-    <sheet name="Weekly_Ad" sheetId="41" r:id="rId33"/>
+    <sheet name="Global" r:id="rId1" sheetId="4"/>
+    <sheet name="SoftLogin" r:id="rId2" sheetId="6"/>
+    <sheet name="Logout" r:id="rId3" sheetId="13"/>
+    <sheet name="Forgot_Password_Page" r:id="rId4" sheetId="14"/>
+    <sheet name="HardLogin_Loggedin_Account" r:id="rId5" sheetId="15"/>
+    <sheet name="Reset_PIN" r:id="rId6" sheetId="16"/>
+    <sheet name="Reset_Password" r:id="rId7" sheetId="12"/>
+    <sheet name="Fully_Enrolled_Customers_Flow" r:id="rId8" sheetId="5"/>
+    <sheet name="Pre_Enrolled_Customers_Flow" r:id="rId9" sheetId="3"/>
+    <sheet name="Store_Locator" r:id="rId10" sheetId="17"/>
+    <sheet name="Static_Infobar_loggedin_Users" r:id="rId11" sheetId="18"/>
+    <sheet name="PII_Validation" r:id="rId12" sheetId="19"/>
+    <sheet name="Enrollment_Step_Counter" r:id="rId13" sheetId="20"/>
+    <sheet name="Set_Pin_PW_in_Security_Info" r:id="rId14" sheetId="21"/>
+    <sheet name="Account_Setup_page" r:id="rId15" sheetId="22"/>
+    <sheet name="Email_Verification" r:id="rId16" sheetId="25"/>
+    <sheet name="Persist_Data_During_Enrollment" r:id="rId17" sheetId="26"/>
+    <sheet name="Fuelperks_Locator_Page" r:id="rId18" sheetId="27"/>
+    <sheet name="Account_Lookup" r:id="rId19" sheetId="28"/>
+    <sheet name="LoggedIn_for_Rewards_Section" r:id="rId20" sheetId="29"/>
+    <sheet name="Updated_HomePage" r:id="rId21" sheetId="30"/>
+    <sheet name="Never_Miss_A_Deal" r:id="rId22" sheetId="24"/>
+    <sheet name="User_Status_After_SoftLogin" r:id="rId23" sheetId="31"/>
+    <sheet name="Login_Or_Signup_Global_Nav" r:id="rId24" sheetId="32"/>
+    <sheet name="Loggedout_Rewards_Page" r:id="rId25" sheetId="33"/>
+    <sheet name="Enrollment_LandingPage" r:id="rId26" sheetId="34"/>
+    <sheet name="Enrollment_Status_Directions" r:id="rId27" sheetId="35"/>
+    <sheet name="Contact_Us" r:id="rId28" sheetId="36"/>
+    <sheet name="Global_Nav_Update" r:id="rId29" sheetId="37"/>
+    <sheet name="Update_Footer" r:id="rId30" sheetId="38"/>
+    <sheet name="Digital_Coupons" r:id="rId31" sheetId="39"/>
+    <sheet name="Shopping_List" r:id="rId32" sheetId="40"/>
+    <sheet name="Weekly_Ad" r:id="rId33" sheetId="41"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="507">
   <si>
     <t>32256</t>
   </si>
@@ -164,30 +164,12 @@
     <t>txdfg</t>
   </si>
   <si>
-    <t>cdnhf</t>
-  </si>
-  <si>
     <t>fdg</t>
   </si>
   <si>
     <t>1991</t>
   </si>
   <si>
-    <t>1331</t>
-  </si>
-  <si>
-    <t>DCDCUSA</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>32210</t>
-  </si>
-  <si>
-    <t>rbarrantes@plentiqa.com</t>
-  </si>
-  <si>
     <t>503-501-9965</t>
   </si>
   <si>
@@ -1130,36 +1112,6 @@
     <t>segauto2@gmail.com</t>
   </si>
   <si>
-    <t>3104170655195584</t>
-  </si>
-  <si>
-    <t>Tobias</t>
-  </si>
-  <si>
-    <t>Dixon</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>john.imbu@gmail.com</t>
-  </si>
-  <si>
-    <t>4011 Crowfield Road</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>85012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZ    </t>
-  </si>
-  <si>
     <t>Invalid_Email</t>
   </si>
   <si>
@@ -1247,9 +1199,6 @@
     <t>Change_EmailAddress</t>
   </si>
   <si>
-    <t>602-792-5895</t>
-  </si>
-  <si>
     <t>taxexempt@segrocers.com</t>
   </si>
   <si>
@@ -1496,9 +1445,6 @@
     <t>2000</t>
   </si>
   <si>
-    <t>3104172455133732</t>
-  </si>
-  <si>
     <t>Fyfyyfyg</t>
   </si>
   <si>
@@ -1511,21 +1457,12 @@
     <t>7756868686</t>
   </si>
   <si>
-    <t>5035016613</t>
-  </si>
-  <si>
     <t>Tcvhvh</t>
   </si>
   <si>
     <t>Jbhbbh</t>
   </si>
   <si>
-    <t>32255</t>
-  </si>
-  <si>
-    <t>5035016614</t>
-  </si>
-  <si>
     <t>7221180000058834</t>
   </si>
   <si>
@@ -1554,12 +1491,94 @@
   </si>
   <si>
     <t>executableClass.Contact_Us</t>
+  </si>
+  <si>
+    <t>7221180045822434</t>
+  </si>
+  <si>
+    <t>5035016616</t>
+  </si>
+  <si>
+    <t>5035016617</t>
+  </si>
+  <si>
+    <t>5035016618</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>32225</t>
+  </si>
+  <si>
+    <t>7221180000020156</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Elmore</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>8642790799</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aladdin Road</t>
+  </si>
+  <si>
+    <t>32223</t>
+  </si>
+  <si>
+    <t>annaelmore@seg.com</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>23 main st</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>98005</t>
+  </si>
+  <si>
+    <t>3104172565048465</t>
+  </si>
+  <si>
+    <t>9636667780</t>
+  </si>
+  <si>
+    <t>5035016619</t>
+  </si>
+  <si>
+    <t>sblack311@uftdemo.com</t>
+  </si>
+  <si>
+    <t>sblack311@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1658,115 +1677,107 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="50">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1783,10 +1794,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1821,7 +1832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1856,7 +1867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1950,21 +1961,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1981,7 +1992,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2033,58 +2044,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -2104,10 +2115,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2127,10 +2138,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2150,10 +2161,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2173,10 +2184,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2196,10 +2207,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2219,10 +2230,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2231,10 +2242,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -2242,10 +2253,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2265,10 +2276,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2288,16 +2299,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>28</v>
@@ -2311,10 +2322,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2334,10 +2345,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2357,10 +2368,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2380,10 +2391,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2403,10 +2414,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2426,10 +2437,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2449,10 +2460,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2472,10 +2483,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2495,10 +2506,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2518,10 +2529,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2541,10 +2552,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2564,10 +2575,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2587,10 +2598,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2610,10 +2621,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2633,10 +2644,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2656,10 +2667,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2679,10 +2690,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2702,10 +2713,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2725,10 +2736,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2748,10 +2759,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2771,10 +2782,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2794,10 +2805,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2816,14 +2827,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2831,74 +2842,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B9" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E2"/>
@@ -2906,46 +2917,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -2953,14 +2964,14 @@
       <c r="F2" s="17"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -2968,9 +2979,9 @@
       <c r="F3" s="17"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -2979,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>13</v>
@@ -2989,7 +3000,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3002,9 +3013,9 @@
       <c r="F5" s="17"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3019,18 +3030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3038,24 +3049,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="95.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3073,52 +3084,52 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3133,7 +3144,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
@@ -3142,54 +3153,54 @@
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3204,10 +3215,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3222,10 +3233,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3240,10 +3251,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3258,10 +3269,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3276,10 +3287,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3294,10 +3305,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3312,10 +3323,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3330,10 +3341,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3348,10 +3359,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3366,10 +3377,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3384,10 +3395,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3402,10 +3413,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3420,10 +3431,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3438,10 +3449,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3454,12 +3465,12 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3473,14 +3484,14 @@
       <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -3488,12 +3499,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -3501,19 +3512,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="U5" sqref="U5"/>
@@ -3521,746 +3532,746 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="20" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="13.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="18" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="20"/>
-    <col min="14" max="14" width="11.5703125" style="20" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="20" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="20"/>
-    <col min="19" max="19" width="33.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11" style="20" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" customWidth="true" style="20" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="20" width="11.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="20" width="24.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="20" width="17.28515625" collapsed="true"/>
+    <col min="5" max="10" style="20" width="9.140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="20" width="13.28515625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="20" width="18.0" collapsed="false"/>
+    <col min="13" max="13" style="20" width="9.140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="20" width="11.5703125" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="20" width="10.28515625" collapsed="false"/>
+    <col min="16" max="18" style="20" width="9.140625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="20" width="33.85546875" collapsed="false"/>
+    <col min="20" max="21" customWidth="true" style="20" width="11.0" collapsed="false"/>
+    <col min="22" max="16384" style="20" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="45" t="s">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+    </row>
+    <row ht="30" r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+    </row>
+    <row ht="30" r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+    </row>
+    <row ht="30" r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+    </row>
+    <row ht="30" r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+    </row>
+    <row ht="30" r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+    </row>
+    <row ht="30" r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" s="40">
+        <v>2</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40">
+        <v>1990</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40">
+        <v>32256</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="T10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+    </row>
+    <row ht="30" r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="C11" s="47">
+        <v>9045269191</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40">
+        <v>32256</v>
+      </c>
+      <c r="R11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="T11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="C12" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F12" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="L12" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="O12" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="P12" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="Q12" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="K2" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="N2" s="46" t="s">
+      <c r="R12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="T12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="L13" s="22">
+        <v>8433</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="N13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="R2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="T2" s="46" t="s">
+      <c r="O13" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="T13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>469</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>470</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>472</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="50" t="s">
-        <v>478</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-    </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-    </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="H10" s="46">
-        <v>2</v>
-      </c>
-      <c r="I10" s="46">
-        <v>1</v>
-      </c>
-      <c r="J10" s="46">
-        <v>1990</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>443</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46">
-        <v>32256</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="T10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-    </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="53">
-        <v>9045269191</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46">
-        <v>32256</v>
-      </c>
-      <c r="R11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="50" t="s">
-        <v>465</v>
-      </c>
-      <c r="T11" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="J12" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="P12" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>457</v>
-      </c>
-      <c r="R12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="T12" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>462</v>
-      </c>
-      <c r="L13" s="26">
-        <v>8433</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>395</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="50" t="s">
-        <v>458</v>
-      </c>
-      <c r="T13" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
+      <c r="X13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K14" s="27"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="46" t="s">
-        <v>446</v>
+      <c r="K17" s="40" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S13" r:id="rId1"/>
-    <hyperlink ref="S12" r:id="rId2"/>
-    <hyperlink ref="S11" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="S13"/>
+    <hyperlink r:id="rId2" ref="S12"/>
+    <hyperlink r:id="rId3" ref="S11"/>
+    <hyperlink r:id="rId4" ref="S3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A1:B24"/>
@@ -4268,164 +4279,164 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B24" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A1:B10"/>
@@ -4433,80 +4444,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row ht="45" r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row ht="45" r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row ht="45" r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row ht="45" r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row ht="45" r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="B10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:B3"/>
@@ -4514,38 +4525,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B3"/>
@@ -4553,38 +4564,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -4592,129 +4603,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B12" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4724,10 +4735,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -4737,26 +4748,26 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -4764,92 +4775,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="47.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row ht="30" r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row ht="30" r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row ht="30" r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>249</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B12" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:B4"/>
@@ -4857,44 +4868,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -4902,38 +4913,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -4941,31 +4952,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -4974,25 +4985,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -5000,84 +5011,84 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="20" width="30.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="20" width="45.5703125" collapsed="false"/>
+    <col min="4" max="16384" style="20" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>61</v>
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="45"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="A2" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>460</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="D3" s="39"/>
+    </row>
+    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="A5" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1048576"/>
@@ -5085,50 +5096,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B5" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -5136,32 +5147,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:B5"/>
@@ -5169,116 +5180,116 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B5" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row ht="30" r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" s="41"/>
+      <c r="D1" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="45" r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -5286,32 +5297,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -5319,36 +5330,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -5357,14 +5368,14 @@
       <c r="E2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -5372,32 +5383,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:B4"/>
@@ -5405,44 +5416,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A1:B10"/>
@@ -5450,80 +5461,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -5531,63 +5542,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B7" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -5595,91 +5606,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -5687,648 +5698,648 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="28">
+        <v>35204</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="T3" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="34" t="s">
+      <c r="U3" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="V3" s="31">
+        <v>35204</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="Z3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="34">
-        <v>35204</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="V3" s="37">
-        <v>35204</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y3" s="34" t="s">
+      <c r="AA3" s="31">
+        <v>7898</v>
+      </c>
+      <c r="AB3" s="31">
+        <v>7898</v>
+      </c>
+      <c r="AC3" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="37">
-        <v>7898</v>
-      </c>
-      <c r="AB3" s="37">
-        <v>7898</v>
-      </c>
-      <c r="AC3" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+    </row>
+    <row ht="30" r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+    </row>
+    <row ht="30" r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-    </row>
-    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+    </row>
+    <row ht="30" r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-    </row>
-    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-    </row>
-    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="34" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="34" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="34" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink display="Hello@gmailcom" r:id="rId1" ref="F11"/>
+    <hyperlink r:id="rId2" ref="G11"/>
+    <hyperlink r:id="rId3" ref="B3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6336,173 +6347,173 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>421</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="L1" s="48" t="s">
+      <c r="D1" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="L1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>62</v>
+      <c r="M1" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="A2" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="51" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="43"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="A3" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="51" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="43"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="A4" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>432</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>433</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="L4" s="52" t="s">
+      <c r="F4" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="N4" s="43"/>
+      <c r="M4" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="N4" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -6510,542 +6521,541 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="20.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="20" width="12.42578125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.5703125" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="20" width="20.85546875" collapsed="false"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="21" t="s">
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="T1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="V1" s="21" t="s">
+      <c r="U1" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="V1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="W1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>62</v>
+      <c r="Y1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="L2" t="s">
-        <v>322</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="F2" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="25" t="s">
+      <c r="K2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="V2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="21"/>
+      <c r="Z2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="21"/>
+      <c r="E3" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="37"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="L4" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="M4" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="S4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="U4" s="38"/>
+      <c r="V4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="37"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="L5" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>480</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="O4" s="44" t="s">
+      <c r="M5" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="U5" s="38"/>
+      <c r="V5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Y5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="28" t="s">
+      <c r="Z5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="21"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="21"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" display="scqat1@mailinator.com"/>
-    <hyperlink ref="T5" r:id="rId2"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="T2"/>
+    <hyperlink r:id="rId2" ref="T5"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="U2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
@@ -7053,29 +7063,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -7096,7 +7106,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -7111,13 +7121,13 @@
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -7126,33 +7136,33 @@
         <v>22</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -7173,7 +7183,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>27</v>
@@ -7193,7 +7203,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -7215,10 +7225,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="6"/>
@@ -7256,7 +7266,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -7277,7 +7287,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>27</v>
@@ -7297,7 +7307,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
@@ -7319,13 +7329,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>15</v>
@@ -7346,7 +7356,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>27</v>
@@ -7366,7 +7376,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>13</v>
@@ -7388,11 +7398,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="R2"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId2" ref="R4"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="R5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="515">
   <si>
     <t>32256</t>
   </si>
@@ -329,18 +329,12 @@
     <t>TC003_SoftLogin_loggedout_user</t>
   </si>
   <si>
-    <t>TC003_Validate_the_password_length_in_Reset_Password_section</t>
-  </si>
-  <si>
     <t>TC005_Validate_the_functionality_of_Cancel_button_in_Reset_Password_section</t>
   </si>
   <si>
     <t>TC004_Validate_the_functionality_of_EYE_icon_in_password_section</t>
   </si>
   <si>
-    <t>TC002_Validate_the_Password_requirements_in_Reset_Password_section</t>
-  </si>
-  <si>
     <t>TC001_Reset_Password_Account_settings_page</t>
   </si>
   <si>
@@ -377,36 +371,6 @@
     <t>N/A117</t>
   </si>
   <si>
-    <t>N/A140</t>
-  </si>
-  <si>
-    <t>N/A141</t>
-  </si>
-  <si>
-    <t>N/A142</t>
-  </si>
-  <si>
-    <t>N/A143</t>
-  </si>
-  <si>
-    <t>N/A144</t>
-  </si>
-  <si>
-    <t>N/A240</t>
-  </si>
-  <si>
-    <t>N/A241</t>
-  </si>
-  <si>
-    <t>N/A242</t>
-  </si>
-  <si>
-    <t>N/A243</t>
-  </si>
-  <si>
-    <t>N/A244</t>
-  </si>
-  <si>
     <t>TC001_SoftLogin_Phone_And_Zip_login</t>
   </si>
   <si>
@@ -1541,37 +1505,97 @@
     <t>annaelmore@seg.com</t>
   </si>
   <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>23 main st</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>98005</t>
-  </si>
-  <si>
-    <t>3104172565048465</t>
-  </si>
-  <si>
-    <t>9636667780</t>
-  </si>
-  <si>
-    <t>5035016619</t>
-  </si>
-  <si>
-    <t>sblack311@uftdemo.com</t>
-  </si>
-  <si>
-    <t>sblack311@gmail.com</t>
+    <t>test.roccracc@yahoo.com</t>
+  </si>
+  <si>
+    <t>5065345325</t>
+  </si>
+  <si>
+    <t>8643240000</t>
+  </si>
+  <si>
+    <t>29611</t>
+  </si>
+  <si>
+    <t>Old_Password</t>
+  </si>
+  <si>
+    <t>Pwd_Lessthan8Digits</t>
+  </si>
+  <si>
+    <t>Pwd_Greaterthan16Digits</t>
+  </si>
+  <si>
+    <t>Pwd_NoCaps</t>
+  </si>
+  <si>
+    <t>Pwd_NoNumber</t>
+  </si>
+  <si>
+    <t>Pwd_NoLower</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>TC003_Reset_Password_Error_Message_Validation</t>
+  </si>
+  <si>
+    <t>Password3</t>
+  </si>
+  <si>
+    <t>Password4</t>
+  </si>
+  <si>
+    <t>Passw</t>
+  </si>
+  <si>
+    <t>PasswordPassword67</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>passwordd</t>
+  </si>
+  <si>
+    <t>PASSWORD2</t>
+  </si>
+  <si>
+    <t>5035016633</t>
+  </si>
+  <si>
+    <t>3104172545044436</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>Kidd</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7074419287</t>
+  </si>
+  <si>
+    <t>3006 Fairway Drive</t>
+  </si>
+  <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>95501</t>
+  </si>
+  <si>
+    <t>OraAKidd@armyspy.com</t>
+  </si>
+  <si>
+    <t>OraAKidd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1675,12 +1699,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1696,7 +1731,6 @@
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -1719,16 +1753,9 @@
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1770,7 +1797,19 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2054,14 +2093,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
@@ -2092,10 +2131,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -2115,10 +2154,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2138,10 +2177,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2161,10 +2200,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2184,10 +2223,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2207,10 +2246,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2230,10 +2269,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2253,10 +2292,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2276,10 +2315,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2299,10 +2338,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
@@ -2322,10 +2361,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2345,10 +2384,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2368,10 +2407,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2391,10 +2430,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2414,10 +2453,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2437,10 +2476,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2460,10 +2499,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2486,7 +2525,7 @@
         <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2506,10 +2545,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2529,10 +2568,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2552,10 +2591,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2575,10 +2614,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2598,10 +2637,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2621,10 +2660,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2644,10 +2683,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2667,10 +2706,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2690,10 +2729,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2713,10 +2752,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2736,10 +2775,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2759,10 +2798,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2782,10 +2821,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2808,7 +2847,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2854,50 +2893,50 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>142</v>
+      <c r="A2" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>168</v>
+      <c r="A3" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>169</v>
+      <c r="A4" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>143</v>
+      <c r="A5" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>144</v>
+      <c r="A6" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>172</v>
+      <c r="A7" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row ht="30" r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>170</v>
+      <c r="A8" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>171</v>
+      <c r="A9" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -2918,12 +2957,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,51 +2976,51 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="4"/>
     </row>
     <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="4"/>
     </row>
     <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>319</v>
+      <c r="A4" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -2989,18 +3028,18 @@
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>325</v>
+      <c r="A5" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3008,14 +3047,14 @@
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="4"/>
     </row>
     <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>326</v>
+      <c r="A6" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3023,9 +3062,9 @@
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
@@ -3050,9 +3089,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="95.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="60" r="1" s="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3094,42 +3133,42 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>173</v>
+      <c r="A2" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>174</v>
+      <c r="A3" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3162,8 +3201,8 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>175</v>
+      <c r="A4" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>66</v>
@@ -3196,11 +3235,11 @@
       <c r="L4" s="2"/>
     </row>
     <row ht="30" r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>176</v>
+      <c r="A5" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3214,11 +3253,11 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>177</v>
+      <c r="A6" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3232,11 +3271,11 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>178</v>
+      <c r="A7" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3250,11 +3289,11 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>179</v>
+      <c r="A8" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3268,11 +3307,11 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>180</v>
+      <c r="A9" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3286,11 +3325,11 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>181</v>
+      <c r="A10" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3304,11 +3343,11 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>182</v>
+      <c r="A11" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3322,11 +3361,11 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>183</v>
+      <c r="A12" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3340,11 +3379,11 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>184</v>
+      <c r="A13" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3358,11 +3397,11 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>185</v>
+      <c r="A14" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3376,11 +3415,11 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>186</v>
+      <c r="A15" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3394,11 +3433,11 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>187</v>
+      <c r="A16" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3412,11 +3451,11 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>188</v>
+      <c r="A17" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3430,11 +3469,11 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>189</v>
+      <c r="A18" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3448,11 +3487,11 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>191</v>
+      <c r="A19" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3466,11 +3505,11 @@
       <c r="L19" s="2"/>
     </row>
     <row ht="30" r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>190</v>
+      <c r="A20" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3511,8 +3550,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>145</v>
+      <c r="A2" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3532,729 +3571,729 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="20" width="48.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="11.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="20" width="24.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="20" width="17.28515625" collapsed="true"/>
-    <col min="5" max="10" style="20" width="9.140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="20" width="13.28515625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="20" width="18.0" collapsed="false"/>
-    <col min="13" max="13" style="20" width="9.140625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="20" width="11.5703125" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="20" width="10.28515625" collapsed="false"/>
-    <col min="16" max="18" style="20" width="9.140625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="20" width="33.85546875" collapsed="false"/>
-    <col min="20" max="21" customWidth="true" style="20" width="11.0" collapsed="false"/>
-    <col min="22" max="16384" style="20" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="19" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="19" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="19" width="17.28515625" collapsed="true"/>
+    <col min="5" max="10" style="19" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="18.0" collapsed="true"/>
+    <col min="13" max="13" style="19" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="19" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="19" width="10.28515625" collapsed="true"/>
+    <col min="16" max="18" style="19" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="19" width="33.85546875" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" style="19" width="11.0" collapsed="true"/>
+    <col min="22" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="60" r="1" s="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="S1" s="37" t="s">
+      <c r="R1" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row ht="30" r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+    </row>
+    <row ht="30" r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="T3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+    </row>
+    <row ht="30" r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+    </row>
+    <row ht="30" r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+    </row>
+    <row ht="30" r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+    </row>
+    <row ht="30" r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+    </row>
+    <row ht="30" r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="H10" s="36">
+        <v>2</v>
+      </c>
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1990</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36">
+        <v>32256</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+    </row>
+    <row ht="30" r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="43">
+        <v>9045269191</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36">
+        <v>32256</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F12" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G12" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H12" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J12" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K12" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="N2" s="40" t="s">
+      <c r="L12" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="L13" s="20">
+        <v>8433</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="N13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="T2" s="40" t="s">
+      <c r="O13" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="T13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-    </row>
-    <row ht="30" r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>461</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-    </row>
-    <row ht="30" r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-    </row>
-    <row ht="30" r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-    </row>
-    <row ht="30" r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-    </row>
-    <row ht="30" r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-    </row>
-    <row ht="30" r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>424</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>425</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="H10" s="40">
-        <v>2</v>
-      </c>
-      <c r="I10" s="40">
-        <v>1</v>
-      </c>
-      <c r="J10" s="40">
-        <v>1990</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="M10" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40">
-        <v>32256</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-    </row>
-    <row ht="30" r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="47">
-        <v>9045269191</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>374</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40">
-        <v>32256</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>433</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>435</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>436</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q12" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="R12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="T12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="L13" s="22">
-        <v>8433</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="T13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="X13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K14" s="23"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="40" t="s">
-        <v>429</v>
+      <c r="K17" s="36" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4291,140 +4330,140 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B16" s="4"/>
+    </row>
+    <row ht="30" r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B17" s="4"/>
+    </row>
+    <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row ht="30" r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row ht="30" r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row ht="30" r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row ht="30" r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row ht="30" r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row ht="30" r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row ht="30" r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -4456,56 +4495,56 @@
       </c>
     </row>
     <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>216</v>
+      <c r="A2" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>217</v>
+      <c r="A3" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>218</v>
+      <c r="A4" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row ht="45" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>219</v>
+      <c r="A5" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row ht="45" r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>220</v>
+      <c r="A6" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row ht="45" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>221</v>
+      <c r="A7" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row ht="45" r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>222</v>
+      <c r="A8" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row ht="45" r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>223</v>
+      <c r="A9" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>224</v>
+      <c r="A10" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4537,14 +4576,14 @@
       </c>
     </row>
     <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>225</v>
+      <c r="A2" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>226</v>
+      <c r="A3" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4576,14 +4615,14 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>227</v>
+      <c r="A2" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>228</v>
+      <c r="A3" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4615,68 +4654,68 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>161</v>
+      <c r="A2" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>162</v>
+      <c r="A3" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>229</v>
+      <c r="A4" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>230</v>
+      <c r="A5" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row ht="30" r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>231</v>
+      <c r="A6" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>232</v>
+      <c r="A7" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>284</v>
+      <c r="A8" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>233</v>
+      <c r="A9" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>234</v>
+      <c r="A10" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>235</v>
+      <c r="A11" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>163</v>
+      <c r="A12" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -4721,8 +4760,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>118</v>
+      <c r="A2" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>90</v>
@@ -4734,7 +4773,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -4747,13 +4786,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="6"/>
@@ -4787,68 +4826,68 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>236</v>
+      <c r="A2" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>237</v>
+      <c r="A3" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>238</v>
+      <c r="A4" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>239</v>
+      <c r="A5" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row ht="30" r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>240</v>
+      <c r="A6" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>241</v>
+      <c r="A7" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row ht="30" r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>242</v>
+      <c r="A8" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row ht="30" r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>243</v>
+      <c r="A9" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>244</v>
+      <c r="A10" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>245</v>
+      <c r="A11" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>246</v>
+      <c r="A12" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -4880,20 +4919,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>247</v>
+      <c r="A2" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>248</v>
+      <c r="A3" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>249</v>
+      <c r="A4" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4925,14 +4964,14 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>250</v>
+      <c r="A2" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>251</v>
+      <c r="A3" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4953,8 +4992,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,8 +5011,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>252</v>
+      <c r="A2" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>90</v>
@@ -4984,14 +5023,14 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>348</v>
+      <c r="A3" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -5011,69 +5050,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="20" width="30.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="20" width="45.5703125" collapsed="false"/>
-    <col min="4" max="16384" style="20" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="19" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="19" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
     </row>
     <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="35"/>
     </row>
     <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5108,26 +5147,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>257</v>
+      <c r="A2" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>258</v>
+      <c r="A3" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>259</v>
+      <c r="A4" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>260</v>
+      <c r="A5" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -5159,8 +5198,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>261</v>
+      <c r="A2" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5192,26 +5231,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>262</v>
+      <c r="A2" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>263</v>
+      <c r="A3" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>264</v>
+      <c r="A4" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>265</v>
+      <c r="A5" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -5235,48 +5274,48 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="D1" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row ht="45" r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="G2" s="35"/>
+      <c r="A2" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5309,8 +5348,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>266</v>
+      <c r="A2" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5355,7 +5394,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5395,8 +5434,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>267</v>
+      <c r="A2" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5428,20 +5467,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>268</v>
+      <c r="A2" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>269</v>
+      <c r="A3" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>270</v>
+      <c r="A4" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5473,56 +5512,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>271</v>
+      <c r="A2" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>272</v>
+      <c r="A3" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>273</v>
+      <c r="A4" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>274</v>
+      <c r="A5" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>275</v>
+      <c r="A6" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>276</v>
+      <c r="A7" s="13" t="s">
+        <v>264</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>166</v>
+      <c r="A8" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>277</v>
+      <c r="A9" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>167</v>
+      <c r="A10" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -5543,7 +5582,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5555,38 +5594,38 @@
       </c>
     </row>
     <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>278</v>
+      <c r="A2" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>279</v>
+      <c r="A3" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>280</v>
+      <c r="A4" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row ht="30" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>281</v>
+      <c r="A5" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row ht="30" r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>282</v>
+      <c r="A6" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>283</v>
+      <c r="A7" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -5631,11 +5670,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>67</v>
@@ -5644,11 +5683,11 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>97</v>
+      <c r="A3" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>68</v>
@@ -5657,11 +5696,11 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>69</v>
@@ -5670,11 +5709,11 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>70</v>
@@ -5690,650 +5729,678 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="19" width="82.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="14.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="33"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" s="24">
+        <v>35204</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="P3" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="V3" s="27">
+        <v>35204</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="Z3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="28">
-        <v>35204</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="V3" s="31">
-        <v>35204</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y3" s="28" t="s">
+      <c r="AA3" s="27">
+        <v>7898</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>7898</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="33"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="33"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="31">
-        <v>7898</v>
-      </c>
-      <c r="AB3" s="31">
-        <v>7898</v>
-      </c>
-      <c r="AC3" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="33"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="33"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="33"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="D8" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="33"/>
+    </row>
+    <row ht="30" r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B9" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-    </row>
-    <row ht="30" r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="33"/>
+    </row>
+    <row ht="30" r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B10" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-    </row>
-    <row ht="30" r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="28" t="s">
+      <c r="D10" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="33"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-    </row>
-    <row ht="30" r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="28" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="33"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="33"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="33"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink display="Hello@gmailcom" r:id="rId1" ref="F11"/>
     <hyperlink r:id="rId2" ref="G11"/>
     <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="B8"/>
+    <hyperlink r:id="rId5" ref="B4"/>
+    <hyperlink r:id="rId6" ref="B10"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6342,7 +6409,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,150 +6422,150 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="60" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="33"/>
+    </row>
+    <row customFormat="1" r="3" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="33"/>
+    </row>
+    <row customFormat="1" r="4" s="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="I4" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="J4" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="K4" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="L4" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="K1" s="43" t="s">
-        <v>407</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="37"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="N4" s="37"/>
+      <c r="N4" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6513,106 +6580,194 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="19" width="78.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="19" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="19" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="19" width="10.42578125" collapsed="true"/>
+    <col min="8" max="9" style="19" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="28.7109375" collapsed="true"/>
+    <col min="11" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row ht="30" r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row ht="30" r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
+      <c r="B5" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="36"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink r:id="rId3" ref="D3"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6620,436 +6775,439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="59.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="20" width="12.42578125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.5703125" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="20.28515625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="20" width="20.85546875" collapsed="false"/>
-    <col min="22" max="23" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="53" width="59.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="53" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="53" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="53" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="53" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="53" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="53" width="9.7109375" collapsed="true"/>
+    <col min="8" max="10" style="53" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="53" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="53" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="53" width="25.28515625" collapsed="true"/>
+    <col min="14" max="14" style="53" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="53" width="11.42578125" collapsed="true"/>
+    <col min="16" max="16" style="53" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="53" width="11.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="53" width="8.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="53" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="53" width="31.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="53" width="26.0" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" style="53" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="53" width="5.0" collapsed="true"/>
+    <col min="25" max="25" style="53" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="53" width="13.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="53" width="24.5703125" collapsed="true"/>
+    <col min="28" max="16384" style="53" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row customFormat="1" ht="45" r="1" s="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="37" t="s">
+      <c r="L1" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="T1" s="37" t="s">
+      <c r="S1" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="T1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="V1" s="37" t="s">
+      <c r="U1" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="V1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" t="s">
+        <v>503</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>514</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="V2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="45"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="45"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" t="s">
-        <v>504</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>498</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="S2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="U2" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="V2" s="40" t="s">
+      <c r="F4" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="37"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="45"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="C5" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>484</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>491</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>493</v>
-      </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="40" t="s">
+      <c r="E5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="40" t="s">
+      <c r="P5" s="42"/>
+      <c r="Q5" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="U5" s="41"/>
+      <c r="V5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="37"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="37"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>387</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="37"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="T2"/>
-    <hyperlink r:id="rId2" ref="T5"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="U2"/>
+    <hyperlink r:id="rId1" ref="T5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7127,7 +7285,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -7158,11 +7316,11 @@
       <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
@@ -7183,7 +7341,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>27</v>
@@ -7203,7 +7361,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>13</v>
@@ -7227,7 +7385,7 @@
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="3"/>
@@ -7262,11 +7420,11 @@
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>15</v>
@@ -7287,7 +7445,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>27</v>
@@ -7307,7 +7465,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>13</v>
@@ -7331,16 +7489,16 @@
       <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -7356,19 +7514,19 @@
         <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="K5" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="18"/>
       <c r="P5" s="3" t="s">
         <v>0</v>
       </c>
@@ -7376,12 +7534,12 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="S5" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="3" t="s">

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="539">
   <si>
     <t>32256</t>
   </si>
@@ -285,12 +285,6 @@
   </si>
   <si>
     <t>TC012_Validate_HardLoginModal</t>
-  </si>
-  <si>
-    <t>TC013_EditAccountPage_CardNotPickedup</t>
-  </si>
-  <si>
-    <t>TC014_EditAccountPage_CardNhasbeenPickedup</t>
   </si>
   <si>
     <t>TC015_EditAccountPage_CardisLostorStolen</t>
@@ -2172,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,16 +2204,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>28</v>
@@ -2233,10 +2227,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2256,10 +2250,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2279,10 +2273,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2302,10 +2296,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2325,10 +2319,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2348,10 +2342,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2371,10 +2365,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2394,10 +2388,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2417,10 +2411,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
@@ -2440,10 +2434,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2463,10 +2457,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2486,10 +2480,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2509,10 +2503,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2532,10 +2526,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2555,10 +2549,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2578,10 +2572,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2604,7 +2598,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2624,10 +2618,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2647,10 +2641,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2670,10 +2664,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2693,10 +2687,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2716,10 +2710,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2739,10 +2733,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2762,10 +2756,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2785,10 +2779,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2808,10 +2802,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2831,10 +2825,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2854,10 +2848,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2877,10 +2871,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2900,10 +2894,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2926,7 +2920,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2973,49 +2967,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -3055,13 +3049,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3069,12 +3063,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3084,12 +3078,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3099,7 +3093,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3108,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3118,7 +3112,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3133,7 +3127,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3213,41 +3207,41 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3281,7 +3275,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>65</v>
@@ -3315,10 +3309,10 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3333,10 +3327,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3351,10 +3345,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3369,10 +3363,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3387,10 +3381,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3405,10 +3399,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3423,10 +3417,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3441,10 +3435,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3459,10 +3453,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3477,10 +3471,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3495,10 +3489,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3513,10 +3507,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3531,10 +3525,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3549,10 +3543,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3567,10 +3561,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3585,10 +3579,10 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3630,7 +3624,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3719,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>12</v>
@@ -3748,13 +3742,13 @@
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>32</v>
@@ -3763,44 +3757,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="I2" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="I2" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>406</v>
-      </c>
       <c r="K2" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>351</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>353</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="T2" s="35" t="s">
         <v>13</v>
@@ -3822,13 +3816,13 @@
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>32</v>
@@ -3837,44 +3831,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="H3" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="I3" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="J3" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="K3" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="L3" s="35" t="s">
         <v>437</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>439</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="Q3" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="R3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>444</v>
       </c>
       <c r="T3" s="35" t="s">
         <v>13</v>
@@ -3896,59 +3890,59 @@
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>514</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>516</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="Q4" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="39" t="s">
         <v>518</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>520</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>13</v>
@@ -3970,7 +3964,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -4000,7 +3994,7 @@
     </row>
     <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="35"/>
@@ -4030,7 +4024,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
@@ -4060,7 +4054,7 @@
     </row>
     <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -4090,7 +4084,7 @@
     </row>
     <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>47</v>
@@ -4105,44 +4099,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="I9" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="K9" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="L9" s="35" t="s">
         <v>526</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>528</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="R9" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="39" t="s">
         <v>530</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>532</v>
       </c>
       <c r="T9" s="35" t="s">
         <v>13</v>
@@ -4164,23 +4158,23 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>16</v>
@@ -4189,22 +4183,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35">
@@ -4214,7 +4208,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>13</v>
@@ -4236,7 +4230,7 @@
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>47</v>
@@ -4249,10 +4243,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>16</v>
@@ -4261,22 +4255,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="35">
@@ -4286,7 +4280,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="T11" s="35" t="s">
         <v>13</v>
@@ -4308,13 +4302,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>32</v>
@@ -4323,44 +4317,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="K12" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="L12" s="35" t="s">
         <v>417</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>419</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="P12" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="Q12" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="P12" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>423</v>
-      </c>
       <c r="R12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="T12" s="35" t="s">
         <v>13</v>
@@ -4382,23 +4376,23 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>16</v>
@@ -4407,22 +4401,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L13" s="19">
         <v>8433</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="33" t="s">
@@ -4432,7 +4426,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T13" s="35" t="s">
         <v>13</v>
@@ -4460,7 +4454,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4500,139 +4494,139 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B24" s="4"/>
     </row>
@@ -4665,55 +4659,55 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -4746,13 +4740,13 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4785,13 +4779,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -4824,67 +4818,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>218</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -4898,7 +4892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4923,7 +4917,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -4934,26 +4928,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -4964,7 +4958,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>64</v>
@@ -4973,7 +4967,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -5007,67 +5001,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B12" s="4"/>
     </row>
@@ -5100,19 +5094,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5145,13 +5139,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5192,10 +5186,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -5204,13 +5198,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -5241,10 +5235,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -5252,7 +5246,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -5260,10 +5254,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
@@ -5272,10 +5266,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5284,10 +5278,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
@@ -5328,25 +5322,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -5379,7 +5373,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5421,31 +5415,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5453,13 +5447,13 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D5" s="34"/>
     </row>
@@ -5493,13 +5487,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>378</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>55</v>
@@ -5507,22 +5501,22 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>382</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>384</v>
       </c>
       <c r="G2" s="30"/>
     </row>
@@ -5558,7 +5552,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5607,7 +5601,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -5644,7 +5638,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5677,19 +5671,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5722,55 +5716,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -5804,37 +5798,37 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -5883,7 +5877,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>66</v>
@@ -5893,10 +5887,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>67</v>
@@ -5906,10 +5900,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>68</v>
@@ -5919,10 +5913,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>69</v>
@@ -5938,10 +5932,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,10 +5954,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>48</v>
@@ -5972,16 +5966,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>340</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>342</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>1</v>
@@ -6023,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="X1" s="37" t="s">
         <v>12</v>
@@ -6041,7 +6035,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AD1" s="32" t="s">
         <v>56</v>
@@ -6049,10 +6043,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>13</v>
@@ -6087,16 +6081,16 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E3" s="23">
         <v>35204</v>
@@ -6109,35 +6103,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>370</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V3" s="26">
         <v>35204</v>
@@ -6146,7 +6140,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Y3" s="23" t="s">
         <v>13</v>
@@ -6167,10 +6161,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>13</v>
@@ -6208,7 +6202,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>13</v>
@@ -6243,10 +6237,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>13</v>
@@ -6281,10 +6275,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -6319,16 +6313,16 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>0</v>
@@ -6361,10 +6355,10 @@
     </row>
     <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>13</v>
@@ -6399,19 +6393,19 @@
     </row>
     <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -6444,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>13</v>
@@ -6452,16 +6446,16 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="I11" s="23" t="s">
         <v>344</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>346</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -6490,7 +6484,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>13</v>
@@ -6523,82 +6517,6 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="32"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="32"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
@@ -6617,8 +6535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6641,28 +6559,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>388</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>23</v>
@@ -6676,16 +6594,16 @@
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>393</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>13</v>
@@ -6706,16 +6624,16 @@
     </row>
     <row r="3" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>393</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>13</v>
@@ -6736,43 +6654,43 @@
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>393</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>398</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>400</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N4" s="32"/>
     </row>
@@ -6820,10 +6738,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>22</v>
@@ -6832,22 +6750,22 @@
         <v>44</v>
       </c>
       <c r="H1" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>486</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>488</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>56</v>
@@ -6855,25 +6773,25 @@
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>393</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>13</v>
@@ -6887,47 +6805,47 @@
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>393</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="K3" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>495</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>496</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>497</v>
       </c>
       <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -6945,16 +6863,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>391</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>393</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>13</v>
@@ -7052,7 +6970,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M1" s="44" t="s">
         <v>7</v>
@@ -7073,13 +6991,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T1" s="44" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="V1" s="44" t="s">
         <v>22</v>
@@ -7111,7 +7029,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>32</v>
@@ -7120,48 +7038,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="J2" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>501</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>502</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="K2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>498</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>503</v>
       </c>
       <c r="N2" s="40"/>
       <c r="O2" s="41" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="R2" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
         <v>505</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>507</v>
-      </c>
       <c r="U2" s="40" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V2" s="41" t="s">
         <v>13</v>
@@ -7189,37 +7107,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F3" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="L3" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>474</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>476</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="41" t="s">
@@ -7227,16 +7145,16 @@
       </c>
       <c r="P3" s="41"/>
       <c r="Q3" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="41" t="s">
@@ -7265,7 +7183,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>32</v>
@@ -7274,47 +7192,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G4" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="K4" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="K4" s="40" t="s">
+      <c r="L4" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="N4" s="40" t="s">
         <v>450</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>452</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="S4" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U4" s="40"/>
       <c r="V4" s="41" t="s">
@@ -7343,7 +7261,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>32</v>
@@ -7352,28 +7270,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J5" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>456</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>458</v>
       </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40" t="s">
@@ -7381,16 +7299,16 @@
       </c>
       <c r="P5" s="41"/>
       <c r="Q5" s="40" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S5" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="U5" s="40"/>
       <c r="V5" s="41" t="s">
@@ -7494,7 +7412,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>12</v>
@@ -7529,7 +7447,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>15</v>
@@ -7550,7 +7468,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>27</v>
@@ -7570,7 +7488,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S2" s="35" t="s">
         <v>13</v>
@@ -7633,7 +7551,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>15</v>
@@ -7654,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>27</v>
@@ -7674,7 +7592,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>13</v>
@@ -7696,19 +7614,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>26</v>
@@ -7723,7 +7641,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>27</v>
@@ -7736,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>0</v>
@@ -7745,7 +7663,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S5" s="35" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="539">
   <si>
     <t>32256</t>
   </si>
@@ -776,18 +776,6 @@
     <t>TC004_LogInSign_Pre_Enrolled_User</t>
   </si>
   <si>
-    <t>TC001_Rewards_Page_for_Logged_Out_users</t>
-  </si>
-  <si>
-    <t>TC002_Validate_the_functionality_of_Enroll_Now_button</t>
-  </si>
-  <si>
-    <t>TC003_Validate_the_functionality_of_Log_in_button</t>
-  </si>
-  <si>
-    <t>TC004_Verify_whether_respective_banner_helpline_is_displayed_with_Need_help_text</t>
-  </si>
-  <si>
     <t>TC001_Enrollment_landing_page</t>
   </si>
   <si>
@@ -1668,6 +1656,18 @@
   </si>
   <si>
     <t>32254</t>
+  </si>
+  <si>
+    <t>aswinithottassery@segrocers.com</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>9789962299</t>
+  </si>
+  <si>
+    <t>Willey</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1883,6 +1883,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2166,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2208,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
@@ -2230,7 +2231,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2253,7 +2254,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2276,7 +2277,7 @@
         <v>142</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2299,7 +2300,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2322,7 +2323,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2345,7 +2346,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2368,7 +2369,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2391,7 +2392,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2414,13 +2415,13 @@
         <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>28</v>
@@ -2437,7 +2438,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2460,7 +2461,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2483,7 +2484,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2506,7 +2507,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2529,7 +2530,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2552,7 +2553,7 @@
         <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2575,7 +2576,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2598,7 +2599,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2621,7 +2622,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2644,7 +2645,7 @@
         <v>117</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2667,7 +2668,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2690,7 +2691,7 @@
         <v>148</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2713,7 +2714,7 @@
         <v>149</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2736,7 +2737,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2759,7 +2760,7 @@
         <v>119</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2782,7 +2783,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2802,10 +2803,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2828,7 +2829,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2851,7 +2852,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2874,7 +2875,7 @@
         <v>123</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2897,7 +2898,7 @@
         <v>125</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2920,7 +2921,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -3049,13 +3050,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3063,12 +3064,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3078,12 +3079,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3093,7 +3094,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3102,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3112,7 +3113,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3127,7 +3128,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3213,28 +3214,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
@@ -3312,7 +3313,7 @@
         <v>160</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3330,7 +3331,7 @@
         <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3348,7 +3349,7 @@
         <v>162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3366,7 +3367,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3384,7 +3385,7 @@
         <v>164</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3402,7 +3403,7 @@
         <v>165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3420,7 +3421,7 @@
         <v>166</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3438,7 +3439,7 @@
         <v>167</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3456,7 +3457,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3474,7 +3475,7 @@
         <v>169</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3492,7 +3493,7 @@
         <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3510,7 +3511,7 @@
         <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3528,7 +3529,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3546,7 +3547,7 @@
         <v>173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3564,7 +3565,7 @@
         <v>175</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3582,7 +3583,7 @@
         <v>174</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3713,7 +3714,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>12</v>
@@ -3748,7 +3749,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>32</v>
@@ -3757,44 +3758,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>404</v>
-      </c>
       <c r="K2" s="41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="R2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="T2" s="35" t="s">
         <v>13</v>
@@ -3822,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>32</v>
@@ -3831,44 +3832,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="K3" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="L3" s="35" t="s">
         <v>433</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>437</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="39" t="s">
         <v>438</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>442</v>
       </c>
       <c r="T3" s="35" t="s">
         <v>13</v>
@@ -3896,53 +3897,53 @@
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q4" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="O4" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>519</v>
-      </c>
       <c r="R4" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>13</v>
@@ -4099,44 +4100,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="L9" s="35" t="s">
         <v>522</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>524</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>526</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="R9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="T9" s="35" t="s">
         <v>13</v>
@@ -4164,17 +4165,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>16</v>
@@ -4183,22 +4184,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35">
@@ -4208,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>13</v>
@@ -4243,10 +4244,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>16</v>
@@ -4255,22 +4256,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="35">
@@ -4280,7 +4281,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T11" s="35" t="s">
         <v>13</v>
@@ -4308,7 +4309,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>32</v>
@@ -4317,44 +4318,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="R12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T12" s="35" t="s">
         <v>13</v>
@@ -4382,17 +4383,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>16</v>
@@ -4401,22 +4402,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L13" s="19">
         <v>8433</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="33" t="s">
@@ -4426,7 +4427,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="T13" s="35" t="s">
         <v>13</v>
@@ -4454,7 +4455,7 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="35" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +4855,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -4917,7 +4918,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -4937,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -4967,7 +4968,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -4980,94 +4981,229 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="19.85546875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="E3" s="35">
+        <v>32246</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5" s="35">
+        <v>32246</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="34" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5198,13 +5334,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -5235,10 +5371,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -5257,7 +5393,7 @@
         <v>238</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
@@ -5269,7 +5405,7 @@
         <v>239</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5281,7 +5417,7 @@
         <v>240</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
@@ -5301,52 +5437,86 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="4"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="34"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -5373,7 +5543,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5415,31 +5585,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -5447,13 +5617,13 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D5" s="34"/>
     </row>
@@ -5487,13 +5657,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>55</v>
@@ -5501,22 +5671,22 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>382</v>
       </c>
       <c r="G2" s="30"/>
     </row>
@@ -5552,7 +5722,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5638,7 +5808,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -5671,19 +5841,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5716,37 +5886,37 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -5758,7 +5928,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -5798,37 +5968,37 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -5954,10 +6124,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>48</v>
@@ -5966,16 +6136,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>1</v>
@@ -6017,7 +6187,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="X1" s="37" t="s">
         <v>12</v>
@@ -6035,7 +6205,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AD1" s="32" t="s">
         <v>56</v>
@@ -6046,7 +6216,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>13</v>
@@ -6084,13 +6254,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E3" s="23">
         <v>35204</v>
@@ -6103,35 +6273,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="23" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="V3" s="26">
         <v>35204</v>
@@ -6140,7 +6310,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Y3" s="23" t="s">
         <v>13</v>
@@ -6164,7 +6334,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>13</v>
@@ -6202,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>13</v>
@@ -6240,7 +6410,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>13</v>
@@ -6278,7 +6448,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -6316,13 +6486,13 @@
         <v>93</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>0</v>
@@ -6358,7 +6528,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>13</v>
@@ -6396,16 +6566,16 @@
         <v>95</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -6438,7 +6608,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>13</v>
@@ -6446,16 +6616,16 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -6484,7 +6654,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>13</v>
@@ -6535,7 +6705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -6559,28 +6729,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>384</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>388</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>23</v>
@@ -6597,13 +6767,13 @@
         <v>96</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>13</v>
@@ -6627,13 +6797,13 @@
         <v>97</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>13</v>
@@ -6654,43 +6824,43 @@
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>394</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>398</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N4" s="32"/>
     </row>
@@ -6738,10 +6908,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>22</v>
@@ -6750,22 +6920,22 @@
         <v>44</v>
       </c>
       <c r="H1" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>481</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>482</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>486</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>56</v>
@@ -6776,22 +6946,22 @@
         <v>90</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>13</v>
@@ -6805,41 +6975,41 @@
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>491</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>495</v>
       </c>
       <c r="N3" s="32"/>
     </row>
@@ -6866,13 +7036,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>13</v>
@@ -6970,7 +7140,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M1" s="44" t="s">
         <v>7</v>
@@ -6991,13 +7161,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="T1" s="44" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="V1" s="44" t="s">
         <v>22</v>
@@ -7029,7 +7199,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>32</v>
@@ -7038,48 +7208,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N2" s="40"/>
       <c r="O2" s="41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="48" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="S2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="V2" s="41" t="s">
         <v>13</v>
@@ -7107,37 +7277,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="H3" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="K3" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="L3" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>470</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>474</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="41" t="s">
@@ -7145,16 +7315,16 @@
       </c>
       <c r="P3" s="41"/>
       <c r="Q3" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="S3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="41" t="s">
@@ -7183,7 +7353,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>32</v>
@@ -7192,47 +7362,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="N4" s="40" t="s">
         <v>446</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>450</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="S4" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U4" s="40"/>
       <c r="V4" s="41" t="s">
@@ -7261,7 +7431,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>32</v>
@@ -7270,28 +7440,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40" t="s">
@@ -7299,16 +7469,16 @@
       </c>
       <c r="P5" s="41"/>
       <c r="Q5" s="40" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="S5" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="U5" s="40"/>
       <c r="V5" s="41" t="s">
@@ -7412,7 +7582,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>12</v>
@@ -7447,7 +7617,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>15</v>
@@ -7468,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>27</v>
@@ -7488,7 +7658,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="S2" s="35" t="s">
         <v>13</v>
@@ -7551,7 +7721,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>15</v>
@@ -7572,7 +7742,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>27</v>
@@ -7592,7 +7762,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>13</v>
@@ -7614,19 +7784,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>26</v>
@@ -7641,7 +7811,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>27</v>
@@ -7654,7 +7824,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>0</v>
@@ -7663,7 +7833,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="S5" s="35" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="27" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="543">
   <si>
     <t>32256</t>
   </si>
@@ -1668,6 +1668,18 @@
   </si>
   <si>
     <t>Willey</t>
+  </si>
+  <si>
+    <t>TC005_EnrollinNewProgram_SignUp_As_A_New_Member</t>
+  </si>
+  <si>
+    <t>NewMember</t>
+  </si>
+  <si>
+    <t>5015036625</t>
+  </si>
+  <si>
+    <t>segauto24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1884,6 +1896,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3025,7 +3043,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,7 +4912,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,7 +4920,7 @@
     <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="18" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -4983,19 +5001,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="18" customWidth="1"/>
-    <col min="5" max="6" width="19.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="18"/>
+    <col min="2" max="2" width="30.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="19.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5296,7 +5314,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,15 +5458,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="18"/>
+    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5820,42 +5838,61 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B4"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5868,7 +5905,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:B10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5946,65 +5983,139 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -7510,15 +7621,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
@@ -7853,13 +7964,83 @@
       <c r="X5" s="34"/>
       <c r="Y5" s="34"/>
     </row>
+    <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>529</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
     <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
     <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R6" r:id="rId4" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="27" activeTab="32"/>
+    <workbookView tabRatio="753" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" sheetId="4" r:id="rId1"/>
-    <sheet name="SoftLogin" sheetId="6" r:id="rId2"/>
-    <sheet name="Logout" sheetId="13" r:id="rId3"/>
-    <sheet name="Forgot_Password_Page" sheetId="14" r:id="rId4"/>
-    <sheet name="HardLogin_Loggedin_Account" sheetId="15" r:id="rId5"/>
-    <sheet name="Reset_PIN" sheetId="16" r:id="rId6"/>
-    <sheet name="Reset_Password" sheetId="12" r:id="rId7"/>
-    <sheet name="Fully_Enrolled_Customers_Flow" sheetId="5" r:id="rId8"/>
-    <sheet name="Pre_Enrolled_Customers_Flow" sheetId="3" r:id="rId9"/>
-    <sheet name="Store_Locator" sheetId="17" r:id="rId10"/>
-    <sheet name="Static_Infobar_loggedin_Users" sheetId="18" r:id="rId11"/>
-    <sheet name="PII_Validation" sheetId="19" r:id="rId12"/>
-    <sheet name="Enrollment_Step_Counter" sheetId="20" r:id="rId13"/>
-    <sheet name="Set_Pin_PW_in_Security_Info" sheetId="21" r:id="rId14"/>
-    <sheet name="Account_Setup_page" sheetId="22" r:id="rId15"/>
-    <sheet name="Email_Verification" sheetId="25" r:id="rId16"/>
-    <sheet name="Persist_Data_During_Enrollment" sheetId="26" r:id="rId17"/>
-    <sheet name="Fuelperks_Locator_Page" sheetId="27" r:id="rId18"/>
-    <sheet name="Account_Lookup" sheetId="28" r:id="rId19"/>
-    <sheet name="LoggedIn_for_Rewards_Section" sheetId="29" r:id="rId20"/>
-    <sheet name="Updated_HomePage" sheetId="30" r:id="rId21"/>
-    <sheet name="Never_Miss_A_Deal" sheetId="24" r:id="rId22"/>
-    <sheet name="User_Status_After_SoftLogin" sheetId="31" r:id="rId23"/>
-    <sheet name="Login_Or_Signup_Global_Nav" sheetId="32" r:id="rId24"/>
-    <sheet name="Loggedout_Rewards_Page" sheetId="33" r:id="rId25"/>
-    <sheet name="Enrollment_LandingPage" sheetId="34" r:id="rId26"/>
-    <sheet name="Enrollment_Status_Directions" sheetId="35" r:id="rId27"/>
-    <sheet name="Contact_Us" sheetId="36" r:id="rId28"/>
-    <sheet name="Global_Nav_Update" sheetId="37" r:id="rId29"/>
-    <sheet name="Update_Footer" sheetId="38" r:id="rId30"/>
-    <sheet name="Digital_Coupons" sheetId="39" r:id="rId31"/>
-    <sheet name="Shopping_List" sheetId="40" r:id="rId32"/>
-    <sheet name="Weekly_Ad" sheetId="41" r:id="rId33"/>
+    <sheet name="Global" r:id="rId1" sheetId="4"/>
+    <sheet name="SoftLogin" r:id="rId2" sheetId="6"/>
+    <sheet name="Logout" r:id="rId3" sheetId="13"/>
+    <sheet name="Forgot_Password_Page" r:id="rId4" sheetId="14"/>
+    <sheet name="HardLogin_Loggedin_Account" r:id="rId5" sheetId="15"/>
+    <sheet name="Reset_PIN" r:id="rId6" sheetId="16"/>
+    <sheet name="Reset_Password" r:id="rId7" sheetId="12"/>
+    <sheet name="Fully_Enrolled_Customers_Flow" r:id="rId8" sheetId="5"/>
+    <sheet name="Pre_Enrolled_Customers_Flow" r:id="rId9" sheetId="3"/>
+    <sheet name="Store_Locator" r:id="rId10" sheetId="17"/>
+    <sheet name="Static_Infobar_loggedin_Users" r:id="rId11" sheetId="18"/>
+    <sheet name="PII_Validation" r:id="rId12" sheetId="19"/>
+    <sheet name="Enrollment_Step_Counter" r:id="rId13" sheetId="20"/>
+    <sheet name="Set_Pin_PW_in_Security_Info" r:id="rId14" sheetId="21"/>
+    <sheet name="Account_Setup_page" r:id="rId15" sheetId="22"/>
+    <sheet name="Email_Verification" r:id="rId16" sheetId="25"/>
+    <sheet name="Persist_Data_During_Enrollment" r:id="rId17" sheetId="26"/>
+    <sheet name="Fuelperks_Locator_Page" r:id="rId18" sheetId="27"/>
+    <sheet name="Account_Lookup" r:id="rId19" sheetId="28"/>
+    <sheet name="LoggedIn_for_Rewards_Section" r:id="rId20" sheetId="29"/>
+    <sheet name="Updated_HomePage" r:id="rId21" sheetId="30"/>
+    <sheet name="Never_Miss_A_Deal" r:id="rId22" sheetId="24"/>
+    <sheet name="User_Status_After_SoftLogin" r:id="rId23" sheetId="31"/>
+    <sheet name="Login_Or_Signup_Global_Nav" r:id="rId24" sheetId="32"/>
+    <sheet name="Loggedout_Rewards_Page" r:id="rId25" sheetId="33"/>
+    <sheet name="Enrollment_LandingPage" r:id="rId26" sheetId="34"/>
+    <sheet name="Enrollment_Status_Directions" r:id="rId27" sheetId="35"/>
+    <sheet name="Contact_Us" r:id="rId28" sheetId="36"/>
+    <sheet name="Global_Nav_Update" r:id="rId29" sheetId="37"/>
+    <sheet name="Update_Footer" r:id="rId30" sheetId="38"/>
+    <sheet name="Digital_Coupons" r:id="rId31" sheetId="39"/>
+    <sheet name="Shopping_List" r:id="rId32" sheetId="40"/>
+    <sheet name="Weekly_Ad" r:id="rId33" sheetId="41"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="544">
   <si>
     <t>32256</t>
   </si>
@@ -830,9 +830,6 @@
     <t>TC01_Add_items_to_list_ADD_TO_LIST_button_item_added</t>
   </si>
   <si>
-    <t>TC02_Add_items_to_list_ADD_TO_LIST_button_add_item_again</t>
-  </si>
-  <si>
     <t>TC03_Add_items_to_list_VIEW_DETAILS_button_add_item_again</t>
   </si>
   <si>
@@ -1680,12 +1677,19 @@
   </si>
   <si>
     <t>segauto24@gmail.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>5035012356</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1795,120 +1799,120 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1925,10 +1929,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1963,7 +1967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1998,7 +2002,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2092,21 +2096,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2123,7 +2127,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2175,30 +2179,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2226,13 +2230,13 @@
         <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>28</v>
@@ -2249,7 +2253,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2272,7 +2276,7 @@
         <v>141</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2295,7 +2299,7 @@
         <v>142</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2318,7 +2322,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2341,7 +2345,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2364,7 +2368,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2387,7 +2391,7 @@
         <v>108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2410,7 +2414,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2433,7 +2437,7 @@
         <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2456,7 +2460,7 @@
         <v>110</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2479,7 +2483,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2502,7 +2506,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2525,7 +2529,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2548,7 +2552,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2571,7 +2575,7 @@
         <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2594,7 +2598,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2617,7 +2621,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2640,7 +2644,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2663,7 +2667,7 @@
         <v>117</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2686,7 +2690,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2709,7 +2713,7 @@
         <v>148</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2732,7 +2736,7 @@
         <v>149</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2755,7 +2759,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2778,7 +2782,7 @@
         <v>119</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2801,7 +2805,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2821,10 +2825,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2847,7 +2851,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2870,7 +2874,7 @@
         <v>122</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2893,7 +2897,7 @@
         <v>123</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2916,7 +2920,7 @@
         <v>125</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2939,7 +2943,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2948,24 +2952,24 @@
         <v>19</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="G33" s="10" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2973,10 +2977,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3020,7 +3024,7 @@
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>154</v>
       </c>
@@ -3033,14 +3037,14 @@
       <c r="B9" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3048,16 +3052,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3068,13 +3072,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3082,12 +3086,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3095,14 +3099,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3110,9 +3114,9 @@
       <c r="F3" s="16"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3121,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3131,7 +3135,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3144,9 +3148,9 @@
       <c r="F5" s="16"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3161,18 +3165,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3180,13 +3184,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="95.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3232,28 +3236,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
         <v>326</v>
       </c>
-      <c r="F2" t="s">
-        <v>327</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
@@ -3326,12 +3330,12 @@
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3349,7 +3353,7 @@
         <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3367,7 +3371,7 @@
         <v>162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3385,7 +3389,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3403,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3421,7 +3425,7 @@
         <v>165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3439,7 +3443,7 @@
         <v>166</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3457,7 +3461,7 @@
         <v>167</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3475,7 +3479,7 @@
         <v>168</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3493,7 +3497,7 @@
         <v>169</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3511,7 +3515,7 @@
         <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3529,7 +3533,7 @@
         <v>171</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3547,7 +3551,7 @@
         <v>172</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3565,7 +3569,7 @@
         <v>173</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3583,7 +3587,7 @@
         <v>175</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3596,12 +3600,12 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>174</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3615,14 +3619,14 @@
       <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -3630,10 +3634,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3648,14 +3652,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
@@ -3663,23 +3667,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="9.140625" style="18" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="18" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="16" max="18" width="9.140625" style="18" collapsed="1"/>
-    <col min="19" max="19" width="33.85546875" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="11" style="18" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="18" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="11.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
+    <col min="5" max="10" style="18" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="18" width="13.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="18" width="18.0" collapsed="true"/>
+    <col min="13" max="13" style="18" width="9.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="18" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="18" width="10.28515625" collapsed="true"/>
+    <col min="16" max="18" style="18" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="18" width="33.85546875" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" style="18" width="11.0" collapsed="true"/>
+    <col min="22" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>12</v>
@@ -3759,7 +3763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>130</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>32</v>
@@ -3776,44 +3780,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="J2" s="41" t="s">
-        <v>400</v>
-      </c>
       <c r="K2" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>346</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>347</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="T2" s="35" t="s">
         <v>13</v>
@@ -3833,7 +3837,7 @@
       <c r="Y2" s="35"/>
       <c r="Z2" s="35"/>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>131</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>32</v>
@@ -3850,44 +3854,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="H3" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="I3" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="J3" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="K3" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="L3" s="35" t="s">
         <v>432</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>433</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="P3" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="Q3" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="R3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="39" t="s">
         <v>437</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>438</v>
       </c>
       <c r="T3" s="35" t="s">
         <v>13</v>
@@ -3907,7 +3911,7 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>132</v>
       </c>
@@ -3915,53 +3919,53 @@
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>506</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>507</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>507</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="K4" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="35" t="s">
         <v>509</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>510</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="P4" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="Q4" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="39" t="s">
         <v>513</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>514</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>13</v>
@@ -4011,7 +4015,7 @@
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>134</v>
       </c>
@@ -4071,7 +4075,7 @@
       <c r="Y7" s="35"/>
       <c r="Z7" s="35"/>
     </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>136</v>
       </c>
@@ -4101,7 +4105,7 @@
       <c r="Y8" s="35"/>
       <c r="Z8" s="35"/>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>137</v>
       </c>
@@ -4118,44 +4122,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>518</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="I9" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="L9" s="35" t="s">
         <v>521</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>522</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q9" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="O9" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>524</v>
-      </c>
       <c r="R9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T9" s="35" t="s">
         <v>13</v>
@@ -4175,7 +4179,7 @@
       <c r="Y9" s="35"/>
       <c r="Z9" s="35"/>
     </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>138</v>
       </c>
@@ -4183,17 +4187,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>16</v>
@@ -4202,22 +4206,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L10" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>351</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>352</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35">
@@ -4227,7 +4231,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>13</v>
@@ -4247,7 +4251,7 @@
       <c r="Y10" s="35"/>
       <c r="Z10" s="35"/>
     </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>139</v>
       </c>
@@ -4262,10 +4266,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>16</v>
@@ -4274,22 +4278,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L11" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="35" t="s">
         <v>351</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>352</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="35">
@@ -4299,7 +4303,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T11" s="35" t="s">
         <v>13</v>
@@ -4327,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>32</v>
@@ -4336,44 +4340,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>408</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>409</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="K12" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="L12" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>413</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="O12" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="P12" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="Q12" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="Q12" s="33" t="s">
-        <v>417</v>
-      </c>
       <c r="R12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T12" s="35" t="s">
         <v>13</v>
@@ -4401,17 +4405,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>354</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>355</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>16</v>
@@ -4420,22 +4424,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L13" s="19">
         <v>8433</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="33" t="s">
@@ -4445,7 +4449,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T13" s="35" t="s">
         <v>13</v>
@@ -4473,26 +4477,26 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S13" r:id="rId1"/>
-    <hyperlink ref="S12" r:id="rId2"/>
-    <hyperlink ref="S11" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4"/>
-    <hyperlink ref="S4" r:id="rId5"/>
-    <hyperlink ref="S9" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="S13"/>
+    <hyperlink r:id="rId2" ref="S12"/>
+    <hyperlink r:id="rId3" ref="S11"/>
+    <hyperlink r:id="rId4" ref="S3"/>
+    <hyperlink r:id="rId5" ref="S4"/>
+    <hyperlink r:id="rId6" ref="S9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A1:B24"/>
@@ -4500,10 +4504,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4541,7 +4545,7 @@
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>183</v>
       </c>
@@ -4553,19 +4557,19 @@
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>187</v>
       </c>
@@ -4601,25 +4605,25 @@
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>196</v>
       </c>
@@ -4637,7 +4641,7 @@
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>198</v>
       </c>
@@ -4650,14 +4654,14 @@
       <c r="B24" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A1:B10"/>
@@ -4665,10 +4669,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4676,69 +4680,69 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>201</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>203</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>204</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>205</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>207</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:B3"/>
@@ -4746,10 +4750,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4757,27 +4761,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B3"/>
@@ -4785,10 +4789,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4802,21 +4806,21 @@
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>212</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -4824,10 +4828,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4847,7 +4851,7 @@
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>213</v>
       </c>
@@ -4873,7 +4877,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -4883,13 +4887,13 @@
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>219</v>
       </c>
@@ -4902,30 +4906,30 @@
       <c r="B12" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -4956,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -4986,20 +4990,20 @@
         <v>64</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -5007,13 +5011,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="19.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="30.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="31.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="18" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="18" width="18.7109375" collapsed="true"/>
+    <col min="8" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5021,10 +5025,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>48</v>
@@ -5044,7 +5048,7 @@
         <v>220</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>13</v>
@@ -5052,7 +5056,7 @@
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>55</v>
@@ -5063,30 +5067,30 @@
         <v>221</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E3" s="35">
         <v>32246</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5094,37 +5098,37 @@
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>223</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E5" s="35">
         <v>32246</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>13</v>
@@ -5136,7 +5140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>225</v>
       </c>
@@ -5149,7 +5153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>226</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>227</v>
       </c>
@@ -5216,18 +5220,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B6"/>
+    <hyperlink r:id="rId3" ref="B4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:B4"/>
@@ -5235,10 +5239,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5265,14 +5269,14 @@
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -5280,10 +5284,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5304,14 +5308,14 @@
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
@@ -5319,12 +5323,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5352,25 +5356,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -5378,21 +5382,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -5406,24 +5410,24 @@
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5435,7 +5439,7 @@
         <v>240</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
@@ -5444,18 +5448,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
@@ -5463,21 +5467,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>302</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -5491,24 +5495,24 @@
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5520,7 +5524,7 @@
         <v>240</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
@@ -5529,18 +5533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -5548,10 +5552,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5566,14 +5570,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -5581,13 +5585,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="18" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D2" s="34"/>
     </row>
@@ -5621,7 +5625,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D3" s="34"/>
     </row>
@@ -5633,7 +5637,7 @@
       <c r="C4" s="36"/>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>245</v>
       </c>
@@ -5641,19 +5645,19 @@
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -5661,10 +5665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>40</v>
       </c>
@@ -5675,51 +5679,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>372</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>377</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>378</v>
       </c>
       <c r="G2" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -5727,10 +5731,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5745,14 +5749,14 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -5760,14 +5764,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5798,14 +5802,14 @@
       <c r="E2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -5813,10 +5817,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5831,28 +5835,28 @@
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
@@ -5882,8 +5886,12 @@
       <c r="A3" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>385</v>
+      </c>
       <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,14 +5903,14 @@
       <c r="D4" s="45"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -5910,10 +5918,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5951,7 +5959,7 @@
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>256</v>
       </c>
@@ -5976,26 +5984,26 @@
       <c r="B10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6003,13 +6011,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>302</v>
-      </c>
       <c r="D1" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -6020,13 +6028,13 @@
         <v>258</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -6035,13 +6043,13 @@
         <v>259</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -6050,13 +6058,13 @@
         <v>260</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -6065,13 +6073,13 @@
         <v>261</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -6080,48 +6088,32 @@
         <v>262</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>534</v>
-      </c>
-      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -6129,14 +6121,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -6206,14 +6198,14 @@
       <c r="E5" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -6221,24 +6213,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.85546875" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="18" width="82.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="18" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="18" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="18" width="14.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="1" s="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>301</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>302</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>48</v>
@@ -6247,16 +6239,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>335</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>336</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>1</v>
@@ -6298,7 +6290,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X1" s="37" t="s">
         <v>12</v>
@@ -6316,7 +6308,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD1" s="32" t="s">
         <v>56</v>
@@ -6327,7 +6319,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>13</v>
@@ -6365,13 +6357,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E3" s="23">
         <v>35204</v>
@@ -6384,35 +6376,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="26" t="s">
         <v>363</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>364</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P3" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q3" s="23" t="s">
         <v>365</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>366</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="U3" s="26" t="s">
         <v>367</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>368</v>
       </c>
       <c r="V3" s="26">
         <v>35204</v>
@@ -6421,7 +6413,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y3" s="23" t="s">
         <v>13</v>
@@ -6445,7 +6437,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>13</v>
@@ -6483,7 +6475,7 @@
         <v>76</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>13</v>
@@ -6521,7 +6513,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>13</v>
@@ -6559,7 +6551,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -6597,13 +6589,13 @@
         <v>93</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>0</v>
@@ -6634,12 +6626,12 @@
       <c r="AC8" s="23"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>13</v>
@@ -6672,21 +6664,21 @@
       <c r="AC9" s="23"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>475</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>476</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -6719,7 +6711,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>13</v>
@@ -6727,16 +6719,16 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>339</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>340</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -6765,7 +6757,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>13</v>
@@ -6800,36 +6792,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink display="Hello@gmailcom" r:id="rId1" ref="F11"/>
+    <hyperlink r:id="rId2" ref="G11"/>
+    <hyperlink r:id="rId3" ref="B3"/>
+    <hyperlink r:id="rId4" ref="B8"/>
+    <hyperlink r:id="rId5" ref="B4"/>
+    <hyperlink r:id="rId6" ref="B10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -6840,28 +6832,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>302</v>
-      </c>
       <c r="F1" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="K1" s="38" t="s">
-        <v>384</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>23</v>
@@ -6873,18 +6865,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>13</v>
@@ -6903,18 +6895,18 @@
       </c>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>13</v>
@@ -6933,82 +6925,82 @@
       </c>
       <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N4" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="9.140625" style="18" collapsed="1"/>
-    <col min="10" max="10" width="28.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="18" width="78.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="18" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="18" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="18" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="18" width="10.42578125" collapsed="true"/>
+    <col min="8" max="9" style="18" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="18" width="28.7109375" collapsed="true"/>
+    <col min="11" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -7019,10 +7011,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>301</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>302</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>22</v>
@@ -7031,48 +7023,48 @@
         <v>44</v>
       </c>
       <c r="H1" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>481</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>482</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>13</v>
@@ -7084,43 +7076,43 @@
       <c r="M2" s="36"/>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>485</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>486</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>490</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>491</v>
       </c>
       <c r="N3" s="32"/>
     </row>
@@ -7147,13 +7139,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>13</v>
@@ -7170,18 +7162,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink r:id="rId3" ref="D3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -7189,34 +7181,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="51" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="51" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" style="51" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="51" collapsed="1"/>
-    <col min="15" max="15" width="11.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="51" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="26" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="10.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="5" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.140625" style="51" collapsed="1"/>
-    <col min="26" max="26" width="13.7109375" style="51" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="9.140625" style="51" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="51" width="59.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="51" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="51" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="51" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="51" width="10.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="51" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="51" width="9.7109375" collapsed="true"/>
+    <col min="8" max="10" style="51" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="51" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="51" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="51" width="25.28515625" collapsed="true"/>
+    <col min="14" max="14" style="51" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="51" width="11.42578125" collapsed="true"/>
+    <col min="16" max="16" style="51" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="51" width="11.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="51" width="8.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="51" width="20.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="51" width="31.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="51" width="26.0" collapsed="true"/>
+    <col min="22" max="23" bestFit="true" customWidth="true" style="51" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="51" width="5.0" collapsed="true"/>
+    <col min="25" max="25" style="51" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="51" width="13.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="51" width="24.5703125" collapsed="true"/>
+    <col min="28" max="16384" style="51" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="1" s="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
@@ -7251,7 +7243,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M1" s="44" t="s">
         <v>7</v>
@@ -7272,13 +7264,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T1" s="44" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V1" s="44" t="s">
         <v>22</v>
@@ -7310,7 +7302,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>32</v>
@@ -7319,48 +7311,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>495</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="K2" t="s">
+        <v>543</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>496</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="K2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>497</v>
       </c>
       <c r="N2" s="40"/>
       <c r="O2" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="R2" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
         <v>500</v>
       </c>
-      <c r="S2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>501</v>
-      </c>
       <c r="U2" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V2" s="41" t="s">
         <v>13</v>
@@ -7388,37 +7380,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F3" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="L3" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>470</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="41" t="s">
@@ -7426,16 +7418,16 @@
       </c>
       <c r="P3" s="41"/>
       <c r="Q3" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R3" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="40" t="s">
         <v>471</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>472</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="41" t="s">
@@ -7464,7 +7456,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>32</v>
@@ -7473,47 +7465,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>442</v>
-      </c>
       <c r="H4" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>440</v>
-      </c>
       <c r="K4" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="M4" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="M4" s="40" t="s">
+      <c r="N4" s="40" t="s">
         <v>445</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>446</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S4" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U4" s="40"/>
       <c r="V4" s="41" t="s">
@@ -7542,7 +7534,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>32</v>
@@ -7551,28 +7543,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>448</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>449</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J5" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="L5" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="M5" s="40" t="s">
         <v>451</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>452</v>
       </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40" t="s">
@@ -7580,16 +7572,16 @@
       </c>
       <c r="P5" s="41"/>
       <c r="Q5" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R5" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="40" t="s">
         <v>453</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>454</v>
       </c>
       <c r="U5" s="40"/>
       <c r="V5" s="41" t="s">
@@ -7612,16 +7604,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T5" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="T5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -7629,21 +7621,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -7693,7 +7685,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>12</v>
@@ -7728,7 +7720,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>15</v>
@@ -7749,7 +7741,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>27</v>
@@ -7769,7 +7761,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S2" s="35" t="s">
         <v>13</v>
@@ -7832,7 +7824,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>15</v>
@@ -7853,7 +7845,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>27</v>
@@ -7873,7 +7865,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>13</v>
@@ -7895,19 +7887,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>26</v>
@@ -7922,7 +7914,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>27</v>
@@ -7935,7 +7927,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>0</v>
@@ -7944,7 +7936,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S5" s="35" t="s">
         <v>13</v>
@@ -7964,19 +7956,19 @@
       <c r="X5" s="34"/>
       <c r="Y5" s="34"/>
     </row>
-    <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>539</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>540</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>26</v>
@@ -7991,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>27</v>
@@ -8004,7 +7996,7 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>0</v>
@@ -8013,7 +8005,7 @@
         <v>19</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S6" s="35" t="s">
         <v>13</v>
@@ -8035,12 +8027,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
-    <hyperlink ref="R6" r:id="rId4" display="scqat1@mailinator.com"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="R2"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId2" ref="R4"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="R5"/>
+    <hyperlink display="scqat1@mailinator.com" r:id="rId4" ref="R6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -1,49 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView tabRatio="753" windowHeight="7755" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" r:id="rId1" sheetId="4"/>
-    <sheet name="SoftLogin" r:id="rId2" sheetId="6"/>
-    <sheet name="Logout" r:id="rId3" sheetId="13"/>
-    <sheet name="Forgot_Password_Page" r:id="rId4" sheetId="14"/>
-    <sheet name="HardLogin_Loggedin_Account" r:id="rId5" sheetId="15"/>
-    <sheet name="Reset_PIN" r:id="rId6" sheetId="16"/>
-    <sheet name="Reset_Password" r:id="rId7" sheetId="12"/>
-    <sheet name="Fully_Enrolled_Customers_Flow" r:id="rId8" sheetId="5"/>
-    <sheet name="Pre_Enrolled_Customers_Flow" r:id="rId9" sheetId="3"/>
-    <sheet name="Store_Locator" r:id="rId10" sheetId="17"/>
-    <sheet name="Static_Infobar_loggedin_Users" r:id="rId11" sheetId="18"/>
-    <sheet name="PII_Validation" r:id="rId12" sheetId="19"/>
-    <sheet name="Enrollment_Step_Counter" r:id="rId13" sheetId="20"/>
-    <sheet name="Set_Pin_PW_in_Security_Info" r:id="rId14" sheetId="21"/>
-    <sheet name="Account_Setup_page" r:id="rId15" sheetId="22"/>
-    <sheet name="Email_Verification" r:id="rId16" sheetId="25"/>
-    <sheet name="Persist_Data_During_Enrollment" r:id="rId17" sheetId="26"/>
-    <sheet name="Fuelperks_Locator_Page" r:id="rId18" sheetId="27"/>
-    <sheet name="Account_Lookup" r:id="rId19" sheetId="28"/>
-    <sheet name="LoggedIn_for_Rewards_Section" r:id="rId20" sheetId="29"/>
-    <sheet name="Updated_HomePage" r:id="rId21" sheetId="30"/>
-    <sheet name="Never_Miss_A_Deal" r:id="rId22" sheetId="24"/>
-    <sheet name="User_Status_After_SoftLogin" r:id="rId23" sheetId="31"/>
-    <sheet name="Login_Or_Signup_Global_Nav" r:id="rId24" sheetId="32"/>
-    <sheet name="Loggedout_Rewards_Page" r:id="rId25" sheetId="33"/>
-    <sheet name="Enrollment_LandingPage" r:id="rId26" sheetId="34"/>
-    <sheet name="Enrollment_Status_Directions" r:id="rId27" sheetId="35"/>
-    <sheet name="Contact_Us" r:id="rId28" sheetId="36"/>
-    <sheet name="Global_Nav_Update" r:id="rId29" sheetId="37"/>
-    <sheet name="Update_Footer" r:id="rId30" sheetId="38"/>
-    <sheet name="Digital_Coupons" r:id="rId31" sheetId="39"/>
-    <sheet name="Shopping_List" r:id="rId32" sheetId="40"/>
-    <sheet name="Weekly_Ad" r:id="rId33" sheetId="41"/>
+    <sheet name="Global" sheetId="4" r:id="rId1"/>
+    <sheet name="SoftLogin" sheetId="6" r:id="rId2"/>
+    <sheet name="Logout" sheetId="13" r:id="rId3"/>
+    <sheet name="Forgot_Password_Page" sheetId="14" r:id="rId4"/>
+    <sheet name="HardLogin_Loggedin_Account" sheetId="15" r:id="rId5"/>
+    <sheet name="Reset_PIN" sheetId="16" r:id="rId6"/>
+    <sheet name="Reset_Password" sheetId="12" r:id="rId7"/>
+    <sheet name="Fully_Enrolled_Customers_Flow" sheetId="5" r:id="rId8"/>
+    <sheet name="Pre_Enrolled_Customers_Flow" sheetId="3" r:id="rId9"/>
+    <sheet name="Store_Locator" sheetId="17" r:id="rId10"/>
+    <sheet name="Static_Infobar_loggedin_Users" sheetId="18" r:id="rId11"/>
+    <sheet name="PII_Validation" sheetId="19" r:id="rId12"/>
+    <sheet name="Enrollment_Step_Counter" sheetId="20" r:id="rId13"/>
+    <sheet name="Set_Pin_PW_in_Security_Info" sheetId="21" r:id="rId14"/>
+    <sheet name="Account_Setup_page" sheetId="22" r:id="rId15"/>
+    <sheet name="Email_Verification" sheetId="25" r:id="rId16"/>
+    <sheet name="Persist_Data_During_Enrollment" sheetId="26" r:id="rId17"/>
+    <sheet name="Fuelperks_Locator_Page" sheetId="27" r:id="rId18"/>
+    <sheet name="Account_Lookup" sheetId="28" r:id="rId19"/>
+    <sheet name="LoggedIn_for_Rewards_Section" sheetId="29" r:id="rId20"/>
+    <sheet name="Updated_HomePage" sheetId="30" r:id="rId21"/>
+    <sheet name="Never_Miss_A_Deal" sheetId="24" r:id="rId22"/>
+    <sheet name="User_Status_After_SoftLogin" sheetId="31" r:id="rId23"/>
+    <sheet name="Login_Or_Signup_Global_Nav" sheetId="32" r:id="rId24"/>
+    <sheet name="Loggedout_Rewards_Page" sheetId="33" r:id="rId25"/>
+    <sheet name="Enrollment_LandingPage" sheetId="34" r:id="rId26"/>
+    <sheet name="Enrollment_Status_Directions" sheetId="35" r:id="rId27"/>
+    <sheet name="Contact_Us" sheetId="36" r:id="rId28"/>
+    <sheet name="Global_Nav_Update" sheetId="37" r:id="rId29"/>
+    <sheet name="Update_Footer" sheetId="38" r:id="rId30"/>
+    <sheet name="Digital_Coupons" sheetId="39" r:id="rId31"/>
+    <sheet name="Shopping_List" sheetId="40" r:id="rId32"/>
+    <sheet name="Weekly_Ad" sheetId="41" r:id="rId33"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="543">
   <si>
     <t>32256</t>
   </si>
@@ -251,18 +251,6 @@
     <t>N/A8</t>
   </si>
   <si>
-    <t>N/A214</t>
-  </si>
-  <si>
-    <t>N/A215</t>
-  </si>
-  <si>
-    <t>N/A216</t>
-  </si>
-  <si>
-    <t>N/A217</t>
-  </si>
-  <si>
     <t>TC006_EnrollinNewProgram_old_SEG_CRC_number_VerifybyPII</t>
   </si>
   <si>
@@ -347,18 +335,6 @@
     <t>TC002_Reset_PIN_Account_settings_page_cancel</t>
   </si>
   <si>
-    <t>N/A114</t>
-  </si>
-  <si>
-    <t>N/A115</t>
-  </si>
-  <si>
-    <t>N/A116</t>
-  </si>
-  <si>
-    <t>N/A117</t>
-  </si>
-  <si>
     <t>TC001_SoftLogin_Phone_And_Zip_login</t>
   </si>
   <si>
@@ -1679,17 +1655,37 @@
     <t>segauto24@gmail.com</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
     <t>5035012356</t>
+  </si>
+  <si>
+    <t>Invalid_Email_NotExist</t>
+  </si>
+  <si>
+    <t>Valid_Test_Email</t>
+  </si>
+  <si>
+    <t>Valid_Test_Password</t>
+  </si>
+  <si>
+    <t>Valid_Code</t>
+  </si>
+  <si>
+    <t>Invalid_Code</t>
+  </si>
+  <si>
+    <t>test00mail007@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@12</t>
+  </si>
+  <si>
+    <t>forgotpassword@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1799,120 +1795,120 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="1"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="8" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" quotePrefix="1" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="1" quotePrefix="1" xfId="1"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1929,10 +1925,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1967,7 +1963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2002,7 +1998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2096,21 +2092,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2127,7 +2123,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2179,30 +2175,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2227,10 +2223,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -2250,10 +2246,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2273,10 +2269,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2296,10 +2292,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2319,10 +2315,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2342,10 +2338,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2365,10 +2361,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2388,10 +2384,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2411,10 +2407,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2434,10 +2430,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2457,10 +2453,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2480,10 +2476,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2503,10 +2499,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2526,10 +2522,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2549,10 +2545,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2572,10 +2568,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2595,10 +2591,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2621,7 +2617,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2641,10 +2637,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2664,10 +2660,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2687,10 +2683,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2710,10 +2706,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2733,10 +2729,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2756,10 +2752,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2779,10 +2775,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2802,10 +2798,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2825,10 +2821,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2848,10 +2844,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2871,10 +2867,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2894,10 +2890,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2917,10 +2913,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -2943,7 +2939,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -2962,14 +2958,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2977,10 +2973,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2990,61 +2986,61 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row ht="30" r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B9" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3052,16 +3048,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3072,13 +3068,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3086,12 +3082,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3099,14 +3095,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="4"/>
     </row>
-    <row ht="30" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3114,9 +3110,9 @@
       <c r="F3" s="16"/>
       <c r="G3" s="4"/>
     </row>
-    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3125,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3135,7 +3131,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3148,9 +3144,9 @@
       <c r="F5" s="16"/>
       <c r="G5" s="4"/>
     </row>
-    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3165,18 +3161,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3184,13 +3180,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="95.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="95" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3230,41 +3226,41 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3298,7 +3294,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>65</v>
@@ -3330,12 +3326,12 @@
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
     </row>
-    <row ht="30" r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3350,10 +3346,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3368,10 +3364,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3386,10 +3382,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3404,10 +3400,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3422,10 +3418,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3440,10 +3436,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3458,10 +3454,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3476,10 +3472,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3494,10 +3490,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3512,10 +3508,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3530,10 +3526,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3548,10 +3544,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3566,10 +3562,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3584,10 +3580,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3600,12 +3596,12 @@
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
     </row>
-    <row ht="30" r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3619,14 +3615,14 @@
       <c r="L20" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -3634,10 +3630,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3647,19 +3643,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
@@ -3667,23 +3663,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="18" width="48.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="11.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
-    <col min="5" max="10" style="18" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="18" width="13.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="18" width="18.0" collapsed="true"/>
-    <col min="13" max="13" style="18" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="18" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="18" width="10.28515625" collapsed="true"/>
-    <col min="16" max="18" style="18" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="18" width="33.85546875" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" style="18" width="11.0" collapsed="true"/>
-    <col min="22" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="48.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="9.140625" style="18" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="18" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="16" max="18" width="9.140625" style="18" collapsed="1"/>
+    <col min="19" max="19" width="33.85546875" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="11" style="18" customWidth="1" collapsed="1"/>
+    <col min="22" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -3736,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="S1" s="32" t="s">
         <v>12</v>
@@ -3763,15 +3759,15 @@
         <v>56</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>32</v>
@@ -3780,44 +3776,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="33" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="R2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="T2" s="35" t="s">
         <v>13</v>
@@ -3837,15 +3833,15 @@
       <c r="Y2" s="35"/>
       <c r="Z2" s="35"/>
     </row>
-    <row ht="30" r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>32</v>
@@ -3854,44 +3850,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M3" s="35"/>
       <c r="N3" s="35" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="R3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="T3" s="35" t="s">
         <v>13</v>
@@ -3911,61 +3907,61 @@
       <c r="Y3" s="35"/>
       <c r="Z3" s="35"/>
     </row>
-    <row ht="30" r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="K4" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="J4" s="41" t="s">
-        <v>508</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>515</v>
-      </c>
       <c r="L4" s="35" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M4" s="35"/>
       <c r="N4" s="53" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="R4" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>13</v>
@@ -3987,7 +3983,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -4015,9 +4011,9 @@
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
     </row>
-    <row ht="30" r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="35"/>
@@ -4047,7 +4043,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
@@ -4075,9 +4071,9 @@
       <c r="Y7" s="35"/>
       <c r="Z7" s="35"/>
     </row>
-    <row ht="30" r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -4105,9 +4101,9 @@
       <c r="Y8" s="35"/>
       <c r="Z8" s="35"/>
     </row>
-    <row ht="30" r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>47</v>
@@ -4122,44 +4118,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="M9" s="35"/>
       <c r="N9" s="35" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="R9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="T9" s="35" t="s">
         <v>13</v>
@@ -4179,25 +4175,25 @@
       <c r="Y9" s="35"/>
       <c r="Z9" s="35"/>
     </row>
-    <row ht="30" r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>16</v>
@@ -4206,22 +4202,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="M10" s="35" t="s">
         <v>343</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>351</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P10" s="35"/>
       <c r="Q10" s="35">
@@ -4231,7 +4227,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>13</v>
@@ -4251,9 +4247,9 @@
       <c r="Y10" s="35"/>
       <c r="Z10" s="35"/>
     </row>
-    <row ht="30" r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>47</v>
@@ -4266,10 +4262,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>16</v>
@@ -4278,22 +4274,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" s="35" t="s">
         <v>343</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>351</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="35">
@@ -4303,7 +4299,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="T11" s="35" t="s">
         <v>13</v>
@@ -4325,13 +4321,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>32</v>
@@ -4340,44 +4336,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="35" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="O12" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="39" t="s">
         <v>414</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>422</v>
       </c>
       <c r="T12" s="35" t="s">
         <v>13</v>
@@ -4399,23 +4395,23 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>16</v>
@@ -4424,22 +4420,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L13" s="19">
         <v>8433</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="33" t="s">
@@ -4449,7 +4445,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="T13" s="35" t="s">
         <v>13</v>
@@ -4477,26 +4473,26 @@
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="35" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S13"/>
-    <hyperlink r:id="rId2" ref="S12"/>
-    <hyperlink r:id="rId3" ref="S11"/>
-    <hyperlink r:id="rId4" ref="S3"/>
-    <hyperlink r:id="rId5" ref="S4"/>
-    <hyperlink r:id="rId6" ref="S9"/>
+    <hyperlink ref="S13" r:id="rId1"/>
+    <hyperlink ref="S12" r:id="rId2"/>
+    <hyperlink ref="S11" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5"/>
+    <hyperlink ref="S9" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A1:B24"/>
@@ -4504,10 +4500,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4517,151 +4513,151 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row ht="30" r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row ht="30" r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row ht="30" r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row ht="30" r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row ht="30" r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row ht="30" r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B24" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A1:B10"/>
@@ -4669,10 +4665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4680,69 +4676,69 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row ht="45" r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row ht="45" r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row ht="45" r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row ht="45" r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row ht="45" r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="B10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:B3"/>
@@ -4750,10 +4746,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4761,27 +4757,27 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B3"/>
@@ -4789,10 +4785,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4802,25 +4798,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row ht="30" r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -4828,10 +4824,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4841,95 +4837,95 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row ht="30" r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row ht="30" r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row ht="30" r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -4940,7 +4936,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -4951,26 +4947,26 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -4981,7 +4977,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>64</v>
@@ -4990,20 +4986,20 @@
         <v>64</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -5011,13 +5007,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="31.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="18" width="31.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="18" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="18" width="18.7109375" collapsed="true"/>
-    <col min="8" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="47" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="19.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5025,10 +5021,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>48</v>
@@ -5045,10 +5041,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>13</v>
@@ -5056,7 +5052,7 @@
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>55</v>
@@ -5064,33 +5060,33 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E3" s="35">
         <v>32246</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5098,37 +5094,37 @@
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
       <c r="F4" s="35" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="33" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E5" s="35">
         <v>32246</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>13</v>
@@ -5140,9 +5136,9 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -5153,9 +5149,9 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -5166,9 +5162,9 @@
         <v>55</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -5181,7 +5177,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -5194,7 +5190,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -5207,7 +5203,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -5220,18 +5216,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B6"/>
-    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:B4"/>
@@ -5239,10 +5235,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5252,31 +5248,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -5284,10 +5280,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5297,25 +5293,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C2"/>
@@ -5323,12 +5319,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5344,10 +5340,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -5356,25 +5352,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -5382,21 +5378,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -5404,30 +5400,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5436,10 +5432,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
@@ -5448,18 +5444,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C3"/>
@@ -5467,21 +5463,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>55</v>
@@ -5489,30 +5485,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="34"/>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row ht="30" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
@@ -5521,10 +5517,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
@@ -5533,18 +5529,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
-    <hyperlink r:id="rId3" ref="B5"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -5552,10 +5548,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5565,19 +5561,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -5585,13 +5581,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="18" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -5607,57 +5603,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="34"/>
     </row>
-    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D5" s="34"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -5665,10 +5661,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>40</v>
       </c>
@@ -5679,51 +5675,51 @@
         <v>3</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G2" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:B2"/>
@@ -5731,10 +5727,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5744,19 +5740,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -5764,14 +5760,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5790,10 +5786,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -5802,14 +5798,14 @@
       <c r="E2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -5817,10 +5813,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5830,19 +5826,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
@@ -5850,13 +5846,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
@@ -5872,10 +5868,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>0</v>
@@ -5884,33 +5880,33 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="45"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -5918,10 +5914,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -5931,67 +5927,67 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row ht="30" r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -5999,11 +5995,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="19.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="18" width="45.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="1" width="65.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6011,13 +6007,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -6025,187 +6021,194 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="65.140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21">
+        <v>1234</v>
+      </c>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="37"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -6213,24 +6216,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="18" width="82.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="18" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="18" width="23.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="18" width="14.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="82.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.85546875" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>48</v>
@@ -6239,16 +6242,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J1" s="37" t="s">
         <v>1</v>
@@ -6290,7 +6293,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="X1" s="37" t="s">
         <v>12</v>
@@ -6308,7 +6311,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AD1" s="32" t="s">
         <v>56</v>
@@ -6316,10 +6319,10 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>13</v>
@@ -6354,16 +6357,16 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E3" s="23">
         <v>35204</v>
@@ -6376,35 +6379,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="23" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="V3" s="26">
         <v>35204</v>
@@ -6413,7 +6416,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Y3" s="23" t="s">
         <v>13</v>
@@ -6434,10 +6437,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>13</v>
@@ -6472,10 +6475,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>13</v>
@@ -6510,10 +6513,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>13</v>
@@ -6548,10 +6551,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -6586,16 +6589,16 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>0</v>
@@ -6626,12 +6629,12 @@
       <c r="AC8" s="23"/>
       <c r="AD8" s="32"/>
     </row>
-    <row ht="30" r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>13</v>
@@ -6664,21 +6667,21 @@
       <c r="AC9" s="23"/>
       <c r="AD9" s="32"/>
     </row>
-    <row ht="30" r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -6708,10 +6711,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>13</v>
@@ -6719,16 +6722,16 @@
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="22" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
@@ -6754,10 +6757,10 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>13</v>
@@ -6792,21 +6795,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Hello@gmailcom" r:id="rId1" ref="F11"/>
-    <hyperlink r:id="rId2" ref="G11"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="B10"/>
+    <hyperlink ref="F11" r:id="rId1" display="Hello@gmailcom"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
@@ -6814,14 +6817,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -6832,28 +6835,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>23</v>
@@ -6865,18 +6868,18 @@
         <v>56</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>13</v>
@@ -6895,18 +6898,18 @@
       </c>
       <c r="N2" s="32"/>
     </row>
-    <row customFormat="1" r="3" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>13</v>
@@ -6925,62 +6928,62 @@
       </c>
       <c r="N3" s="32"/>
     </row>
-    <row customFormat="1" r="4" s="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N4" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -6988,19 +6991,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="18" width="78.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="18" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="18" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="18" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="18" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="18" width="10.42578125" collapsed="true"/>
-    <col min="8" max="9" style="18" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="18" width="28.7109375" collapsed="true"/>
-    <col min="11" max="16384" style="18" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="78.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="18" collapsed="1"/>
+    <col min="10" max="10" width="28.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -7011,10 +7014,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>22</v>
@@ -7023,48 +7026,48 @@
         <v>44</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>13</v>
@@ -7076,49 +7079,49 @@
       <c r="M2" s="36"/>
       <c r="N2" s="32"/>
     </row>
-    <row ht="30" r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -7136,16 +7139,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>13</v>
@@ -7162,18 +7165,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D5"/>
-    <hyperlink r:id="rId3" ref="D3"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
@@ -7181,34 +7184,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="51" width="59.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="51" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="51" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="51" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="51" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="51" width="11.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="51" width="9.7109375" collapsed="true"/>
-    <col min="8" max="10" style="51" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="51" width="12.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="51" width="12.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="51" width="25.28515625" collapsed="true"/>
-    <col min="14" max="14" style="51" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="51" width="11.42578125" collapsed="true"/>
-    <col min="16" max="16" style="51" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="51" width="11.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="51" width="8.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="51" width="20.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="51" width="31.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="51" width="26.0" collapsed="true"/>
-    <col min="22" max="23" bestFit="true" customWidth="true" style="51" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="51" width="5.0" collapsed="true"/>
-    <col min="25" max="25" style="51" width="9.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="51" width="13.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="51" width="24.5703125" collapsed="true"/>
-    <col min="28" max="16384" style="51" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="59.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="51" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.140625" style="51" collapsed="1"/>
+    <col min="11" max="11" width="12.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" style="51" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="51" collapsed="1"/>
+    <col min="15" max="15" width="11.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="51" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="10.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.140625" style="51" collapsed="1"/>
+    <col min="26" max="26" width="13.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="9.140625" style="51" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="45" r="1" s="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>40</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M1" s="44" t="s">
         <v>7</v>
@@ -7264,13 +7267,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="T1" s="44" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="44" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="V1" s="44" t="s">
         <v>22</v>
@@ -7302,7 +7305,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>32</v>
@@ -7311,48 +7314,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="N2" s="40"/>
       <c r="O2" s="41" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="P2" s="41"/>
       <c r="Q2" s="48" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="S2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="U2" s="40" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="V2" s="41" t="s">
         <v>13</v>
@@ -7374,43 +7377,43 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>463</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>468</v>
-      </c>
       <c r="L3" s="40" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="41" t="s">
@@ -7418,16 +7421,16 @@
       </c>
       <c r="P3" s="41"/>
       <c r="Q3" s="40" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="S3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="U3" s="40"/>
       <c r="V3" s="41" t="s">
@@ -7456,7 +7459,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>32</v>
@@ -7465,47 +7468,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="O4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="40" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="S4" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="40" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="U4" s="40"/>
       <c r="V4" s="41" t="s">
@@ -7528,13 +7531,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>32</v>
@@ -7543,28 +7546,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40" t="s">
@@ -7572,16 +7575,16 @@
       </c>
       <c r="P5" s="41"/>
       <c r="Q5" s="40" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="S5" s="40" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="U5" s="40"/>
       <c r="V5" s="41" t="s">
@@ -7604,16 +7607,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="T5"/>
+    <hyperlink ref="T5" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -7621,21 +7624,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="53.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="60" r="1" s="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>12</v>
@@ -7714,13 +7717,13 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>15</v>
@@ -7741,7 +7744,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K2" s="35" t="s">
         <v>27</v>
@@ -7761,7 +7764,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S2" s="35" t="s">
         <v>13</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>60</v>
@@ -7824,7 +7827,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>15</v>
@@ -7845,7 +7848,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K4" s="35" t="s">
         <v>27</v>
@@ -7865,7 +7868,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S4" s="35" t="s">
         <v>13</v>
@@ -7887,19 +7890,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>26</v>
@@ -7914,7 +7917,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K5" s="35" t="s">
         <v>27</v>
@@ -7927,7 +7930,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>0</v>
@@ -7936,7 +7939,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="S5" s="35" t="s">
         <v>13</v>
@@ -7956,19 +7959,19 @@
       <c r="X5" s="34"/>
       <c r="Y5" s="34"/>
     </row>
-    <row customFormat="1" r="6" s="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>26</v>
@@ -7983,7 +7986,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>27</v>
@@ -7996,7 +7999,7 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>0</v>
@@ -8005,7 +8008,7 @@
         <v>19</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="S6" s="35" t="s">
         <v>13</v>
@@ -8027,12 +8030,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId1" ref="R2"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId2" ref="R4"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId3" ref="R5"/>
-    <hyperlink display="scqat1@mailinator.com" r:id="rId4" ref="R6"/>
+    <hyperlink ref="R2" r:id="rId1" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R4" r:id="rId2" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R5" r:id="rId3" display="scqat1@mailinator.com"/>
+    <hyperlink ref="R6" r:id="rId4" display="scqat1@mailinator.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="8" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -3175,7 +3175,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,8 +5989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6111,8 +6111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="8" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="561">
   <si>
     <t>32256</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Enroll</t>
   </si>
   <si>
-    <t>225-333-1691</t>
-  </si>
-  <si>
     <t>3104170655032951</t>
   </si>
   <si>
@@ -1680,6 +1677,63 @@
   </si>
   <si>
     <t>forgotpassword@gmail.com</t>
+  </si>
+  <si>
+    <t>5015036626</t>
+  </si>
+  <si>
+    <t>4791 Hanover Street</t>
+  </si>
+  <si>
+    <t>segauto25@gmail.com</t>
+  </si>
+  <si>
+    <t>3104172445047448</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>9176473938</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>5772</t>
+  </si>
+  <si>
+    <t>3938</t>
+  </si>
+  <si>
+    <t>4791</t>
+  </si>
+  <si>
+    <t>TC007_Validate_ErrorMessage_If_Character_As_A_PINnumber</t>
+  </si>
+  <si>
+    <t>ch%$</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1834,10 +1888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1873,9 +1923,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1894,7 +1941,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1902,6 +1948,30 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2821,10 +2891,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -3655,10 +3725,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,802 +3749,1206 @@
     <col min="22" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE1" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF1" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="AG1" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH1" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI1" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ1" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK1" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    </row>
+    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="33" t="s">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="35" t="s">
+      <c r="R2" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="X2" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+    </row>
+    <row r="3" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>417</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="G3" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+    </row>
+    <row r="4" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E4" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="62" t="s">
+        <v>501</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>505</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>504</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+    </row>
+    <row r="5" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+    </row>
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="T3" s="35" t="s">
+      <c r="F6" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q6" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="U6" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA6" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB6" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC6" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD6" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+    </row>
+    <row r="7" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+    </row>
+    <row r="8" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>546</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>548</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>551</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q8" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="X8" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF8" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG8" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH8" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI8" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+    </row>
+    <row r="9" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="63">
+        <v>2138174575</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>515</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q9" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="T9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-    </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="X9" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+    </row>
+    <row r="10" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="C10" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57">
+        <v>32256</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+    </row>
+    <row r="11" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="63">
+        <v>9045269191</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57">
+        <v>32256</v>
+      </c>
+      <c r="R11" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="T11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="H4" s="41" t="s">
+      <c r="E12" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>499</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="53" t="s">
-        <v>502</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="T4" s="35" t="s">
+      <c r="I12" s="57" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="T12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-    </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-    </row>
-    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-    </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="42">
-        <v>2138174575</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="O9" s="35" t="s">
+      <c r="X12" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="L13" s="64">
+        <v>8433</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="P9" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="R9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>517</v>
-      </c>
-      <c r="T9" s="35" t="s">
+      <c r="P13" s="57"/>
+      <c r="Q13" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="T13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="33" t="s">
+      <c r="V13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="33" t="s">
+      <c r="W13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-    </row>
-    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="H10" s="33" t="s">
+      <c r="X13" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+    </row>
+    <row r="14" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I14" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="N10" s="35" t="s">
+      <c r="J14" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35">
-        <v>32256</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="33" t="s">
+      <c r="O14" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q14" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="T14" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="U14" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="V14" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="W14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-    </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="42">
-        <v>9045269191</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35">
-        <v>32256</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="V11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="R12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>413</v>
-      </c>
-      <c r="L13" s="19">
-        <v>8433</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="W13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K14" s="20"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="X14" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA14" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB14" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC14" s="57" t="s">
+        <v>480</v>
+      </c>
+      <c r="AD14" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K17" s="35" t="s">
-        <v>397</v>
-      </c>
+      <c r="K17" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4484,9 +4958,11 @@
     <hyperlink ref="S3" r:id="rId4"/>
     <hyperlink ref="S4" r:id="rId5"/>
     <hyperlink ref="S9" r:id="rId6"/>
+    <hyperlink ref="S6" r:id="rId7" display="scqat1@mailinator.com"/>
+    <hyperlink ref="S14" r:id="rId8" display="scqat1@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4935,8 +5411,8 @@
       <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>524</v>
+      <c r="D1" s="32" t="s">
+        <v>523</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -4955,8 +5431,8 @@
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>525</v>
+      <c r="D2" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -4985,8 +5461,8 @@
       <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>525</v>
+      <c r="D4" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -5017,200 +5493,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="G2" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="33">
+        <v>32246</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="E5" s="33">
+        <v>32246</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>526</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="35">
-        <v>32246</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="G3" s="34" t="s">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="G4" s="34" t="s">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="33" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="35">
-        <v>32246</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="G5" s="34" t="s">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="34" t="s">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="34" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="34" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="34" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5385,62 +5861,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5470,62 +5946,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5588,62 +6064,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="36" t="s">
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C5" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5665,48 +6141,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5853,50 +6329,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5989,7 +6465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6006,14 +6482,14 @@
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>524</v>
+      <c r="D1" s="32" t="s">
+        <v>523</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -6023,14 +6499,14 @@
       <c r="A2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>525</v>
+      <c r="D2" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -6038,14 +6514,14 @@
       <c r="A3" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>525</v>
+      <c r="D3" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -6053,14 +6529,14 @@
       <c r="A4" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>525</v>
+      <c r="D4" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -6068,14 +6544,14 @@
       <c r="A5" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>525</v>
+      <c r="D5" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -6083,14 +6559,14 @@
       <c r="A6" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>525</v>
+      <c r="D6" s="31" t="s">
+        <v>524</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -6126,79 +6602,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19">
+        <v>1234</v>
+      </c>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21">
-        <v>1234</v>
-      </c>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6226,572 +6702,572 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="37" t="s">
+      <c r="AC1" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="AD1" s="32" t="s">
+      <c r="AD1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="32"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="30"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <v>35204</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="23" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="24">
         <v>35204</v>
       </c>
-      <c r="W3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="27" t="s">
+      <c r="W3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="26">
+      <c r="AA3" s="24">
         <v>7898</v>
       </c>
-      <c r="AB3" s="26">
+      <c r="AB3" s="24">
         <v>7898</v>
       </c>
-      <c r="AC3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="32"/>
+      <c r="AC3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="30"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="32"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="32"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="30"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="32"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="32"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="30"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="E8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="30"/>
+    </row>
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="30"/>
+    </row>
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="32"/>
-    </row>
-    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="E10" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="30"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="32"/>
-    </row>
-    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="30"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="32"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="32"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="32"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6825,150 +7301,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="40" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="32"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="40" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="N4" s="32"/>
+      <c r="N4" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7004,164 +7480,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>378</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="H2" s="36" t="s">
+      <c r="B3" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="G3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>482</v>
-      </c>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="35"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7184,426 +7660,426 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="51" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="51" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" style="51" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="51" collapsed="1"/>
-    <col min="15" max="15" width="11.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="51" collapsed="1"/>
-    <col min="17" max="17" width="11.140625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.28515625" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="26" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="10.42578125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="5" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.140625" style="51" collapsed="1"/>
-    <col min="26" max="26" width="13.7109375" style="51" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.5703125" style="51" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="9.140625" style="51" collapsed="1"/>
+    <col min="1" max="1" width="59.7109375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="9.140625" style="48" collapsed="1"/>
+    <col min="11" max="11" width="12.42578125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.42578125" style="48" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="48" collapsed="1"/>
+    <col min="15" max="15" width="11.42578125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.140625" style="48" collapsed="1"/>
+    <col min="17" max="17" width="11.140625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.5703125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="10.42578125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.140625" style="48" collapsed="1"/>
+    <col min="26" max="26" width="13.7109375" style="48" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.5703125" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="9.140625" style="48" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:28" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="41" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="G2" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="K2" t="s">
+        <v>533</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>491</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="41"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" t="s">
-        <v>534</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>492</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="V2" s="41" t="s">
+      <c r="E3" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="44"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C4" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="R4" s="38" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41" t="s">
+      <c r="S4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="U4" s="38"/>
+      <c r="V4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="40" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="R3" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="41" t="s">
+      <c r="R5" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="U5" s="38"/>
+      <c r="V5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="W5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="44"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>433</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>436</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="U4" s="40"/>
-      <c r="V4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="44"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="R5" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="44"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7639,394 +8115,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="33" t="s">
+      <c r="O2" s="33"/>
+      <c r="P2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="31" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="S2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="33" t="s">
+      <c r="O4" s="33"/>
+      <c r="P4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="31" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
+      <c r="W4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>518</v>
+      <c r="A5" s="33" t="s">
+        <v>517</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>521</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="K5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>519</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+    </row>
+    <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E6" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
         <v>519</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>520</v>
-      </c>
-      <c r="P5" s="33" t="s">
+      <c r="P6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="S5" s="35" t="s">
+      <c r="Q6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="S6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="U6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="V6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="33" t="s">
+      <c r="W6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-    </row>
-    <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>520</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="571">
   <si>
     <t>32256</t>
   </si>
@@ -590,9 +590,6 @@
     <t>TC010_Error_message_validation_character_and_special_characters_in_Phone_Number</t>
   </si>
   <si>
-    <t>TC011_Error_message_validation_Phone_Number_Type</t>
-  </si>
-  <si>
     <t>TC012_Error_message_validation_Address_field1</t>
   </si>
   <si>
@@ -1734,6 +1731,39 @@
   </si>
   <si>
     <t>ch%$</t>
+  </si>
+  <si>
+    <t>Landline</t>
+  </si>
+  <si>
+    <t>Fy-fy'y</t>
+  </si>
+  <si>
+    <t>Hb-hb'h</t>
+  </si>
+  <si>
+    <t>12 W'hip-s Road</t>
+  </si>
+  <si>
+    <t>Jacks'on-ville</t>
+  </si>
+  <si>
+    <t>8544654746</t>
+  </si>
+  <si>
+    <t>TC005_Error_message_validation_FirstName</t>
+  </si>
+  <si>
+    <t>jas&amp;*()gfj</t>
+  </si>
+  <si>
+    <t>7455</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>8798474645</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1972,6 +2002,24 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2296,7 +2344,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -2319,7 +2367,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2342,7 +2390,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2365,7 +2413,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2388,7 +2436,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2411,7 +2459,7 @@
         <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2434,7 +2482,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2457,7 +2505,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2480,7 +2528,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2503,7 +2551,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2526,7 +2574,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2549,7 +2597,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2572,7 +2620,7 @@
         <v>132</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2595,7 +2643,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2618,7 +2666,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2641,7 +2689,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2664,7 +2712,7 @@
         <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2687,7 +2735,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2710,7 +2758,7 @@
         <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2733,7 +2781,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2756,7 +2804,7 @@
         <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2779,7 +2827,7 @@
         <v>140</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2802,7 +2850,7 @@
         <v>141</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2825,7 +2873,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2848,7 +2896,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2871,7 +2919,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2891,10 +2939,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2917,7 +2965,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2940,7 +2988,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -2963,7 +3011,7 @@
         <v>115</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -2986,7 +3034,7 @@
         <v>117</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -3009,7 +3057,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -3138,13 +3186,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3152,12 +3200,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3167,12 +3215,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3182,7 +3230,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3191,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3201,7 +3249,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3216,7 +3264,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3302,28 +3350,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
         <v>317</v>
       </c>
-      <c r="F2" t="s">
-        <v>318</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
@@ -3401,7 +3449,7 @@
         <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3419,7 +3467,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3437,7 +3485,7 @@
         <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3455,7 +3503,7 @@
         <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3473,7 +3521,7 @@
         <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3491,7 +3539,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3509,7 +3557,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3527,7 +3575,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3545,7 +3593,7 @@
         <v>160</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3563,7 +3611,7 @@
         <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3581,7 +3629,7 @@
         <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3599,7 +3647,7 @@
         <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3617,7 +3665,7 @@
         <v>164</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3635,7 +3683,7 @@
         <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3653,7 +3701,7 @@
         <v>167</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3671,7 +3719,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3727,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AN17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,7 +3850,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S1" s="58" t="s">
         <v>12</v>
@@ -3823,40 +3871,40 @@
         <v>59</v>
       </c>
       <c r="Y1" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z1" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="AA1" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AB1" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AC1" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AD1" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="AD1" s="58" t="s">
-        <v>472</v>
-      </c>
       <c r="AE1" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF1" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="AF1" s="59" t="s">
+      <c r="AG1" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AH1" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="AH1" s="58" t="s">
+      <c r="AI1" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="AI1" s="58" t="s">
+      <c r="AJ1" s="59" t="s">
         <v>374</v>
-      </c>
-      <c r="AJ1" s="59" t="s">
-        <v>375</v>
       </c>
       <c r="AK1" s="58" t="s">
         <v>56</v>
@@ -3873,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>32</v>
@@ -3882,44 +3930,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="57" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="I2" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="J2" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>391</v>
-      </c>
       <c r="K2" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="M2" s="57" t="s">
         <v>337</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>338</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="57" t="s">
         <v>340</v>
-      </c>
-      <c r="R2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="57" t="s">
-        <v>341</v>
       </c>
       <c r="T2" s="57" t="s">
         <v>13</v>
@@ -3959,7 +4007,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>32</v>
@@ -3968,44 +4016,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="57" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" s="57" t="s">
         <v>417</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="H3" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="I3" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="J3" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="K3" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="L3" s="57" t="s">
         <v>422</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>423</v>
       </c>
       <c r="M3" s="57"/>
       <c r="N3" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="P3" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="Q3" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="R3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="61" t="s">
         <v>427</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>428</v>
       </c>
       <c r="T3" s="57" t="s">
         <v>13</v>
@@ -4045,53 +4093,53 @@
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F4" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>496</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>497</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J4" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="K4" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="L4" s="57" t="s">
         <v>499</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>506</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>500</v>
       </c>
       <c r="M4" s="57"/>
       <c r="N4" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="O4" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="P4" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="61" t="s">
         <v>503</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>505</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>504</v>
       </c>
       <c r="T4" s="57" t="s">
         <v>13</v>
@@ -4128,7 +4176,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="56"/>
@@ -4172,7 +4220,7 @@
         <v>126</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -4180,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>26</v>
@@ -4195,10 +4243,10 @@
         <v>18</v>
       </c>
       <c r="K6" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>542</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>543</v>
       </c>
       <c r="M6" s="56"/>
       <c r="N6" s="56" t="s">
@@ -4208,7 +4256,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="68" t="s">
         <v>0</v>
@@ -4217,13 +4265,13 @@
         <v>19</v>
       </c>
       <c r="S6" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T6" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="U6" s="57" t="s">
         <v>475</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>476</v>
       </c>
       <c r="V6" s="56"/>
       <c r="W6" s="56"/>
@@ -4232,19 +4280,19 @@
       </c>
       <c r="Y6" s="57"/>
       <c r="Z6" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA6" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="AA6" s="57" t="s">
+      <c r="AB6" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AB6" s="57" t="s">
+      <c r="AC6" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AD6" s="57" t="s">
         <v>480</v>
-      </c>
-      <c r="AD6" s="57" t="s">
-        <v>481</v>
       </c>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -4260,7 +4308,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -4307,47 +4355,47 @@
         <v>14</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>546</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="H8" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="I8" s="56" t="s">
         <v>548</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="J8" s="56" t="s">
         <v>549</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="K8" s="66" t="s">
         <v>550</v>
       </c>
-      <c r="K8" s="66" t="s">
-        <v>551</v>
-      </c>
       <c r="L8" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M8" s="56"/>
       <c r="N8" s="56" t="s">
+        <v>551</v>
+      </c>
+      <c r="O8" s="56" t="s">
         <v>552</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="P8" s="56" t="s">
         <v>553</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="Q8" s="68" t="s">
         <v>554</v>
-      </c>
-      <c r="Q8" s="68" t="s">
-        <v>555</v>
       </c>
       <c r="R8" s="56" t="s">
         <v>19</v>
@@ -4359,7 +4407,7 @@
         <v>21</v>
       </c>
       <c r="W8" s="56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X8" s="57" t="s">
         <v>19</v>
@@ -4371,22 +4419,22 @@
       <c r="AC8" s="57"/>
       <c r="AD8" s="57"/>
       <c r="AE8" s="56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF8" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG8" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="AH8" s="56" t="s">
         <v>556</v>
       </c>
-      <c r="AG8" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH8" s="56" t="s">
+      <c r="AI8" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
         <v>557</v>
-      </c>
-      <c r="AI8" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="AJ8" s="56" t="s">
-        <v>558</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="58"/>
@@ -4408,44 +4456,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="I9" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>510</v>
       </c>
-      <c r="I9" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="56" t="s">
+      <c r="K9" s="65" t="s">
+        <v>514</v>
+      </c>
+      <c r="L9" s="57" t="s">
         <v>511</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>515</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>512</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q9" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="O9" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>514</v>
-      </c>
       <c r="R9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T9" s="57" t="s">
         <v>13</v>
@@ -4485,17 +4533,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>16</v>
@@ -4504,22 +4552,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L10" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="M10" s="57" t="s">
         <v>342</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>343</v>
       </c>
       <c r="N10" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P10" s="57"/>
       <c r="Q10" s="57">
@@ -4529,7 +4577,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T10" s="57" t="s">
         <v>13</v>
@@ -4576,10 +4624,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>16</v>
@@ -4588,22 +4636,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L11" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="M11" s="57" t="s">
         <v>342</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>343</v>
       </c>
       <c r="N11" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P11" s="57"/>
       <c r="Q11" s="57">
@@ -4613,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T11" s="57" t="s">
         <v>13</v>
@@ -4653,7 +4701,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>32</v>
@@ -4662,44 +4710,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>398</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>399</v>
       </c>
       <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="J12" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="K12" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="L12" s="57" t="s">
         <v>402</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>403</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="O12" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="P12" s="57" t="s">
         <v>405</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="Q12" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="Q12" s="56" t="s">
-        <v>407</v>
-      </c>
       <c r="R12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T12" s="57" t="s">
         <v>13</v>
@@ -4739,17 +4787,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>345</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>346</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>16</v>
@@ -4758,22 +4806,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L13" s="64">
         <v>8433</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N13" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P13" s="57"/>
       <c r="Q13" s="56" t="s">
@@ -4783,7 +4831,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T13" s="57" t="s">
         <v>13</v>
@@ -4817,10 +4865,10 @@
     </row>
     <row r="14" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -4828,7 +4876,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G14" s="56" t="s">
         <v>26</v>
@@ -4843,10 +4891,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="L14" s="56" t="s">
         <v>542</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>543</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="56" t="s">
@@ -4856,7 +4904,7 @@
         <v>20</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q14" s="68" t="s">
         <v>0</v>
@@ -4865,16 +4913,16 @@
         <v>19</v>
       </c>
       <c r="S14" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T14" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="U14" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="U14" s="57" t="s">
-        <v>476</v>
-      </c>
       <c r="V14" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W14" s="56" t="s">
         <v>21</v>
@@ -4884,19 +4932,19 @@
       </c>
       <c r="Y14" s="57"/>
       <c r="Z14" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA14" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="AA14" s="57" t="s">
+      <c r="AB14" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AB14" s="57" t="s">
+      <c r="AC14" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="AC14" s="57" t="s">
+      <c r="AD14" s="57" t="s">
         <v>480</v>
-      </c>
-      <c r="AD14" s="57" t="s">
-        <v>481</v>
       </c>
       <c r="AE14" s="56"/>
       <c r="AF14" s="56"/>
@@ -4968,162 +5016,311 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.5703125" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="9.140625" style="73" collapsed="1"/>
+    <col min="8" max="8" width="11" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" style="73" customWidth="1" collapsed="1"/>
+    <col min="10" max="14" width="9.140625" style="73" collapsed="1"/>
+    <col min="15" max="15" width="11" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="74" collapsed="1"/>
+    <col min="17" max="17" width="9.140625" style="73" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="73"/>
+    <col min="19" max="16384" width="9.140625" style="73" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="P1" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q1" s="70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="Q2" s="70"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="Q3" s="70"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="Q4" s="70"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>565</v>
+      </c>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="70"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q6" s="70"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="Q7" s="70"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="Q8" s="70"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="Q9" s="70"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="Q10" s="70"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="70"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="Q12" s="70"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="Q13" s="70"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="Q14" s="70"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="Q15" s="70"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="Q16" s="70"/>
+    </row>
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="Q17" s="70"/>
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="Q18" s="70"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="Q19" s="70"/>
+    </row>
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="Q20" s="70"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="70"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="Q22" s="70"/>
+    </row>
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="76"/>
+      <c r="C23" s="78" t="s">
+        <v>568</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>569</v>
+      </c>
+      <c r="E23" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>530</v>
+      </c>
+      <c r="I23" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="N23" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="70"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="Q24" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5154,55 +5351,55 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -5235,13 +5432,13 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5274,13 +5471,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5325,49 +5522,49 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="4"/>
     </row>
@@ -5412,7 +5609,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -5432,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -5462,7 +5659,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -5478,18 +5675,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="19.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="18" collapsed="1"/>
+    <col min="1" max="1" width="47" style="53" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" style="53" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.140625" style="53" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="53" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="19.85546875" style="53" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.7109375" style="53" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="53" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5497,10 +5694,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>293</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>48</v>
@@ -5517,18 +5714,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>525</v>
+        <v>211</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>524</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
-        <v>526</v>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>525</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>55</v>
@@ -5536,22 +5733,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" s="54">
+        <v>32246</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>525</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" s="33">
-        <v>32246</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>526</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>55</v>
@@ -5559,18 +5756,18 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="33" t="s">
-        <v>528</v>
+      <c r="F4" s="54" t="s">
+        <v>527</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>55</v>
@@ -5578,18 +5775,18 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="33">
+        <v>526</v>
+      </c>
+      <c r="E5" s="54">
         <v>32246</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>526</v>
+      <c r="F5" s="54" t="s">
+        <v>525</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>55</v>
@@ -5597,10 +5794,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
@@ -5614,20 +5811,30 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+        <v>216</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" s="54">
+        <v>32246</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>525</v>
+      </c>
       <c r="G7" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -5640,7 +5847,7 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -5653,7 +5860,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -5666,7 +5873,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -5679,7 +5886,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -5695,9 +5902,10 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5724,19 +5932,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5769,13 +5977,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5816,7 +6024,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>82</v>
@@ -5828,13 +6036,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -5865,10 +6073,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>293</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>55</v>
@@ -5876,7 +6084,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -5884,10 +6092,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
@@ -5896,10 +6104,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -5908,10 +6116,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
@@ -5950,10 +6158,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>293</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>55</v>
@@ -5961,7 +6169,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -5969,10 +6177,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
@@ -5981,10 +6189,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -5993,10 +6201,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
@@ -6037,7 +6245,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6079,31 +6287,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6111,13 +6319,13 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D5" s="32"/>
     </row>
@@ -6151,13 +6359,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>362</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>363</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>55</v>
@@ -6165,22 +6373,22 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>368</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>369</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -6216,7 +6424,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6302,7 +6510,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6344,7 +6552,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>82</v>
@@ -6356,19 +6564,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>376</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>377</v>
       </c>
       <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -6403,37 +6611,37 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="4"/>
     </row>
@@ -6445,7 +6653,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -6466,7 +6674,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6483,13 +6691,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>293</v>
-      </c>
       <c r="D1" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -6497,76 +6705,76 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -6606,19 +6814,19 @@
         <v>40</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>537</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>538</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>56</v>
@@ -6630,10 +6838,10 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>539</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>540</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -6657,7 +6865,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -6706,10 +6914,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>293</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>48</v>
@@ -6718,16 +6926,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>326</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>327</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>1</v>
@@ -6769,7 +6977,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X1" s="35" t="s">
         <v>12</v>
@@ -6787,7 +6995,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD1" s="30" t="s">
         <v>56</v>
@@ -6798,7 +7006,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>13</v>
@@ -6836,13 +7044,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="21">
         <v>35204</v>
@@ -6855,35 +7063,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>354</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>355</v>
       </c>
       <c r="N3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>356</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>357</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="U3" s="24" t="s">
         <v>358</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>359</v>
       </c>
       <c r="V3" s="24">
         <v>35204</v>
@@ -6892,7 +7100,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y3" s="21" t="s">
         <v>13</v>
@@ -6916,7 +7124,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>13</v>
@@ -6954,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>13</v>
@@ -6992,7 +7200,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>13</v>
@@ -7030,7 +7238,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -7068,13 +7276,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>0</v>
@@ -7110,7 +7318,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>13</v>
@@ -7148,16 +7356,16 @@
         <v>91</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>465</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>466</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -7190,7 +7398,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>13</v>
@@ -7198,16 +7406,16 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="I11" s="21" t="s">
         <v>330</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>331</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -7236,7 +7444,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>13</v>
@@ -7311,28 +7519,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>293</v>
-      </c>
       <c r="F1" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>374</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>375</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>23</v>
@@ -7349,13 +7557,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="37" t="s">
         <v>377</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>378</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>13</v>
@@ -7379,13 +7587,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>377</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>378</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>13</v>
@@ -7406,43 +7614,43 @@
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="37" t="s">
         <v>377</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>378</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="J4" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="K4" s="31" t="s">
         <v>384</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>385</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N4" s="30"/>
     </row>
@@ -7490,10 +7698,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>292</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>293</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
@@ -7502,22 +7710,22 @@
         <v>44</v>
       </c>
       <c r="H1" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>471</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>472</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>56</v>
@@ -7528,22 +7736,22 @@
         <v>86</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="37" t="s">
         <v>377</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>378</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>13</v>
@@ -7557,41 +7765,41 @@
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>377</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>378</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>475</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>476</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>480</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>481</v>
       </c>
       <c r="N3" s="30"/>
     </row>
@@ -7618,13 +7826,13 @@
         <v>84</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="37" t="s">
         <v>377</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>378</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>13</v>
@@ -7722,7 +7930,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M1" s="41" t="s">
         <v>7</v>
@@ -7743,13 +7951,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V1" s="41" t="s">
         <v>22</v>
@@ -7781,7 +7989,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>32</v>
@@ -7790,48 +7998,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="K2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>486</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="K2" t="s">
-        <v>533</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>487</v>
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P2" s="39"/>
       <c r="Q2" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
         <v>490</v>
       </c>
-      <c r="S2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>491</v>
-      </c>
       <c r="U2" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>13</v>
@@ -7859,37 +8067,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F3" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="I3" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="K3" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>459</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>460</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="39" t="s">
@@ -7897,16 +8105,16 @@
       </c>
       <c r="P3" s="39"/>
       <c r="Q3" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R3" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>461</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>462</v>
       </c>
       <c r="U3" s="38"/>
       <c r="V3" s="39" t="s">
@@ -7935,7 +8143,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>32</v>
@@ -7944,47 +8152,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>432</v>
-      </c>
       <c r="H4" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>430</v>
-      </c>
       <c r="K4" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="L4" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="M4" s="38" t="s">
+      <c r="N4" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>436</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="39"/>
       <c r="Q4" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U4" s="38"/>
       <c r="V4" s="39" t="s">
@@ -8013,7 +8221,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>32</v>
@@ -8022,28 +8230,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>438</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>439</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J5" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="M5" s="38" t="s">
         <v>441</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>442</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="38" t="s">
@@ -8051,16 +8259,16 @@
       </c>
       <c r="P5" s="39"/>
       <c r="Q5" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R5" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="38" t="s">
         <v>443</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>444</v>
       </c>
       <c r="U5" s="38"/>
       <c r="V5" s="39" t="s">
@@ -8164,7 +8372,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>12</v>
@@ -8199,7 +8407,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>15</v>
@@ -8220,7 +8428,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>27</v>
@@ -8240,7 +8448,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>13</v>
@@ -8303,7 +8511,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>15</v>
@@ -8324,7 +8532,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>27</v>
@@ -8344,7 +8552,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>13</v>
@@ -8366,19 +8574,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>26</v>
@@ -8393,7 +8601,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>27</v>
@@ -8406,7 +8614,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>0</v>
@@ -8415,7 +8623,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>13</v>
@@ -8437,17 +8645,17 @@
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>529</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>530</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>26</v>
@@ -8462,7 +8670,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>27</v>
@@ -8475,7 +8683,7 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>0</v>
@@ -8484,7 +8692,7 @@
         <v>19</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="571">
   <si>
     <t>32256</t>
   </si>
@@ -2304,7 +2304,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3161,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6674,7 +6674,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6895,7 +6895,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,8 +7005,8 @@
       <c r="A2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>349</v>
+      <c r="B2" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>13</v>
@@ -7485,9 +7485,10 @@
     <hyperlink ref="B8" r:id="rId4"/>
     <hyperlink ref="B4" r:id="rId5"/>
     <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7669,8 +7670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7687,7 +7688,7 @@
     <col min="11" max="16384" width="9.140625" style="18" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
@@ -7731,15 +7732,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>376</v>
+      <c r="B2" s="31">
+        <v>7734122379</v>
+      </c>
+      <c r="C2" s="31">
+        <v>60004</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>377</v>
@@ -7763,15 +7764,15 @@
       <c r="M2" s="34"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>376</v>
+      <c r="B3" s="31">
+        <v>7734122379</v>
+      </c>
+      <c r="C3" s="31">
+        <v>60004</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>377</v>
@@ -7807,10 +7808,18 @@
       <c r="A4" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="33">
+        <v>7734122379</v>
+      </c>
+      <c r="C4" s="33">
+        <v>60004</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -7825,11 +7834,11 @@
       <c r="A5" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>376</v>
+      <c r="B5" s="31">
+        <v>7734122379</v>
+      </c>
+      <c r="C5" s="31">
+        <v>60004</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>377</v>
@@ -7848,13 +7857,8 @@
       <c r="N5" s="33"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="753" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="597">
   <si>
     <t>32256</t>
   </si>
@@ -647,9 +647,6 @@
     <t>TC011_Validate_the_error_message_if_customer_enter_invalid_EMAIL_verification_code_for_third_time</t>
   </si>
   <si>
-    <t>TC012_Verify_that_customer_is_not_able_to_enter_characters_or_special_characters_in_SMS_verification_label_text_box.</t>
-  </si>
-  <si>
     <t>TC013_Validate_the_blocked_list_of_email_domains_should_not_be_allowed.</t>
   </si>
   <si>
@@ -1764,6 +1761,90 @@
   </si>
   <si>
     <t>8798474645</t>
+  </si>
+  <si>
+    <t>Add_An_Item</t>
+  </si>
+  <si>
+    <t>milkybar5</t>
+  </si>
+  <si>
+    <t>milkybar6</t>
+  </si>
+  <si>
+    <t>milkybar7</t>
+  </si>
+  <si>
+    <t>milkybar8</t>
+  </si>
+  <si>
+    <t>milkybar9</t>
+  </si>
+  <si>
+    <t>milkybar10</t>
+  </si>
+  <si>
+    <t>milkybar11</t>
+  </si>
+  <si>
+    <t>milkybar12</t>
+  </si>
+  <si>
+    <t>milkybar13</t>
+  </si>
+  <si>
+    <t>inv_Code</t>
+  </si>
+  <si>
+    <t>err_Code</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3104172595530235
+</t>
+  </si>
+  <si>
+    <t>Hug</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>74654654</t>
+  </si>
+  <si>
+    <t>765354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3104171495018259
+</t>
+  </si>
+  <si>
+    <t>abraham</t>
+  </si>
+  <si>
+    <t>655640</t>
+  </si>
+  <si>
+    <t>568758</t>
+  </si>
+  <si>
+    <t>435456</t>
+  </si>
+  <si>
+    <t>TC012_Verify_that_customer_is_not_able_to_enter_characters_or_special_characters_in_SMS_verification_label_text_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3104171373859816
+</t>
+  </si>
+  <si>
+    <t>Marketa</t>
+  </si>
+  <si>
+    <t>%&amp;%Fn</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1877,12 +1958,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2020,6 +2114,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2304,7 +2404,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,7 +2444,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -2367,7 +2467,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2390,7 +2490,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2413,7 +2513,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2436,7 +2536,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2459,7 +2559,7 @@
         <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2482,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2505,7 +2605,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2528,7 +2628,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2551,7 +2651,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2574,7 +2674,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2597,7 +2697,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2620,7 +2720,7 @@
         <v>132</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2643,7 +2743,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2666,7 +2766,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2689,7 +2789,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2712,7 +2812,7 @@
         <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2735,7 +2835,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2758,7 +2858,7 @@
         <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2781,7 +2881,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2804,7 +2904,7 @@
         <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2827,7 +2927,7 @@
         <v>140</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2850,7 +2950,7 @@
         <v>141</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2873,7 +2973,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2896,7 +2996,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -2919,7 +3019,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -2939,10 +3039,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -2965,7 +3065,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -2988,7 +3088,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -3011,7 +3111,7 @@
         <v>115</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -3034,7 +3134,7 @@
         <v>117</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -3057,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -3186,13 +3286,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3200,12 +3300,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3215,12 +3315,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3230,7 +3330,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3239,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3249,7 +3349,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3264,7 +3364,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3350,28 +3450,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" t="s">
         <v>316</v>
       </c>
-      <c r="F2" t="s">
-        <v>317</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
@@ -3449,7 +3549,7 @@
         <v>152</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3467,7 +3567,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3485,7 +3585,7 @@
         <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3503,7 +3603,7 @@
         <v>155</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3521,7 +3621,7 @@
         <v>156</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3539,7 +3639,7 @@
         <v>157</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3557,7 +3657,7 @@
         <v>158</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3575,7 +3675,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3593,7 +3693,7 @@
         <v>160</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3611,7 +3711,7 @@
         <v>161</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3629,7 +3729,7 @@
         <v>162</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3647,7 +3747,7 @@
         <v>163</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3665,7 +3765,7 @@
         <v>164</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3683,7 +3783,7 @@
         <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3701,7 +3801,7 @@
         <v>167</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3719,7 +3819,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3850,7 +3950,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S1" s="58" t="s">
         <v>12</v>
@@ -3871,40 +3971,40 @@
         <v>59</v>
       </c>
       <c r="Y1" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z1" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="AA1" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AB1" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AC1" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AD1" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="AD1" s="58" t="s">
-        <v>471</v>
-      </c>
       <c r="AE1" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF1" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="AF1" s="59" t="s">
+      <c r="AG1" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AH1" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="AH1" s="58" t="s">
+      <c r="AI1" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="AI1" s="58" t="s">
+      <c r="AJ1" s="59" t="s">
         <v>373</v>
-      </c>
-      <c r="AJ1" s="59" t="s">
-        <v>374</v>
       </c>
       <c r="AK1" s="58" t="s">
         <v>56</v>
@@ -3921,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>32</v>
@@ -3930,44 +4030,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G2" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="I2" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="J2" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>390</v>
-      </c>
       <c r="K2" s="65" t="s">
+        <v>334</v>
+      </c>
+      <c r="L2" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="M2" s="57" t="s">
         <v>336</v>
-      </c>
-      <c r="M2" s="57" t="s">
-        <v>337</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="R2" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="57" t="s">
         <v>339</v>
-      </c>
-      <c r="R2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="57" t="s">
-        <v>340</v>
       </c>
       <c r="T2" s="57" t="s">
         <v>13</v>
@@ -4007,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>32</v>
@@ -4016,44 +4116,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="57" t="s">
         <v>416</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="H3" s="57" t="s">
         <v>417</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="I3" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="J3" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="K3" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="L3" s="57" t="s">
         <v>421</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>422</v>
       </c>
       <c r="M3" s="57"/>
       <c r="N3" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="O3" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="P3" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="Q3" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="R3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="61" t="s">
         <v>426</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>427</v>
       </c>
       <c r="T3" s="57" t="s">
         <v>13</v>
@@ -4093,53 +4193,53 @@
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F4" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>495</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>496</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="K4" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="L4" s="57" t="s">
         <v>498</v>
-      </c>
-      <c r="K4" s="65" t="s">
-        <v>505</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>499</v>
       </c>
       <c r="M4" s="57"/>
       <c r="N4" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O4" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="P4" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="61" t="s">
         <v>502</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>504</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>503</v>
       </c>
       <c r="T4" s="57" t="s">
         <v>13</v>
@@ -4176,7 +4276,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="56"/>
@@ -4220,7 +4320,7 @@
         <v>126</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -4228,7 +4328,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>26</v>
@@ -4243,10 +4343,10 @@
         <v>18</v>
       </c>
       <c r="K6" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>541</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>542</v>
       </c>
       <c r="M6" s="56"/>
       <c r="N6" s="56" t="s">
@@ -4256,7 +4356,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q6" s="68" t="s">
         <v>0</v>
@@ -4265,13 +4365,13 @@
         <v>19</v>
       </c>
       <c r="S6" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T6" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="U6" s="57" t="s">
         <v>474</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>475</v>
       </c>
       <c r="V6" s="56"/>
       <c r="W6" s="56"/>
@@ -4280,19 +4380,19 @@
       </c>
       <c r="Y6" s="57"/>
       <c r="Z6" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA6" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="AA6" s="57" t="s">
+      <c r="AB6" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="AB6" s="57" t="s">
+      <c r="AC6" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AD6" s="57" t="s">
         <v>479</v>
-      </c>
-      <c r="AD6" s="57" t="s">
-        <v>480</v>
       </c>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -4308,7 +4408,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -4355,47 +4455,47 @@
         <v>14</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>545</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="H8" s="56" t="s">
         <v>546</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="I8" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="J8" s="56" t="s">
         <v>548</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="K8" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="K8" s="66" t="s">
-        <v>550</v>
-      </c>
       <c r="L8" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M8" s="56"/>
       <c r="N8" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="O8" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="P8" s="56" t="s">
         <v>552</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="Q8" s="68" t="s">
         <v>553</v>
-      </c>
-      <c r="Q8" s="68" t="s">
-        <v>554</v>
       </c>
       <c r="R8" s="56" t="s">
         <v>19</v>
@@ -4407,7 +4507,7 @@
         <v>21</v>
       </c>
       <c r="W8" s="56" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="X8" s="57" t="s">
         <v>19</v>
@@ -4419,22 +4519,22 @@
       <c r="AC8" s="57"/>
       <c r="AD8" s="57"/>
       <c r="AE8" s="56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF8" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG8" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="AH8" s="56" t="s">
         <v>555</v>
       </c>
-      <c r="AG8" s="56" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH8" s="56" t="s">
+      <c r="AI8" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
         <v>556</v>
-      </c>
-      <c r="AI8" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ8" s="56" t="s">
-        <v>557</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="58"/>
@@ -4456,44 +4556,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>508</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="I9" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="I9" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="J9" s="56" t="s">
+      <c r="K9" s="65" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" s="57" t="s">
         <v>510</v>
-      </c>
-      <c r="K9" s="65" t="s">
-        <v>514</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>511</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q9" s="56" t="s">
         <v>512</v>
       </c>
-      <c r="O9" s="57" t="s">
-        <v>338</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>513</v>
-      </c>
       <c r="R9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T9" s="57" t="s">
         <v>13</v>
@@ -4533,17 +4633,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>16</v>
@@ -4552,22 +4652,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L10" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="M10" s="57" t="s">
         <v>341</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>342</v>
       </c>
       <c r="N10" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P10" s="57"/>
       <c r="Q10" s="57">
@@ -4577,7 +4677,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T10" s="57" t="s">
         <v>13</v>
@@ -4624,10 +4724,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>16</v>
@@ -4636,22 +4736,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L11" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="M11" s="57" t="s">
         <v>341</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>342</v>
       </c>
       <c r="N11" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P11" s="57"/>
       <c r="Q11" s="57">
@@ -4661,7 +4761,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="61" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T11" s="57" t="s">
         <v>13</v>
@@ -4701,7 +4801,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>32</v>
@@ -4710,44 +4810,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="57" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="57" t="s">
         <v>397</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>398</v>
       </c>
       <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J12" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="K12" s="65" t="s">
         <v>400</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="L12" s="57" t="s">
         <v>401</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>402</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="O12" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="P12" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="Q12" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="Q12" s="56" t="s">
-        <v>406</v>
-      </c>
       <c r="R12" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T12" s="57" t="s">
         <v>13</v>
@@ -4787,17 +4887,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>344</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>345</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>16</v>
@@ -4806,22 +4906,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L13" s="64">
         <v>8433</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N13" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P13" s="57"/>
       <c r="Q13" s="56" t="s">
@@ -4831,7 +4931,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T13" s="57" t="s">
         <v>13</v>
@@ -4865,10 +4965,10 @@
     </row>
     <row r="14" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -4876,7 +4976,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G14" s="56" t="s">
         <v>26</v>
@@ -4891,10 +4991,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L14" s="56" t="s">
         <v>541</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>542</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="56" t="s">
@@ -4904,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="68" t="s">
         <v>0</v>
@@ -4913,16 +5013,16 @@
         <v>19</v>
       </c>
       <c r="S14" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T14" s="56" t="s">
+        <v>473</v>
+      </c>
+      <c r="U14" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="U14" s="57" t="s">
-        <v>475</v>
-      </c>
       <c r="V14" s="56" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W14" s="56" t="s">
         <v>21</v>
@@ -4932,19 +5032,19 @@
       </c>
       <c r="Y14" s="57"/>
       <c r="Z14" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA14" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="AA14" s="57" t="s">
+      <c r="AB14" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="AB14" s="57" t="s">
+      <c r="AC14" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="AC14" s="57" t="s">
+      <c r="AD14" s="57" t="s">
         <v>479</v>
-      </c>
-      <c r="AD14" s="57" t="s">
-        <v>480</v>
       </c>
       <c r="AE14" s="56"/>
       <c r="AF14" s="56"/>
@@ -5080,10 +5180,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q1" s="70" t="s">
         <v>55</v>
@@ -5113,48 +5213,48 @@
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>561</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>562</v>
-      </c>
       <c r="E5" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>428</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>429</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>563</v>
       </c>
-      <c r="J5" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="K5" s="56" t="s">
+      <c r="L5" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="O5" s="56" t="s">
         <v>564</v>
-      </c>
-      <c r="L5" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>565</v>
       </c>
       <c r="P5" s="56"/>
       <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Q6" s="70"/>
     </row>
@@ -5193,7 +5293,7 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
       <c r="H11" s="56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
@@ -5277,10 +5377,10 @@
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="78" t="s">
+        <v>567</v>
+      </c>
+      <c r="D23" s="78" t="s">
         <v>568</v>
-      </c>
-      <c r="D23" s="78" t="s">
-        <v>569</v>
       </c>
       <c r="E23" s="78" t="s">
         <v>16</v>
@@ -5292,7 +5392,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="78" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I23" s="76" t="s">
         <v>27</v>
@@ -5305,13 +5405,13 @@
         <v>20</v>
       </c>
       <c r="M23" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N23" s="78" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="78" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P23" s="78"/>
       <c r="Q23" s="70"/>
@@ -5330,78 +5430,243 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.5703125" style="53" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="48" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="48" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="17.28515625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="53" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>585</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>590</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5432,13 +5697,13 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5471,13 +5736,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5522,49 +5787,49 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="4"/>
     </row>
@@ -5609,7 +5874,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -5629,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -5659,7 +5924,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -5694,10 +5959,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>292</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>48</v>
@@ -5714,10 +5979,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
@@ -5725,7 +5990,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
       <c r="F2" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>55</v>
@@ -5733,22 +5998,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E3" s="54">
         <v>32246</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>55</v>
@@ -5756,10 +6021,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -5767,7 +6032,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>55</v>
@@ -5775,18 +6040,18 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E5" s="54">
         <v>32246</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>55</v>
@@ -5794,10 +6059,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
@@ -5811,22 +6076,22 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E7" s="54">
         <v>32246</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>55</v>
@@ -5834,7 +6099,7 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -5847,7 +6112,7 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -5860,7 +6125,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -5873,7 +6138,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -5886,7 +6151,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -5932,19 +6197,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5977,13 +6242,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -6024,7 +6289,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>82</v>
@@ -6036,13 +6301,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -6073,10 +6338,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>292</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>55</v>
@@ -6084,7 +6349,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6092,10 +6357,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
@@ -6104,10 +6369,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -6116,10 +6381,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
@@ -6158,10 +6423,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>292</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>55</v>
@@ -6169,7 +6434,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6177,10 +6442,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
@@ -6189,10 +6454,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -6201,10 +6466,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
@@ -6245,7 +6510,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6287,31 +6552,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6319,13 +6584,13 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D5" s="32"/>
     </row>
@@ -6359,13 +6624,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>361</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>362</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>55</v>
@@ -6373,22 +6638,22 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -6424,7 +6689,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6510,7 +6775,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6552,7 +6817,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>82</v>
@@ -6564,19 +6829,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>375</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>376</v>
       </c>
       <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -6590,82 +6855,216 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -6674,7 +7073,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6691,13 +7090,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>292</v>
-      </c>
       <c r="D1" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -6705,76 +7104,76 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -6814,19 +7213,19 @@
         <v>40</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>534</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>536</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>537</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>56</v>
@@ -6838,10 +7237,10 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>538</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>539</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -6865,7 +7264,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -6914,10 +7313,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>292</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>48</v>
@@ -6926,16 +7325,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>325</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>326</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>1</v>
@@ -6977,7 +7376,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X1" s="35" t="s">
         <v>12</v>
@@ -6995,7 +7394,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD1" s="30" t="s">
         <v>56</v>
@@ -7006,7 +7405,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>13</v>
@@ -7044,13 +7443,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="21">
         <v>35204</v>
@@ -7063,35 +7462,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>353</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>354</v>
       </c>
       <c r="N3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>355</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>356</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="U3" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>358</v>
       </c>
       <c r="V3" s="24">
         <v>35204</v>
@@ -7100,7 +7499,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y3" s="21" t="s">
         <v>13</v>
@@ -7124,7 +7523,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>13</v>
@@ -7162,7 +7561,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>13</v>
@@ -7200,7 +7599,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>13</v>
@@ -7238,7 +7637,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -7276,13 +7675,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>0</v>
@@ -7318,7 +7717,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>13</v>
@@ -7356,16 +7755,16 @@
         <v>91</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>464</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>465</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -7398,7 +7797,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>13</v>
@@ -7406,16 +7805,16 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="I11" s="21" t="s">
         <v>329</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>330</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -7444,7 +7843,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>13</v>
@@ -7520,28 +7919,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>292</v>
-      </c>
       <c r="F1" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>373</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>374</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>23</v>
@@ -7558,13 +7957,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="37" t="s">
         <v>376</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>377</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>13</v>
@@ -7588,13 +7987,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>376</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>377</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>13</v>
@@ -7615,43 +8014,43 @@
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="37" t="s">
         <v>376</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>377</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="J4" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="K4" s="31" t="s">
         <v>383</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>384</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N4" s="30"/>
     </row>
@@ -7670,8 +8069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7699,10 +8098,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>291</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>292</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
@@ -7711,22 +8110,22 @@
         <v>44</v>
       </c>
       <c r="H1" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>470</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>471</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>56</v>
@@ -7743,16 +8142,16 @@
         <v>60004</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>13</v>
@@ -7766,7 +8165,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="31">
         <v>7734122379</v>
@@ -7775,32 +8174,32 @@
         <v>60004</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>474</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>475</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>479</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>480</v>
       </c>
       <c r="N3" s="30"/>
     </row>
@@ -7815,7 +8214,7 @@
         <v>60004</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>13</v>
@@ -7841,7 +8240,7 @@
         <v>60004</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>13</v>
@@ -7934,7 +8333,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M1" s="41" t="s">
         <v>7</v>
@@ -7955,13 +8354,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V1" s="41" t="s">
         <v>22</v>
@@ -7993,7 +8392,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>32</v>
@@ -8002,48 +8401,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="K2" t="s">
+        <v>531</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>485</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="K2" t="s">
-        <v>532</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>486</v>
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P2" s="39"/>
       <c r="Q2" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
         <v>489</v>
       </c>
-      <c r="S2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>490</v>
-      </c>
       <c r="U2" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>13</v>
@@ -8071,37 +8470,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F3" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="I3" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="K3" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>458</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>459</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="39" t="s">
@@ -8109,16 +8508,16 @@
       </c>
       <c r="P3" s="39"/>
       <c r="Q3" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R3" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="38" t="s">
         <v>460</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>461</v>
       </c>
       <c r="U3" s="38"/>
       <c r="V3" s="39" t="s">
@@ -8147,7 +8546,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>32</v>
@@ -8156,47 +8555,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>431</v>
-      </c>
       <c r="H4" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>429</v>
-      </c>
       <c r="K4" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="M4" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="L4" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="M4" s="38" t="s">
+      <c r="N4" s="38" t="s">
         <v>434</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>435</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="39"/>
       <c r="Q4" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U4" s="38"/>
       <c r="V4" s="39" t="s">
@@ -8225,7 +8624,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>32</v>
@@ -8234,28 +8633,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>437</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J5" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L5" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="M5" s="38" t="s">
         <v>440</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>441</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="38" t="s">
@@ -8263,16 +8662,16 @@
       </c>
       <c r="P5" s="39"/>
       <c r="Q5" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R5" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="38" t="s">
         <v>442</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>443</v>
       </c>
       <c r="U5" s="38"/>
       <c r="V5" s="39" t="s">
@@ -8376,7 +8775,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>12</v>
@@ -8411,7 +8810,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>15</v>
@@ -8432,7 +8831,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>27</v>
@@ -8452,7 +8851,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>13</v>
@@ -8515,7 +8914,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>15</v>
@@ -8536,7 +8935,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>27</v>
@@ -8556,7 +8955,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>13</v>
@@ -8578,19 +8977,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>26</v>
@@ -8605,7 +9004,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>27</v>
@@ -8618,7 +9017,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>0</v>
@@ -8627,7 +9026,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>13</v>
@@ -8649,17 +9048,17 @@
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>26</v>
@@ -8674,7 +9073,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>27</v>
@@ -8687,7 +9086,7 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>0</v>
@@ -8696,7 +9095,7 @@
         <v>19</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="634">
   <si>
     <t>32256</t>
   </si>
@@ -464,15 +464,6 @@
     <t>TC021_Specialcharacters_apostrophe,Dash</t>
   </si>
   <si>
-    <t>TC001_AcctLookup_EnterPhoneNumber</t>
-  </si>
-  <si>
-    <t>TC002_AcctLookup_EnterCardNumber</t>
-  </si>
-  <si>
-    <t>TC013_AcctLookup_EnterCRCNumber</t>
-  </si>
-  <si>
     <t>User_Status_After_SoftLogin</t>
   </si>
   <si>
@@ -650,33 +641,18 @@
     <t>TC013_Validate_the_blocked_list_of_email_domains_should_not_be_allowed.</t>
   </si>
   <si>
-    <t>TC001_Enrollment_DataPersistency__ActiveSession</t>
-  </si>
-  <si>
-    <t>TC002_Enrollment_DataPersistency__ClosetheBrower</t>
-  </si>
-  <si>
     <t>TC001_Fuelperks_locator_Search_with_ZIP</t>
   </si>
   <si>
     <t>TC002_Fuelperks_locator_Search_with_city_and_state</t>
   </si>
   <si>
-    <t>TC003_Verify_Get_started_with_SEG_rewards_button_is_enabled</t>
-  </si>
-  <si>
     <t>TC004_Validate_the_error_message_for_invalid_phone_number</t>
   </si>
   <si>
     <t>TC005_Validate_the_error_message_for_invalid_card_number</t>
   </si>
   <si>
-    <t>TC008_Verify_the_phone_number_validation_for_NPA_code</t>
-  </si>
-  <si>
-    <t>TC010_Verify_the_phone_number_validation_for_Subscriber_number</t>
-  </si>
-  <si>
     <t>TC011_Verify_the_error_message_if_NPA_number_range_format_is_invalid</t>
   </si>
   <si>
@@ -810,9 +786,6 @@
   </si>
   <si>
     <t>TC03_Remove_items_from_the_list_My_Shopping_List</t>
-  </si>
-  <si>
-    <t>TC-009_Verify_the_phone_number_validation_for_Central_Office_Code</t>
   </si>
   <si>
     <t>executableClass.SoftLogin</t>
@@ -1845,6 +1818,144 @@
   </si>
   <si>
     <t>%&amp;%Fn</t>
+  </si>
+  <si>
+    <t>TC001_Enrollment_DataPersistency_ActiveSession</t>
+  </si>
+  <si>
+    <t>3104171495010629</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Pinkman</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>9988776614</t>
+  </si>
+  <si>
+    <t>mountain view</t>
+  </si>
+  <si>
+    <t>mcity</t>
+  </si>
+  <si>
+    <t>74125</t>
+  </si>
+  <si>
+    <t>jesse@mailinator.com</t>
+  </si>
+  <si>
+    <t>TC002_Enrollment_DataPersistency_ClosetheBrower</t>
+  </si>
+  <si>
+    <t>Edit_Item_Name</t>
+  </si>
+  <si>
+    <t>Edit_QTY</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>milka</t>
+  </si>
+  <si>
+    <t>ValidInputNumber_1</t>
+  </si>
+  <si>
+    <t>ValidInputNumber_2</t>
+  </si>
+  <si>
+    <t>ValidInputNumber_3</t>
+  </si>
+  <si>
+    <t>InvalidInputNumber_1</t>
+  </si>
+  <si>
+    <t>InvalidInputNumber_2</t>
+  </si>
+  <si>
+    <t>PhoneNumberwithChars</t>
+  </si>
+  <si>
+    <t>PhoneNumberwithSplChars</t>
+  </si>
+  <si>
+    <t>AlreadyRegistered_CardNumber</t>
+  </si>
+  <si>
+    <t>InvalidFormat_CardNumber</t>
+  </si>
+  <si>
+    <t>WithChars_CardNumber</t>
+  </si>
+  <si>
+    <t>Morethe16Digits_CardNumber</t>
+  </si>
+  <si>
+    <t>0042052348</t>
+  </si>
+  <si>
+    <t>404202125</t>
+  </si>
+  <si>
+    <t>404202a4569</t>
+  </si>
+  <si>
+    <t>404202$4569</t>
+  </si>
+  <si>
+    <t>TC008_phoneNumberNPACode_Validation</t>
+  </si>
+  <si>
+    <t>2042021727</t>
+  </si>
+  <si>
+    <t>2092021727</t>
+  </si>
+  <si>
+    <t>2012021727</t>
+  </si>
+  <si>
+    <t>TC009_phoneNumberCentralOfficeCode_Validation</t>
+  </si>
+  <si>
+    <t>4042021727</t>
+  </si>
+  <si>
+    <t>TC010_phoneNumber_validation_for_Subscriber_number</t>
+  </si>
+  <si>
+    <t>1042052348</t>
+  </si>
+  <si>
+    <t>4041053299</t>
+  </si>
+  <si>
+    <t>4040053299</t>
+  </si>
+  <si>
+    <t>3104170010076450</t>
+  </si>
+  <si>
+    <t>0004170010076450</t>
+  </si>
+  <si>
+    <t>31041700d0076450</t>
+  </si>
+  <si>
+    <t>31041700100764505</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2120,6 +2231,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2444,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>28</v>
@@ -2467,7 +2581,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>28</v>
@@ -2490,7 +2604,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -2513,7 +2627,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>28</v>
@@ -2536,7 +2650,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
@@ -2559,7 +2673,7 @@
         <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
@@ -2582,7 +2696,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2605,7 +2719,7 @@
         <v>100</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2628,7 +2742,7 @@
         <v>101</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2651,7 +2765,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -2674,7 +2788,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2697,7 +2811,7 @@
         <v>103</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2720,7 +2834,7 @@
         <v>132</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2743,7 +2857,7 @@
         <v>104</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2766,7 +2880,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>28</v>
@@ -2789,7 +2903,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>28</v>
@@ -2812,7 +2926,7 @@
         <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>28</v>
@@ -2835,7 +2949,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>28</v>
@@ -2858,7 +2972,7 @@
         <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>28</v>
@@ -2881,7 +2995,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>28</v>
@@ -2904,7 +3018,7 @@
         <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>28</v>
@@ -2924,10 +3038,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>28</v>
@@ -2947,10 +3061,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>28</v>
@@ -2973,7 +3087,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
@@ -2996,7 +3110,7 @@
         <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>28</v>
@@ -3019,7 +3133,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>28</v>
@@ -3039,10 +3153,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>28</v>
@@ -3065,7 +3179,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>28</v>
@@ -3088,7 +3202,7 @@
         <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>28</v>
@@ -3111,7 +3225,7 @@
         <v>115</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>28</v>
@@ -3134,7 +3248,7 @@
         <v>117</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -3157,7 +3271,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>28</v>
@@ -3210,13 +3324,13 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -3234,19 +3348,19 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" s="4"/>
     </row>
@@ -3286,13 +3400,13 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -3300,12 +3414,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3315,12 +3429,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -3330,7 +3444,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B4" s="6">
         <v>4049092155</v>
@@ -3339,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>13</v>
@@ -3349,7 +3463,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B5" s="6">
         <v>4049092155</v>
@@ -3364,7 +3478,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B6" s="6">
         <v>4049092155</v>
@@ -3444,41 +3558,41 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3512,7 +3626,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>65</v>
@@ -3546,10 +3660,10 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3564,10 +3678,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -3582,10 +3696,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3600,10 +3714,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3618,10 +3732,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3636,10 +3750,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3654,10 +3768,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -3672,10 +3786,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3690,10 +3804,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3708,10 +3822,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3726,10 +3840,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3744,10 +3858,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3762,10 +3876,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3780,10 +3894,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3798,10 +3912,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3816,10 +3930,10 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3950,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="S1" s="58" t="s">
         <v>12</v>
@@ -3971,40 +4085,40 @@
         <v>59</v>
       </c>
       <c r="Y1" s="58" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Z1" s="58" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AA1" s="58" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AB1" s="58" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AC1" s="58" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AD1" s="58" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AE1" s="59" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AF1" s="59" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="AG1" s="59" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AH1" s="58" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AI1" s="58" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AJ1" s="59" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AK1" s="58" t="s">
         <v>56</v>
@@ -4021,7 +4135,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>32</v>
@@ -4030,44 +4144,44 @@
         <v>15</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I2" s="57" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K2" s="65" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M2" s="57" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O2" s="57" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P2" s="57"/>
       <c r="Q2" s="56" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="R2" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S2" s="57" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="T2" s="57" t="s">
         <v>13</v>
@@ -4107,7 +4221,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>32</v>
@@ -4116,44 +4230,44 @@
         <v>15</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M3" s="57"/>
       <c r="N3" s="57" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="Q3" s="56" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="R3" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="61" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="T3" s="57" t="s">
         <v>13</v>
@@ -4193,53 +4307,53 @@
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="H4" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="L4" s="57" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M4" s="57"/>
       <c r="N4" s="62" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="P4" s="57" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="R4" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="61" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="T4" s="57" t="s">
         <v>13</v>
@@ -4276,7 +4390,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="56"/>
@@ -4320,7 +4434,7 @@
         <v>126</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -4328,7 +4442,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>26</v>
@@ -4343,10 +4457,10 @@
         <v>18</v>
       </c>
       <c r="K6" s="66" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M6" s="56"/>
       <c r="N6" s="56" t="s">
@@ -4356,7 +4470,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Q6" s="68" t="s">
         <v>0</v>
@@ -4365,13 +4479,13 @@
         <v>19</v>
       </c>
       <c r="S6" s="56" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="T6" s="56" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U6" s="57" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="V6" s="56"/>
       <c r="W6" s="56"/>
@@ -4380,19 +4494,19 @@
       </c>
       <c r="Y6" s="57"/>
       <c r="Z6" s="57" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AA6" s="57" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AB6" s="57" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AC6" s="57" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -4408,7 +4522,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -4455,47 +4569,47 @@
         <v>14</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K8" s="66" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M8" s="56"/>
       <c r="N8" s="56" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="O8" s="56" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P8" s="56" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="Q8" s="68" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="R8" s="56" t="s">
         <v>19</v>
@@ -4507,7 +4621,7 @@
         <v>21</v>
       </c>
       <c r="W8" s="56" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="X8" s="57" t="s">
         <v>19</v>
@@ -4519,22 +4633,22 @@
       <c r="AC8" s="57"/>
       <c r="AD8" s="57"/>
       <c r="AE8" s="56" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AF8" s="56" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AG8" s="56" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="AH8" s="56" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="AI8" s="56" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AJ8" s="56" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="AK8" s="58"/>
       <c r="AL8" s="58"/>
@@ -4556,44 +4670,44 @@
         <v>33</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K9" s="65" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="56" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="R9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="T9" s="57" t="s">
         <v>13</v>
@@ -4633,17 +4747,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>16</v>
@@ -4652,22 +4766,22 @@
         <v>17</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K10" s="65" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M10" s="57" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="N10" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P10" s="57"/>
       <c r="Q10" s="57">
@@ -4677,7 +4791,7 @@
         <v>19</v>
       </c>
       <c r="S10" s="57" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="T10" s="57" t="s">
         <v>13</v>
@@ -4724,10 +4838,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>16</v>
@@ -4736,22 +4850,22 @@
         <v>17</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L11" s="57" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M11" s="57" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="N11" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P11" s="57"/>
       <c r="Q11" s="57">
@@ -4761,7 +4875,7 @@
         <v>19</v>
       </c>
       <c r="S11" s="61" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="T11" s="57" t="s">
         <v>13</v>
@@ -4795,13 +4909,13 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>32</v>
@@ -4810,44 +4924,44 @@
         <v>15</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J12" s="57" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K12" s="65" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L12" s="57" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="57" t="s">
+        <v>393</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>394</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="61" t="s">
         <v>402</v>
-      </c>
-      <c r="O12" s="57" t="s">
-        <v>403</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>405</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" s="61" t="s">
-        <v>411</v>
       </c>
       <c r="T12" s="57" t="s">
         <v>13</v>
@@ -4881,23 +4995,23 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>16</v>
@@ -4906,22 +5020,22 @@
         <v>17</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L13" s="64">
         <v>8433</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="N13" s="57" t="s">
         <v>24</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P13" s="57"/>
       <c r="Q13" s="56" t="s">
@@ -4931,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="S13" s="61" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="T13" s="57" t="s">
         <v>13</v>
@@ -4965,10 +5079,10 @@
     </row>
     <row r="14" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -4976,7 +5090,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G14" s="56" t="s">
         <v>26</v>
@@ -4991,10 +5105,10 @@
         <v>18</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L14" s="56" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M14" s="56"/>
       <c r="N14" s="56" t="s">
@@ -5004,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="68" t="s">
         <v>0</v>
@@ -5013,16 +5127,16 @@
         <v>19</v>
       </c>
       <c r="S14" s="56" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="T14" s="56" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="U14" s="57" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="V14" s="56" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="W14" s="56" t="s">
         <v>21</v>
@@ -5032,19 +5146,19 @@
       </c>
       <c r="Y14" s="57"/>
       <c r="Z14" s="57" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AA14" s="57" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AB14" s="57" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AC14" s="57" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AD14" s="57" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AE14" s="56"/>
       <c r="AF14" s="56"/>
@@ -5180,10 +5294,10 @@
         <v>11</v>
       </c>
       <c r="O1" s="69" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="P1" s="70" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="Q1" s="70" t="s">
         <v>55</v>
@@ -5191,100 +5305,100 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="56" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="L5" s="75" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M5" s="56" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O5" s="56" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="P5" s="56"/>
       <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="70"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="70"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
@@ -5293,7 +5407,7 @@
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
       <c r="H11" s="56" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
@@ -5307,55 +5421,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="70"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="70"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q15" s="70"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="70"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="70"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="70"/>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="70"/>
     </row>
     <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="70"/>
     </row>
@@ -5367,20 +5481,20 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="70"/>
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="78" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="E23" s="78" t="s">
         <v>16</v>
@@ -5392,7 +5506,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="78" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="I23" s="76" t="s">
         <v>27</v>
@@ -5405,20 +5519,20 @@
         <v>20</v>
       </c>
       <c r="M23" s="73" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="N23" s="78" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="78" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="P23" s="78"/>
       <c r="Q23" s="70"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q24" s="70"/>
     </row>
@@ -5432,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5465,13 +5579,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="I1" s="32" t="s">
         <v>55</v>
@@ -5479,40 +5593,40 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>32</v>
@@ -5525,13 +5639,13 @@
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>32</v>
@@ -5544,13 +5658,13 @@
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>32</v>
@@ -5563,43 +5677,43 @@
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -5609,16 +5723,16 @@
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -5628,22 +5742,22 @@
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -5651,16 +5765,16 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>
@@ -5676,36 +5790,211 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.85546875" style="53" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="9.140625" style="53"/>
+    <col min="4" max="4" width="9.140625" style="53" collapsed="1"/>
+    <col min="5" max="10" width="9.140625" style="53"/>
+    <col min="11" max="11" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="53" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="59" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="AA1" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>591</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>592</v>
+      </c>
+      <c r="K2" s="81" t="s">
+        <v>593</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57" t="s">
+        <v>594</v>
+      </c>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>596</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="U2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="59"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5736,13 +6025,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -5754,90 +6043,176 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="70.140625" style="53" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="70.140625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="53" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="26" style="53" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="53" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" style="53" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="B1" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>611</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>613</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>614</v>
+      </c>
+      <c r="L1" s="83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" s="34">
+        <v>4045021727</v>
+      </c>
+      <c r="D5" s="34">
+        <v>4049021727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="34">
+        <v>4042052348</v>
+      </c>
+      <c r="C6" s="34">
+        <v>4042053248</v>
+      </c>
+      <c r="D6" s="34">
+        <v>4042053299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="49" t="s">
+        <v>628</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="81" t="s">
+        <v>630</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>631</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>632</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>633</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5874,7 +6249,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -5894,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="2"/>
@@ -5924,7 +6299,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="2"/>
@@ -5959,10 +6334,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>48</v>
@@ -5979,10 +6354,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
@@ -5990,7 +6365,7 @@
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
       <c r="F2" s="54" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>55</v>
@@ -5998,22 +6373,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E3" s="54">
         <v>32246</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>55</v>
@@ -6021,10 +6396,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -6032,7 +6407,7 @@
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="54" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G4" s="32" t="s">
         <v>55</v>
@@ -6040,18 +6415,18 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="31" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E5" s="54">
         <v>32246</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>55</v>
@@ -6059,10 +6434,10 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
@@ -6076,22 +6451,22 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E7" s="54">
         <v>32246</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>55</v>
@@ -6099,7 +6474,7 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -6112,7 +6487,7 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -6125,7 +6500,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -6138,7 +6513,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -6151,7 +6526,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -6197,19 +6572,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -6242,13 +6617,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -6289,7 +6664,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>82</v>
@@ -6301,13 +6676,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -6338,10 +6713,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>55</v>
@@ -6349,7 +6724,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6357,10 +6732,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
@@ -6369,10 +6744,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -6381,10 +6756,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
@@ -6423,10 +6798,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>55</v>
@@ -6434,7 +6809,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6442,10 +6817,10 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
@@ -6454,10 +6829,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
@@ -6466,10 +6841,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
@@ -6510,7 +6885,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6552,31 +6927,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6584,13 +6959,13 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D5" s="32"/>
     </row>
@@ -6624,13 +6999,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>55</v>
@@ -6638,22 +7013,22 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G2" s="28"/>
     </row>
@@ -6689,7 +7064,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6775,7 +7150,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -6817,7 +7192,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>82</v>
@@ -6829,19 +7204,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -6855,10 +7230,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6867,189 +7242,223 @@
     <col min="2" max="2" width="24" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.28515625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="16" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>601</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>570</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7061,10 +7470,9 @@
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
     <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -7090,13 +7498,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>55</v>
@@ -7104,76 +7512,76 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -7213,19 +7621,19 @@
         <v>40</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>56</v>
@@ -7237,10 +7645,10 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -7264,7 +7672,7 @@
         <v>76</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -7313,10 +7721,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>48</v>
@@ -7325,16 +7733,16 @@
         <v>46</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>1</v>
@@ -7376,7 +7784,7 @@
         <v>11</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="X1" s="35" t="s">
         <v>12</v>
@@ -7394,7 +7802,7 @@
         <v>45</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AD1" s="30" t="s">
         <v>56</v>
@@ -7405,7 +7813,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>13</v>
@@ -7443,13 +7851,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E3" s="21">
         <v>35204</v>
@@ -7462,35 +7870,35 @@
         <v>33</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="N3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="R3" s="24"/>
       <c r="S3" s="21" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="V3" s="24">
         <v>35204</v>
@@ -7499,7 +7907,7 @@
         <v>19</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Y3" s="21" t="s">
         <v>13</v>
@@ -7523,7 +7931,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>13</v>
@@ -7561,7 +7969,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>13</v>
@@ -7599,7 +8007,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>13</v>
@@ -7637,7 +8045,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -7675,13 +8083,13 @@
         <v>89</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>0</v>
@@ -7717,7 +8125,7 @@
         <v>90</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>13</v>
@@ -7755,16 +8163,16 @@
         <v>91</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -7797,7 +8205,7 @@
         <v>73</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>13</v>
@@ -7805,16 +8213,16 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="20" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -7843,7 +8251,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>13</v>
@@ -7919,28 +8327,28 @@
         <v>46</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>23</v>
@@ -7957,13 +8365,13 @@
         <v>92</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>13</v>
@@ -7987,13 +8395,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>13</v>
@@ -8014,43 +8422,43 @@
     </row>
     <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L4" s="39" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N4" s="30"/>
     </row>
@@ -8098,10 +8506,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>22</v>
@@ -8110,22 +8518,22 @@
         <v>44</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>56</v>
@@ -8142,16 +8550,16 @@
         <v>60004</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>13</v>
@@ -8163,9 +8571,9 @@
       <c r="M2" s="34"/>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B3" s="31">
         <v>7734122379</v>
@@ -8174,32 +8582,32 @@
         <v>60004</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="N3" s="30"/>
     </row>
@@ -8214,7 +8622,7 @@
         <v>60004</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>13</v>
@@ -8240,7 +8648,7 @@
         <v>60004</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>13</v>
@@ -8333,7 +8741,7 @@
         <v>43</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M1" s="41" t="s">
         <v>7</v>
@@ -8354,13 +8762,13 @@
         <v>11</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="T1" s="41" t="s">
         <v>12</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="V1" s="41" t="s">
         <v>22</v>
@@ -8392,7 +8800,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>32</v>
@@ -8401,48 +8809,48 @@
         <v>33</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="39" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="P2" s="39"/>
       <c r="Q2" s="45" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="R2" s="38" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="S2" s="38" t="s">
         <v>19</v>
       </c>
       <c r="T2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="U2" s="38" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>13</v>
@@ -8470,37 +8878,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>449</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>458</v>
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="39" t="s">
@@ -8508,16 +8916,16 @@
       </c>
       <c r="P3" s="39"/>
       <c r="Q3" s="38" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="U3" s="38"/>
       <c r="V3" s="39" t="s">
@@ -8546,7 +8954,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>32</v>
@@ -8555,47 +8963,47 @@
         <v>15</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="39"/>
       <c r="Q4" s="38" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="R4" s="38" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>19</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U4" s="38"/>
       <c r="V4" s="39" t="s">
@@ -8624,7 +9032,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>32</v>
@@ -8633,28 +9041,28 @@
         <v>15</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K5" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="L5" s="38" t="s">
-        <v>448</v>
-      </c>
       <c r="M5" s="38" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="38" t="s">
@@ -8662,16 +9070,16 @@
       </c>
       <c r="P5" s="39"/>
       <c r="Q5" s="38" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="S5" s="38" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="U5" s="38"/>
       <c r="V5" s="39" t="s">
@@ -8775,7 +9183,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="R1" s="30" t="s">
         <v>12</v>
@@ -8810,7 +9218,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>15</v>
@@ -8831,7 +9239,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>27</v>
@@ -8851,7 +9259,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>13</v>
@@ -8914,7 +9322,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>15</v>
@@ -8935,7 +9343,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>27</v>
@@ -8955,7 +9363,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>13</v>
@@ -8977,19 +9385,19 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>26</v>
@@ -9004,7 +9412,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>27</v>
@@ -9017,7 +9425,7 @@
         <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>0</v>
@@ -9026,7 +9434,7 @@
         <v>19</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>13</v>
@@ -9048,17 +9456,17 @@
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>26</v>
@@ -9073,7 +9481,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>27</v>
@@ -9086,7 +9494,7 @@
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="P6" s="31" t="s">
         <v>0</v>
@@ -9095,7 +9503,7 @@
         <v>19</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>13</v>

--- a/Demo/TestData/Global_TestData_Sheet.xlsx
+++ b/Demo/TestData/Global_TestData_Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="753" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="695">
   <si>
     <t>32256</t>
   </si>
@@ -392,9 +392,6 @@
     <t>TC001_StoreLocator</t>
   </si>
   <si>
-    <t>TC_02_Store_Locator_ZipCode</t>
-  </si>
-  <si>
     <t>TC_03_Store_Locator_ChangeLocation</t>
   </si>
   <si>
@@ -1719,9 +1716,6 @@
   </si>
   <si>
     <t>milkybar9</t>
-  </si>
-  <si>
-    <t>milkybar10</t>
   </si>
   <si>
     <t>milkybar11</t>
@@ -1829,9 +1823,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Mango</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -1989,6 +1980,165 @@
   </si>
   <si>
     <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>Mango1</t>
+  </si>
+  <si>
+    <t>Invalid_Domain1</t>
+  </si>
+  <si>
+    <t>Invalid_Domain2</t>
+  </si>
+  <si>
+    <t>Invalid_Domain3</t>
+  </si>
+  <si>
+    <t>Invalid_Domain4</t>
+  </si>
+  <si>
+    <t>Invalid_Domain5</t>
+  </si>
+  <si>
+    <t>Invalid_Domain6</t>
+  </si>
+  <si>
+    <t>Invalid_Domain7</t>
+  </si>
+  <si>
+    <t>Invalid_Domain8</t>
+  </si>
+  <si>
+    <t>Invalid_Domain9</t>
+  </si>
+  <si>
+    <t>Invalid_Domain10</t>
+  </si>
+  <si>
+    <t>Invalid_Domain11</t>
+  </si>
+  <si>
+    <t>Invalid_Domain12</t>
+  </si>
+  <si>
+    <t>Invalid_Domain13</t>
+  </si>
+  <si>
+    <t>Invalid_Domain14</t>
+  </si>
+  <si>
+    <t>Invalid_Domain15</t>
+  </si>
+  <si>
+    <t>TC013_Validate_the_blocked_list_of_email_domains_should_not_be_allowed</t>
+  </si>
+  <si>
+    <t>5015036630</t>
+  </si>
+  <si>
+    <t>test01@mailinator.com</t>
+  </si>
+  <si>
+    <t>test01@cuvox.de</t>
+  </si>
+  <si>
+    <t>test01@armyspy.com</t>
+  </si>
+  <si>
+    <t>test01@gustr.com</t>
+  </si>
+  <si>
+    <t>test01@dayrep.com</t>
+  </si>
+  <si>
+    <t>test01@einrot.com</t>
+  </si>
+  <si>
+    <t>test01@fleckens.hu</t>
+  </si>
+  <si>
+    <t>test01@jourrapide.com</t>
+  </si>
+  <si>
+    <t>test01@rhyta.com</t>
+  </si>
+  <si>
+    <t>test01@superrito.com</t>
+  </si>
+  <si>
+    <t>test01@teleworm.us</t>
+  </si>
+  <si>
+    <t>test01@sharklasers.com</t>
+  </si>
+  <si>
+    <t>test01@guerrillamail.com</t>
+  </si>
+  <si>
+    <t>test01@tempmail.com</t>
+  </si>
+  <si>
+    <t>test01@text.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>WD_ZIP</t>
+  </si>
+  <si>
+    <t>BL_ZIP</t>
+  </si>
+  <si>
+    <t>HV_ZIP</t>
+  </si>
+  <si>
+    <t>WD_CITY</t>
+  </si>
+  <si>
+    <t>BL_CITY</t>
+  </si>
+  <si>
+    <t>HV_CITY</t>
+  </si>
+  <si>
+    <t>Change_Zipcode_WD</t>
+  </si>
+  <si>
+    <t>Change_Zipcode_BL</t>
+  </si>
+  <si>
+    <t>Change_Zipcode_HV</t>
+  </si>
+  <si>
+    <t>TC02_Store_Locator_Zipcode</t>
+  </si>
+  <si>
+    <t>28214</t>
+  </si>
+  <si>
+    <t>32216</t>
+  </si>
+  <si>
+    <t>32210</t>
+  </si>
+  <si>
+    <t>29615</t>
+  </si>
+  <si>
+    <t>32209</t>
+  </si>
+  <si>
+    <t>vanivathsala.cvr@gmail.com</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Greenville, SC</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2215,7 +2365,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2588,7 +2737,7 @@
         <v>89</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>28</v>
@@ -2611,7 +2760,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>28</v>
@@ -2631,10 +2780,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>28</v>
@@ -2654,10 +2803,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -2680,7 +2829,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -2703,7 +2852,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>28</v>
@@ -2726,7 +2875,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
@@ -2749,7 +2898,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
@@ -2772,7 +2921,7 @@
         <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -2792,10 +2941,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
@@ -2818,7 +2967,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>28</v>
@@ -2841,7 +2990,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>28</v>
@@ -2861,10 +3010,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>28</v>
@@ -2887,7 +3036,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>28</v>
@@ -2910,7 +3059,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>28</v>
@@ -2933,7 +3082,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>28</v>
@@ -2956,7 +3105,7 @@
         <v>101</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>28</v>
@@ -2979,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>28</v>
@@ -3002,7 +3151,7 @@
         <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>28</v>
@@ -3025,7 +3174,7 @@
         <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -3048,7 +3197,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>28</v>
@@ -3068,10 +3217,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>28</v>
@@ -3091,10 +3240,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>28</v>
@@ -3117,7 +3266,7 @@
         <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>28</v>
@@ -3140,7 +3289,7 @@
         <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>28</v>
@@ -3163,7 +3312,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>28</v>
@@ -3183,10 +3332,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>28</v>
@@ -3209,7 +3358,7 @@
         <v>107</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>28</v>
@@ -3232,7 +3381,7 @@
         <v>108</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>28</v>
@@ -3255,7 +3404,7 @@
         <v>109</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>28</v>
@@ -3278,7 +3427,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>28</v>
@@ -3301,7 +3450,7 @@
         <v>44</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>28</v>
@@ -3327,72 +3476,217 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="9.140625" style="52"/>
+    <col min="5" max="5" width="17" style="52" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="21" style="52" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="52" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3430,13 +3724,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>50</v>
@@ -3444,12 +3738,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>13</v>
@@ -3459,12 +3753,12 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>13</v>
@@ -3474,7 +3768,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5">
         <v>4049092155</v>
@@ -3483,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>13</v>
@@ -3493,7 +3787,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="5">
         <v>4049092155</v>
@@ -3508,7 +3802,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="5">
         <v>4049092155</v>
@@ -3536,9 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3556,614 +3848,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
+        <v>620</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="M1" s="56" t="s">
         <v>623</v>
       </c>
-      <c r="K1" s="57" t="s">
-        <v>624</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>625</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>626</v>
-      </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="56" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>140</v>
+      <c r="A2" s="58" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" s="55" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="H2" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>141</v>
+      <c r="A3" s="58" t="s">
+        <v>140</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" s="54" t="s">
         <v>627</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="56" t="s">
+      <c r="H3" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>628</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="56"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>142</v>
+      <c r="A4" s="58" t="s">
+        <v>141</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G4" s="55" t="s">
-        <v>633</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>581</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>634</v>
-      </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>143</v>
+      <c r="A5" s="58" t="s">
+        <v>142</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="N5" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="55" t="s">
-        <v>635</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>636</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>637</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>638</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>144</v>
+      <c r="A6" s="58" t="s">
+        <v>143</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>627</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F6" s="56" t="s">
+      <c r="I6" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>630</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>581</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>639</v>
-      </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="56"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>145</v>
+      <c r="A7" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="54">
+        <v>1</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>637</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G7" s="55">
-        <v>1</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>633</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>581</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="56"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>146</v>
+      <c r="A8" s="58" t="s">
+        <v>145</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>641</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>642</v>
-      </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>147</v>
+      <c r="A9" s="58" t="s">
+        <v>146</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>627</v>
-      </c>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F9" s="56" t="s">
+      <c r="E9" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="G9" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>643</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>644</v>
-      </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="56"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="57"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="57"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="56"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="57"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="56"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="57"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="56"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="57"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="57"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="56"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="57"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="57"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="56"/>
+    </row>
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="57"/>
-    </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="57"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4194,7 +4486,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -4206,1227 +4498,1558 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="9.140625" style="17" collapsed="1"/>
-    <col min="11" max="11" width="13.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="17" collapsed="1"/>
-    <col min="14" max="14" width="11.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.28515625" style="17" customWidth="1" collapsed="1"/>
-    <col min="16" max="18" width="9.140625" style="17" collapsed="1"/>
-    <col min="19" max="19" width="33.85546875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="11" style="17" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" width="48.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="52" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="5" max="10" width="9.140625" style="52" collapsed="1"/>
+    <col min="11" max="11" width="13.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="52" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.28515625" style="52" customWidth="1" collapsed="1"/>
+    <col min="16" max="18" width="9.140625" style="52"